--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19175" windowHeight="8484"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="122">
   <si>
     <t>单元格里的
 [回车键]用
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>在WEB-INF下的数据用户是受到保护的，用户无法直接访问到，所以需要将整个jsp文件拷贝到WebContent目录下，否则会无法找到想要访问的jsp文件</t>
+  </si>
+  <si>
+    <t>完成了简单的用户登录界面，用户注册界面，管理员登陆界面</t>
+  </si>
+  <si>
+    <t>刘正坤</t>
   </si>
   <si>
     <t>其他例子</t>
@@ -447,10 +453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="28">
@@ -506,37 +512,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,24 +532,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,6 +543,22 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,24 +594,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,8 +609,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,8 +645,24 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,49 +695,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,7 +725,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +743,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,31 +785,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,49 +815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +833,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,17 +996,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,6 +1016,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,31 +1060,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,148 +1089,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:AB247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.6"/>
@@ -1850,13 +1850,18 @@
     </row>
     <row r="5" ht="81.95" customHeight="1" spans="1:28">
       <c r="A5" s="6"/>
-      <c r="B5"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="18"/>
+      <c r="E5" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="20">
+        <v>43640</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -9082,7 +9087,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -9121,7 +9126,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -9133,7 +9138,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -9164,13 +9169,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -9205,17 +9210,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -9246,13 +9251,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -9287,13 +9292,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -9328,19 +9333,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -9371,19 +9376,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -9414,13 +9419,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -9455,13 +9460,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -9493,13 +9498,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -9531,19 +9536,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -9574,17 +9579,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -9615,19 +9620,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -9658,13 +9663,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -9697,19 +9702,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -9739,13 +9744,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -9777,13 +9782,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -9815,19 +9820,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -9857,17 +9862,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -9897,13 +9902,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -9935,19 +9940,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -9977,13 +9982,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10015,13 +10020,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10053,13 +10058,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10091,13 +10096,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10129,13 +10134,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -10167,13 +10172,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10205,13 +10210,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -10245,10 +10250,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -10281,10 +10286,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -10317,17 +10322,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -10357,17 +10362,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -10397,17 +10402,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -10437,13 +10442,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -10475,13 +10480,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -10513,10 +10518,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -10549,17 +10554,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -10589,10 +10594,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -10625,10 +10630,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -10661,17 +10666,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -10701,10 +10706,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -10737,13 +10742,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -10775,10 +10780,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -10871,13 +10876,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -10909,13 +10914,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="134">
   <si>
     <t>单元格里的
 [回车键]用
@@ -61,10 +61,196 @@
     <t>在WEB-INF下的数据用户是受到保护的，用户无法直接访问到，所以需要将整个jsp文件拷贝到WebContent目录下，否则会无法找到想要访问的jsp文件</t>
   </si>
   <si>
+    <t>刘正坤</t>
+  </si>
+  <si>
     <t>完成了简单的用户登录界面，用户注册界面，管理员登陆界面</t>
   </si>
   <si>
-    <t>刘正坤</t>
+    <t xml:space="preserve">配置web.xml文件时，报错“The processing instruction target matching "[xX][mM][lL]" is not al” </t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;前面不要有任何其他字符，如空格、回车、换行这些否则就会出现上面的异常。  也就是把这条语句放在xml文件第一行</t>
+  </si>
+  <si>
+    <t>郭校钢</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置web.xml文件时，报错“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The content of element type "web-app" must match "(icon?,display- name?,description?,distributable?,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>原因大概是 web.xml中标签顺序不符合web-app_2_3.dtd规范。所以两个办法   1）严格按照提示上的顺序排列  2）删除&lt;!DOCTYPE web-app PUBLIC "-//Sun Microsystems, Inc.//DTD Web Application 2.3//EN"  "http://java.sun.com/dtd/web-app_2_3.dtd" &gt;这段内容</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置spring-tx.xml文件报错：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Referenced file contains errors (http://www.springframework.org/schema/tx/spring-tx-4.0.xsd). For more information, right click on the message in the Problems View and select "Show Detail</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果你的工具较新，有可能是缺少标签，给&lt;beans&gt;&lt;/beans&gt;加上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;xml-body&gt;&lt;/xml-body&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签包围起来即可。</t>
+    </r>
+  </si>
+  <si>
+    <t>eclipse里包右键创建子包，父包和子包并列的问题</t>
+  </si>
+  <si>
+    <t>包管理器里下三角箭头 选择Hierarchical</t>
+  </si>
+  <si>
+    <t>eclipse项目中的包路径编程文件夹目录形式</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>右键项目 --&gt; 点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">properties --&gt; Java Build Path --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>切换到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Source </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">页 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>展开找到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Exclude,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这里正常情况下是None，现在发现是xx，所以需要修改。点击 edit，然后remove这个pattern，然后finish。这样就可以解决</t>
+    </r>
+  </si>
+  <si>
+    <t>maven项目与navicat中mysql数据库的连接问题（配置文件）（无法连接数据库  判断连接成功的方法）</t>
   </si>
   <si>
     <t>其他例子</t>
@@ -454,12 +640,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -499,12 +685,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
@@ -518,8 +698,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,9 +714,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -546,16 +758,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -571,31 +805,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,21 +835,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -631,34 +842,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -701,13 +900,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,7 +954,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,7 +996,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,43 +1014,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,19 +1044,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,49 +1068,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,35 +1186,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,6 +1212,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,17 +1258,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,152 +1288,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1298,9 +1497,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1310,7 +1506,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1664,11 +1860,11 @@
   <sheetPr/>
   <dimension ref="A1:AB247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="5.25" customWidth="1"/>
@@ -1716,7 +1912,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" ht="16.5" spans="1:28">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -1850,17 +2046,21 @@
     </row>
     <row r="5" ht="81.95" customHeight="1" spans="1:28">
       <c r="A5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="20">
+        <v>43640</v>
+      </c>
       <c r="E5" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="20">
         <v>43640</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1885,12 +2085,24 @@
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:28">
       <c r="A6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="20">
+        <v>43640</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14">
+        <v>43640</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1912,14 +2124,26 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" ht="18.95" customHeight="1" spans="1:28">
+    <row r="7" ht="111" customHeight="1" spans="1:28">
       <c r="A7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="20">
+        <v>43640</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="14">
+        <v>43640</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1941,14 +2165,26 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" ht="18.95" customHeight="1" spans="1:28">
+    <row r="8" ht="85" customHeight="1" spans="1:28">
       <c r="A8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="20">
+        <v>43640</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="14">
+        <v>43640</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1972,12 +2208,24 @@
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:28">
       <c r="A9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="20">
+        <v>43640</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="14">
+        <v>43640</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1999,14 +2247,26 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" ht="39.95" customHeight="1" spans="1:28">
+    <row r="10" ht="90" customHeight="1" spans="1:28">
       <c r="A10" s="6"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="20">
+        <v>43640</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="20">
+        <v>43640</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -2030,11 +2290,17 @@
     </row>
     <row r="11" ht="89.1" customHeight="1" spans="1:28">
       <c r="A11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="20">
+        <v>43640</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="8"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -2261,7 +2527,7 @@
       <c r="AB18" s="5"/>
     </row>
     <row r="19" ht="78.95" customHeight="1" spans="1:28">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -2290,7 +2556,7 @@
       <c r="AB19" s="5"/>
     </row>
     <row r="20" ht="48" customHeight="1" spans="1:28">
-      <c r="A20" s="22"/>
+      <c r="A20" s="21"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -2323,7 +2589,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="14"/>
       <c r="H21" s="9"/>
       <c r="I21" s="5"/>
@@ -2352,7 +2618,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="23"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="14"/>
       <c r="H22" s="9"/>
       <c r="I22" s="5"/>
@@ -2526,7 +2792,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="24"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="9"/>
       <c r="H28" s="8"/>
       <c r="I28" s="5"/>
@@ -2555,7 +2821,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="24"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="9"/>
       <c r="H29" s="8"/>
       <c r="I29" s="5"/>
@@ -2584,7 +2850,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="24"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="9"/>
       <c r="H30" s="8"/>
       <c r="I30" s="5"/>
@@ -2613,7 +2879,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="5"/>
@@ -2642,7 +2908,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="24"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
       <c r="I32" s="5"/>
@@ -2671,7 +2937,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="24"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
       <c r="I33" s="5"/>
@@ -2700,7 +2966,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="24"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
       <c r="I34" s="5"/>
@@ -2729,7 +2995,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="24"/>
+      <c r="F35" s="23"/>
       <c r="G35" s="9"/>
       <c r="H35" s="8"/>
       <c r="I35" s="5"/>
@@ -2758,7 +3024,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="24"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="9"/>
       <c r="H36" s="8"/>
       <c r="I36" s="5"/>
@@ -2787,7 +3053,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="25"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="5"/>
@@ -2815,7 +3081,7 @@
       <c r="A38" s="6"/>
       <c r="C38" s="9"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="24"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="9"/>
       <c r="G38" s="14"/>
       <c r="H38" s="9"/>
@@ -3391,7 +3657,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="6"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -3427,7 +3693,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="26"/>
+      <c r="H59" s="25"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -3478,7 +3744,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="6"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -3565,7 +3831,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="6"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -3652,7 +3918,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="6"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -4179,7 +4445,7 @@
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="23"/>
+      <c r="F85" s="22"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="5"/>
@@ -4208,7 +4474,7 @@
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="12"/>
-      <c r="F86" s="22"/>
+      <c r="F86" s="21"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="5"/>
@@ -4522,7 +4788,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" ht="16.5" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4552,7 +4818,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" ht="16.5" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4582,7 +4848,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" ht="16.5" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4612,7 +4878,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" ht="16.5" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4642,7 +4908,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" ht="16.5" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4672,7 +4938,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" ht="16.5" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4702,7 +4968,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" ht="16.5" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4732,7 +4998,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" ht="16.5" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4762,7 +5028,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" ht="16.5" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4792,7 +5058,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" ht="16.5" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -4822,7 +5088,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" ht="16.5" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -4852,7 +5118,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" ht="16.5" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -4882,7 +5148,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" ht="16.5" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -4912,7 +5178,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" ht="16.5" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -4942,7 +5208,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" ht="16.5" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -4972,7 +5238,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" ht="16.5" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5002,7 +5268,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" ht="16.5" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5032,7 +5298,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" ht="16.5" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5062,7 +5328,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" ht="16.5" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5092,7 +5358,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" ht="16.5" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5122,7 +5388,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" ht="16.5" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -5152,7 +5418,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" ht="16.5" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5182,7 +5448,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" ht="16.5" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -5212,7 +5478,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" ht="16.5" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -5242,7 +5508,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" ht="16.5" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -5272,7 +5538,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" ht="16.5" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -5302,7 +5568,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" ht="16.5" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -5332,7 +5598,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" ht="16.5" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -5362,7 +5628,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" ht="16.5" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5392,7 +5658,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" ht="16.5" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -5422,7 +5688,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" ht="16.5" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -5452,7 +5718,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" ht="16.5" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -5482,7 +5748,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" ht="16.5" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -5512,7 +5778,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" ht="16.5" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -5542,7 +5808,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" ht="16.5" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -5572,7 +5838,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" ht="16.5" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -5602,7 +5868,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" ht="16.5" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -5632,7 +5898,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" ht="16.5" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -5662,7 +5928,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" ht="16.5" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -5692,7 +5958,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" ht="16.5" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -5722,7 +5988,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" ht="16.5" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -5752,7 +6018,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" ht="16.5" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -5782,7 +6048,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" ht="16.5" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -5812,7 +6078,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" ht="16.5" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -5842,7 +6108,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" ht="16.5" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -5872,7 +6138,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" ht="16.5" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -5902,7 +6168,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" ht="16.5" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -5932,7 +6198,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" ht="16.5" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -5962,7 +6228,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" ht="16.5" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -5992,7 +6258,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" ht="16.5" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6022,7 +6288,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" ht="16.5" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6052,7 +6318,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" ht="16.5" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6082,7 +6348,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" ht="16.5" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6112,7 +6378,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" ht="16.5" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6142,7 +6408,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" ht="16.5" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6172,7 +6438,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" ht="16.5" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6202,7 +6468,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" ht="16.5" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -6232,7 +6498,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" ht="16.5" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -6262,7 +6528,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" ht="16.5" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6292,7 +6558,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" ht="16.5" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -6322,7 +6588,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" ht="16.5" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -6352,7 +6618,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" ht="16.5" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -6382,7 +6648,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" ht="16.5" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -6412,7 +6678,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" ht="16.5" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -6442,7 +6708,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" ht="16.5" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -6472,7 +6738,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" ht="16.5" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -6502,7 +6768,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" ht="16.5" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -6532,7 +6798,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" ht="16.5" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -6562,7 +6828,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" ht="16.5" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -6592,7 +6858,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" ht="16.5" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -6622,7 +6888,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" ht="16.5" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -6652,7 +6918,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" ht="16.5" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -6682,7 +6948,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" ht="16.5" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -6712,7 +6978,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" ht="16.5" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -6742,7 +7008,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" ht="16.5" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -6772,7 +7038,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" ht="16.5" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -6802,7 +7068,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" ht="16.5" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -6832,7 +7098,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" ht="16.5" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -6862,7 +7128,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" ht="16.5" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -6892,7 +7158,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" ht="16.5" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -6922,7 +7188,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" ht="16.5" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -6952,7 +7218,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" ht="16.5" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -6982,7 +7248,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" ht="16.5" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -7012,7 +7278,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" ht="16.5" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -7042,7 +7308,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" ht="16.5" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -7072,7 +7338,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" ht="16.5" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -7102,7 +7368,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" ht="16.5" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -7132,7 +7398,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" ht="16.5" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -7162,7 +7428,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" ht="16.5" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -7192,7 +7458,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" ht="16.5" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -7222,7 +7488,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" ht="16.5" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -7252,7 +7518,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" ht="16.5" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -7282,7 +7548,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" ht="16.5" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -7312,7 +7578,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" ht="16.5" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -7342,7 +7608,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" ht="16.5" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -7372,7 +7638,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" ht="16.5" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -7402,7 +7668,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" ht="16.5" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -7432,7 +7698,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" ht="16.5" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -7462,7 +7728,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" ht="16.5" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -7492,7 +7758,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" ht="16.5" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -7522,7 +7788,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" ht="16.5" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -7552,7 +7818,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" ht="16.5" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -7582,7 +7848,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" ht="16.5" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -7612,7 +7878,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" ht="16.5" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -7642,7 +7908,7 @@
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
     </row>
-    <row r="201" spans="1:28">
+    <row r="201" ht="16.5" spans="1:28">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -7672,7 +7938,7 @@
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
     </row>
-    <row r="202" spans="1:28">
+    <row r="202" ht="16.5" spans="1:28">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -7702,7 +7968,7 @@
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
     </row>
-    <row r="203" spans="1:28">
+    <row r="203" ht="16.5" spans="1:28">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -7732,7 +7998,7 @@
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
     </row>
-    <row r="204" spans="1:28">
+    <row r="204" ht="16.5" spans="1:28">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -7762,7 +8028,7 @@
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
     </row>
-    <row r="205" spans="1:28">
+    <row r="205" ht="16.5" spans="1:28">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -7792,7 +8058,7 @@
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
     </row>
-    <row r="206" spans="1:28">
+    <row r="206" ht="16.5" spans="1:28">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -7822,7 +8088,7 @@
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
     </row>
-    <row r="207" spans="1:28">
+    <row r="207" ht="16.5" spans="1:28">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -7852,7 +8118,7 @@
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
     </row>
-    <row r="208" spans="1:28">
+    <row r="208" ht="16.5" spans="1:28">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -7882,7 +8148,7 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
     </row>
-    <row r="209" spans="1:28">
+    <row r="209" ht="16.5" spans="1:28">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -7912,7 +8178,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
     </row>
-    <row r="210" spans="1:28">
+    <row r="210" ht="16.5" spans="1:28">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -7942,7 +8208,7 @@
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
     </row>
-    <row r="211" spans="1:28">
+    <row r="211" ht="16.5" spans="1:28">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -7972,7 +8238,7 @@
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
     </row>
-    <row r="212" spans="1:28">
+    <row r="212" ht="16.5" spans="1:28">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -8002,7 +8268,7 @@
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
     </row>
-    <row r="213" spans="1:28">
+    <row r="213" ht="16.5" spans="1:28">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -8032,7 +8298,7 @@
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
     </row>
-    <row r="214" spans="1:28">
+    <row r="214" ht="16.5" spans="1:28">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -8062,7 +8328,7 @@
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
     </row>
-    <row r="215" spans="1:28">
+    <row r="215" ht="16.5" spans="1:28">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -8092,7 +8358,7 @@
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
     </row>
-    <row r="216" spans="1:28">
+    <row r="216" ht="16.5" spans="1:28">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -8122,7 +8388,7 @@
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
     </row>
-    <row r="217" spans="1:28">
+    <row r="217" ht="16.5" spans="1:28">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -8152,7 +8418,7 @@
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
     </row>
-    <row r="218" spans="1:28">
+    <row r="218" ht="16.5" spans="1:28">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -8182,7 +8448,7 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
     </row>
-    <row r="219" spans="1:28">
+    <row r="219" ht="16.5" spans="1:28">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -8212,7 +8478,7 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
     </row>
-    <row r="220" spans="1:28">
+    <row r="220" ht="16.5" spans="1:28">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -8242,7 +8508,7 @@
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
     </row>
-    <row r="221" spans="1:28">
+    <row r="221" ht="16.5" spans="1:28">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -8272,7 +8538,7 @@
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
     </row>
-    <row r="222" spans="1:28">
+    <row r="222" ht="16.5" spans="1:28">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -8302,7 +8568,7 @@
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
     </row>
-    <row r="223" spans="1:28">
+    <row r="223" ht="16.5" spans="1:28">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -8332,7 +8598,7 @@
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
     </row>
-    <row r="224" spans="1:28">
+    <row r="224" ht="16.5" spans="1:28">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -8362,7 +8628,7 @@
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
     </row>
-    <row r="225" spans="1:28">
+    <row r="225" ht="16.5" spans="1:28">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -8392,7 +8658,7 @@
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
     </row>
-    <row r="226" spans="1:28">
+    <row r="226" ht="16.5" spans="1:28">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -8422,7 +8688,7 @@
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
     </row>
-    <row r="227" spans="1:28">
+    <row r="227" ht="16.5" spans="1:28">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -8452,7 +8718,7 @@
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
     </row>
-    <row r="228" spans="1:28">
+    <row r="228" ht="16.5" spans="1:28">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -8482,7 +8748,7 @@
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
     </row>
-    <row r="229" spans="1:28">
+    <row r="229" ht="16.5" spans="1:28">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -8512,7 +8778,7 @@
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
     </row>
-    <row r="230" spans="1:28">
+    <row r="230" ht="16.5" spans="1:28">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -8542,7 +8808,7 @@
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
     </row>
-    <row r="231" spans="1:28">
+    <row r="231" ht="16.5" spans="1:28">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -8572,7 +8838,7 @@
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
     </row>
-    <row r="232" spans="1:28">
+    <row r="232" ht="16.5" spans="1:28">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -8602,7 +8868,7 @@
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
     </row>
-    <row r="233" spans="1:28">
+    <row r="233" ht="16.5" spans="1:28">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -8632,7 +8898,7 @@
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
     </row>
-    <row r="234" spans="1:28">
+    <row r="234" ht="16.5" spans="1:28">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -8662,7 +8928,7 @@
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
     </row>
-    <row r="235" spans="1:28">
+    <row r="235" ht="16.5" spans="1:28">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -8692,7 +8958,7 @@
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
     </row>
-    <row r="236" spans="1:28">
+    <row r="236" ht="16.5" spans="1:28">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -8722,7 +8988,7 @@
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
     </row>
-    <row r="237" spans="1:28">
+    <row r="237" ht="16.5" spans="1:28">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -8752,7 +9018,7 @@
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
     </row>
-    <row r="238" spans="1:28">
+    <row r="238" ht="16.5" spans="1:28">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -8782,7 +9048,7 @@
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
     </row>
-    <row r="239" spans="1:28">
+    <row r="239" ht="16.5" spans="1:28">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -8812,7 +9078,7 @@
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
     </row>
-    <row r="240" spans="1:28">
+    <row r="240" ht="16.5" spans="1:28">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -8842,7 +9108,7 @@
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
     </row>
-    <row r="241" spans="1:28">
+    <row r="241" ht="16.5" spans="1:28">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -8872,7 +9138,7 @@
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
     </row>
-    <row r="242" spans="1:28">
+    <row r="242" ht="16.5" spans="1:28">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -8902,7 +9168,7 @@
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
     </row>
-    <row r="243" spans="1:28">
+    <row r="243" ht="16.5" spans="1:28">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -8932,7 +9198,7 @@
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
     </row>
-    <row r="244" spans="1:28">
+    <row r="244" ht="16.5" spans="1:28">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -8962,7 +9228,7 @@
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
     </row>
-    <row r="245" spans="1:28">
+    <row r="245" ht="16.5" spans="1:28">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -8992,7 +9258,7 @@
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
     </row>
-    <row r="246" spans="1:28">
+    <row r="246" ht="16.5" spans="1:28">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -9022,7 +9288,7 @@
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
     </row>
-    <row r="247" spans="1:28">
+    <row r="247" ht="16.5" spans="1:28">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -9066,11 +9332,11 @@
   <sheetPr/>
   <dimension ref="A1:AB200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -9087,7 +9353,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -9120,13 +9386,13 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" ht="16.5" spans="1:28">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -9138,7 +9404,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -9169,13 +9435,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -9210,17 +9476,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -9251,13 +9517,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -9292,13 +9558,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -9323,7 +9589,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" ht="16.5" spans="1:28">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9333,19 +9599,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -9366,7 +9632,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" ht="16.5" spans="1:28">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -9376,19 +9642,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -9419,13 +9685,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -9450,7 +9716,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" ht="16.5" spans="1:28">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -9460,13 +9726,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -9498,13 +9764,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -9536,19 +9802,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -9579,17 +9845,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -9620,19 +9886,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -9663,13 +9929,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -9702,19 +9968,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -9735,7 +10001,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" ht="16.5" spans="1:28">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -9744,13 +10010,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -9773,7 +10039,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" ht="16.5" spans="1:28">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -9782,13 +10048,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -9820,19 +10086,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -9862,17 +10128,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -9902,13 +10168,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -9940,19 +10206,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -9982,13 +10248,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10020,13 +10286,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10058,13 +10324,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10096,13 +10362,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10134,13 +10400,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -10172,13 +10438,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10210,13 +10476,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -10250,10 +10516,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -10286,10 +10552,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -10322,17 +10588,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -10362,17 +10628,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -10393,7 +10659,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" ht="16.5" spans="1:28">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -10402,17 +10668,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -10433,7 +10699,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" ht="16.5" spans="1:28">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -10442,13 +10708,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -10471,7 +10737,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" ht="16.5" spans="1:28">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -10480,13 +10746,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -10518,10 +10784,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -10554,17 +10820,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -10594,10 +10860,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -10630,10 +10896,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -10657,7 +10923,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" ht="16.5" spans="1:28">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -10666,17 +10932,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -10697,7 +10963,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" ht="16.5" spans="1:28">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -10706,10 +10972,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -10742,13 +11008,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -10780,10 +11046,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -10807,7 +11073,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" ht="16.5" spans="1:28">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -10837,7 +11103,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" ht="16.5" spans="1:28">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -10867,7 +11133,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" ht="16.5" spans="1:28">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -10876,13 +11142,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -10914,13 +11180,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -10943,7 +11209,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" ht="16.5" spans="1:28">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -10973,7 +11239,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" ht="16.5" spans="1:28">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11003,7 +11269,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" ht="16.5" spans="1:28">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -11033,7 +11299,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" ht="16.5" spans="1:28">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -11063,7 +11329,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" ht="16.5" spans="1:28">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -11093,7 +11359,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" ht="16.5" spans="1:28">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -11123,7 +11389,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" ht="16.5" spans="1:28">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -11153,7 +11419,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" ht="16.5" spans="1:28">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -11183,7 +11449,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" ht="16.5" spans="1:28">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -11213,7 +11479,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -11243,7 +11509,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" ht="16.5" spans="1:28">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -11273,7 +11539,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" ht="16.5" spans="1:28">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -11303,7 +11569,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -11333,7 +11599,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" ht="16.5" spans="1:28">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -11363,7 +11629,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" ht="16.5" spans="1:28">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -11393,7 +11659,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -11423,7 +11689,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" ht="16.5" spans="1:28">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -11453,7 +11719,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" ht="16.5" spans="1:28">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -11483,7 +11749,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -11513,7 +11779,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" ht="16.5" spans="1:28">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -11543,7 +11809,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" ht="16.5" spans="1:28">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -11573,7 +11839,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" ht="16.5" spans="1:28">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -11603,7 +11869,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" ht="16.5" spans="1:28">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -11633,7 +11899,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" ht="16.5" spans="1:28">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -11663,7 +11929,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" ht="16.5" spans="1:28">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -11693,7 +11959,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" ht="16.5" spans="1:28">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -11723,7 +11989,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" ht="16.5" spans="1:28">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -11753,7 +12019,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" ht="16.5" spans="1:28">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -11783,7 +12049,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" ht="16.5" spans="1:28">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -11813,7 +12079,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" ht="16.5" spans="1:28">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -11843,7 +12109,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" ht="16.5" spans="1:28">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -11873,7 +12139,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" ht="16.5" spans="1:28">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -11903,7 +12169,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" ht="16.5" spans="1:28">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -11933,7 +12199,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" ht="16.5" spans="1:28">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -11963,7 +12229,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" ht="16.5" spans="1:28">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -11993,7 +12259,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" ht="16.5" spans="1:28">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12023,7 +12289,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" ht="16.5" spans="1:28">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -12053,7 +12319,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" ht="16.5" spans="1:28">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -12083,7 +12349,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" ht="16.5" spans="1:28">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12113,7 +12379,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" ht="16.5" spans="1:28">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -12143,7 +12409,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" ht="16.5" spans="1:28">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -12173,7 +12439,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" ht="16.5" spans="1:28">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -12203,7 +12469,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" ht="16.5" spans="1:28">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -12233,7 +12499,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" ht="16.5" spans="1:28">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -12263,7 +12529,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" ht="16.5" spans="1:28">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -12293,7 +12559,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" ht="16.5" spans="1:28">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -12323,7 +12589,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" ht="16.5" spans="1:28">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -12353,7 +12619,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" ht="16.5" spans="1:28">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -12383,7 +12649,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" ht="16.5" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -12413,7 +12679,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" ht="16.5" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -12443,7 +12709,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" ht="16.5" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -12473,7 +12739,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" ht="16.5" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -12503,7 +12769,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" ht="16.5" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -12533,7 +12799,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" ht="16.5" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -12563,7 +12829,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" ht="16.5" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -12593,7 +12859,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" ht="16.5" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -12623,7 +12889,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" ht="16.5" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -12653,7 +12919,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" ht="16.5" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -12683,7 +12949,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" ht="16.5" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -12713,7 +12979,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" ht="16.5" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -12743,7 +13009,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" ht="16.5" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -12773,7 +13039,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" ht="16.5" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -12803,7 +13069,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" ht="16.5" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -12833,7 +13099,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" ht="16.5" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -12863,7 +13129,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" ht="16.5" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -12893,7 +13159,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" ht="16.5" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -12923,7 +13189,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" ht="16.5" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -12953,7 +13219,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" ht="16.5" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -12983,7 +13249,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" ht="16.5" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -13013,7 +13279,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" ht="16.5" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -13043,7 +13309,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" ht="16.5" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -13073,7 +13339,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" ht="16.5" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -13103,7 +13369,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" ht="16.5" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -13133,7 +13399,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" ht="16.5" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -13163,7 +13429,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" ht="16.5" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -13193,7 +13459,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" ht="16.5" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -13223,7 +13489,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" ht="16.5" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -13253,7 +13519,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" ht="16.5" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -13283,7 +13549,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" ht="16.5" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -13313,7 +13579,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" ht="16.5" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -13343,7 +13609,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" ht="16.5" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -13373,7 +13639,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" ht="16.5" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -13403,7 +13669,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" ht="16.5" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -13433,7 +13699,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" ht="16.5" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -13463,7 +13729,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" ht="16.5" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -13493,7 +13759,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" ht="16.5" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -13523,7 +13789,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" ht="16.5" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -13553,7 +13819,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" ht="16.5" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -13583,7 +13849,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" ht="16.5" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -13613,7 +13879,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" ht="16.5" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -13643,7 +13909,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" ht="16.5" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -13673,7 +13939,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" ht="16.5" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -13703,7 +13969,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" ht="16.5" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -13733,7 +13999,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" ht="16.5" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -13763,7 +14029,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" ht="16.5" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -13793,7 +14059,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" ht="16.5" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -13823,7 +14089,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" ht="16.5" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -13853,7 +14119,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" ht="16.5" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -13883,7 +14149,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" ht="16.5" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -13913,7 +14179,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" ht="16.5" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -13943,7 +14209,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" ht="16.5" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -13973,7 +14239,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" ht="16.5" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -14003,7 +14269,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" ht="16.5" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -14033,7 +14299,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" ht="16.5" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -14063,7 +14329,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" ht="16.5" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -14093,7 +14359,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" ht="16.5" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -14123,7 +14389,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" ht="16.5" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -14153,7 +14419,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" ht="16.5" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -14183,7 +14449,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" ht="16.5" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -14213,7 +14479,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" ht="16.5" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -14243,7 +14509,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" ht="16.5" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -14273,7 +14539,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" ht="16.5" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -14303,7 +14569,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" ht="16.5" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -14333,7 +14599,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" ht="16.5" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -14363,7 +14629,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" ht="16.5" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -14393,7 +14659,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" ht="16.5" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -14423,7 +14689,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" ht="16.5" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -14453,7 +14719,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" ht="16.5" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -14483,7 +14749,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" ht="16.5" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -14513,7 +14779,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" ht="16.5" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -14543,7 +14809,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" ht="16.5" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -14573,7 +14839,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" ht="16.5" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -14603,7 +14869,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" ht="16.5" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -14633,7 +14899,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" ht="16.5" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -14663,7 +14929,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" ht="16.5" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -14693,7 +14959,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" ht="16.5" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -14723,7 +14989,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" ht="16.5" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -14753,7 +15019,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" ht="16.5" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -14783,7 +15049,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" ht="16.5" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -14813,7 +15079,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" ht="16.5" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -14843,7 +15109,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" ht="16.5" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -14873,7 +15139,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" ht="16.5" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -14903,7 +15169,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" ht="16.5" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -14933,7 +15199,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" ht="16.5" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -14963,7 +15229,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" ht="16.5" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -14993,7 +15259,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" ht="16.5" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -15023,7 +15289,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" ht="16.5" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -15053,7 +15319,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" ht="16.5" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -15083,7 +15349,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" ht="16.5" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -15113,7 +15379,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" ht="16.5" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -15143,7 +15409,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" ht="16.5" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -15173,7 +15439,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" ht="16.5" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -15203,7 +15469,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" ht="16.5" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -15233,7 +15499,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" ht="16.5" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -15263,7 +15529,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" ht="16.5" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -15293,7 +15559,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" ht="16.5" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -15323,7 +15589,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" ht="16.5" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -15353,7 +15619,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" ht="16.5" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -15383,7 +15649,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" ht="16.5" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -15413,7 +15679,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" ht="16.5" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -15443,7 +15709,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" ht="16.5" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -15473,7 +15739,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" ht="16.5" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="137">
   <si>
     <t>单元格里的
 [回车键]用
@@ -251,6 +251,15 @@
   </si>
   <si>
     <t>maven项目与navicat中mysql数据库的连接问题（配置文件）（无法连接数据库  判断连接成功的方法）</t>
+  </si>
+  <si>
+    <t>刘永志</t>
+  </si>
+  <si>
+    <t>配置tomcat9的环境时出错，各种解决办法试过之后都不行，遂换tomcat8.5，出现了端口号被占用的问题，已经jdk和jre的问题</t>
+  </si>
+  <si>
+    <t>把tomcat下cof文件夹下的server.xml文件中端口号信息修改，或者把占用该端口号的进程杀死。jdk和jre的问题在重新安装了jdk1.8之后就解决了</t>
   </si>
   <si>
     <t>其他例子</t>
@@ -639,10 +648,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="30">
@@ -691,16 +700,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,22 +716,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,17 +731,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -766,39 +746,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,9 +785,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -827,9 +837,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -894,37 +903,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,19 +927,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,13 +969,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +1011,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,43 +1041,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,31 +1065,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,6 +1195,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1197,6 +1235,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,48 +1278,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1272,164 +1292,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1860,8 +1869,8 @@
   <sheetPr/>
   <dimension ref="A1:AB247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2325,12 +2334,24 @@
     </row>
     <row r="12" ht="51" customHeight="1" spans="1:28">
       <c r="A12" s="6"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="20">
+        <v>43640</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="20">
+        <v>43640</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -9353,7 +9374,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -9392,7 +9413,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -9404,7 +9425,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -9435,13 +9456,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -9476,17 +9497,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -9517,13 +9538,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -9558,13 +9579,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -9599,19 +9620,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -9642,19 +9663,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -9685,13 +9706,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -9726,13 +9747,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -9764,13 +9785,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -9802,19 +9823,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -9845,17 +9866,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -9886,19 +9907,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -9929,13 +9950,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -9968,19 +9989,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10010,13 +10031,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10048,13 +10069,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10086,19 +10107,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10128,17 +10149,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10168,13 +10189,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10206,19 +10227,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10248,13 +10269,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10286,13 +10307,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10324,13 +10345,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10362,13 +10383,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10400,13 +10421,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -10438,13 +10459,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10476,13 +10497,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -10516,10 +10537,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -10552,10 +10573,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -10588,17 +10609,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -10628,17 +10649,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -10668,17 +10689,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -10708,13 +10729,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -10746,13 +10767,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -10784,10 +10805,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -10820,17 +10841,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -10860,10 +10881,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -10896,10 +10917,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -10932,17 +10953,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -10972,10 +10993,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11008,13 +11029,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11046,10 +11067,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11142,13 +11163,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11180,13 +11201,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="145">
   <si>
     <t>单元格里的
 [回车键]用
@@ -277,6 +277,15 @@
 Ex:
 body {background:#99FF00 url(../images/css_tutorials/background.jpg) no-repeat fixed 40px 100px}
 上面的代码表示，网页的背景颜色是翠绿色，背景图片是background.jpg图片，背景图片不重复显示，背景图片不随内容滚动而动，背景图片距离网页最左面40px，距离网页最上面100px.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2019/6/25</t>
+  </si>
+  <si>
+    <t>制作主页时，本该居正中的图片整体向右偏移了一段距离，</t>
+  </si>
+  <si>
+    <t>给该图片添加position:relative;的相对定位，使该图片呈现在与之相同宽度的log的正下方</t>
   </si>
   <si>
     <t>其他例子</t>
@@ -665,11 +674,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -717,37 +726,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -762,23 +740,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,14 +763,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,7 +771,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,7 +802,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,6 +841,37 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,13 +922,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,79 +1066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,13 +1078,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,55 +1096,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,6 +1216,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1216,41 +1234,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,8 +1261,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1293,162 +1311,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1584,6 +1593,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1866,20 +1880,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AB247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="5.2" customWidth="1"/>
@@ -1927,7 +1940,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:28">
+    <row r="2" spans="1:28">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -2457,10 +2470,18 @@
     </row>
     <row r="15" ht="132" customHeight="1" spans="1:28">
       <c r="A15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="5"/>
@@ -3702,7 +3723,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" ht="16.5" spans="1:28">
+    <row r="58" spans="1:28">
       <c r="A58" s="6"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -3789,7 +3810,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" ht="16.5" spans="1:28">
+    <row r="61" spans="1:28">
       <c r="A61" s="6"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -3876,7 +3897,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" ht="16.5" spans="1:28">
+    <row r="64" spans="1:28">
       <c r="A64" s="6"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -3963,7 +3984,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" ht="16.5" spans="1:28">
+    <row r="67" spans="1:28">
       <c r="A67" s="6"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -4833,7 +4854,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" ht="16.5" spans="1:28">
+    <row r="97" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4863,7 +4884,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" ht="16.5" spans="1:28">
+    <row r="98" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4893,7 +4914,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" ht="16.5" spans="1:28">
+    <row r="99" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4923,7 +4944,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" ht="16.5" spans="1:28">
+    <row r="100" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4953,7 +4974,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" ht="16.5" spans="1:28">
+    <row r="101" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4983,7 +5004,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" ht="16.5" spans="1:28">
+    <row r="102" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -5013,7 +5034,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" ht="16.5" spans="1:28">
+    <row r="103" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -5043,7 +5064,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" ht="16.5" spans="1:28">
+    <row r="104" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -5073,7 +5094,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" ht="16.5" spans="1:28">
+    <row r="105" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5103,7 +5124,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" ht="16.5" spans="1:28">
+    <row r="106" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5133,7 +5154,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" ht="16.5" spans="1:28">
+    <row r="107" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5163,7 +5184,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" ht="16.5" spans="1:28">
+    <row r="108" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5193,7 +5214,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" ht="16.5" spans="1:28">
+    <row r="109" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5223,7 +5244,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" ht="16.5" spans="1:28">
+    <row r="110" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5253,7 +5274,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" ht="16.5" spans="1:28">
+    <row r="111" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5283,7 +5304,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" ht="16.5" spans="1:28">
+    <row r="112" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5313,7 +5334,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" ht="16.5" spans="1:28">
+    <row r="113" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5343,7 +5364,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" ht="16.5" spans="1:28">
+    <row r="114" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5373,7 +5394,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" ht="16.5" spans="1:28">
+    <row r="115" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5403,7 +5424,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" ht="16.5" spans="1:28">
+    <row r="116" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5433,7 +5454,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" ht="16.5" spans="1:28">
+    <row r="117" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -5463,7 +5484,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" ht="16.5" spans="1:28">
+    <row r="118" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5493,7 +5514,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" ht="16.5" spans="1:28">
+    <row r="119" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -5523,7 +5544,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" ht="16.5" spans="1:28">
+    <row r="120" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -5553,7 +5574,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" ht="16.5" spans="1:28">
+    <row r="121" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -5583,7 +5604,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" ht="16.5" spans="1:28">
+    <row r="122" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -5613,7 +5634,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" ht="16.5" spans="1:28">
+    <row r="123" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -5643,7 +5664,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" ht="16.5" spans="1:28">
+    <row r="124" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -5673,7 +5694,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" ht="16.5" spans="1:28">
+    <row r="125" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5703,7 +5724,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" ht="16.5" spans="1:28">
+    <row r="126" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -5733,7 +5754,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" ht="16.5" spans="1:28">
+    <row r="127" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -5763,7 +5784,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" ht="16.5" spans="1:28">
+    <row r="128" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -5793,7 +5814,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" ht="16.5" spans="1:28">
+    <row r="129" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -5823,7 +5844,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" ht="16.5" spans="1:28">
+    <row r="130" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -5853,7 +5874,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" ht="16.5" spans="1:28">
+    <row r="131" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -5883,7 +5904,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" ht="16.5" spans="1:28">
+    <row r="132" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -5913,7 +5934,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" ht="16.5" spans="1:28">
+    <row r="133" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -5943,7 +5964,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" ht="16.5" spans="1:28">
+    <row r="134" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -5973,7 +5994,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" ht="16.5" spans="1:28">
+    <row r="135" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6003,7 +6024,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" ht="16.5" spans="1:28">
+    <row r="136" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6033,7 +6054,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" ht="16.5" spans="1:28">
+    <row r="137" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -6063,7 +6084,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" ht="16.5" spans="1:28">
+    <row r="138" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -6093,7 +6114,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" ht="16.5" spans="1:28">
+    <row r="139" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6123,7 +6144,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" ht="16.5" spans="1:28">
+    <row r="140" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6153,7 +6174,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" ht="16.5" spans="1:28">
+    <row r="141" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6183,7 +6204,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" ht="16.5" spans="1:28">
+    <row r="142" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6213,7 +6234,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" ht="16.5" spans="1:28">
+    <row r="143" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6243,7 +6264,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" ht="16.5" spans="1:28">
+    <row r="144" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6273,7 +6294,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" ht="16.5" spans="1:28">
+    <row r="145" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6303,7 +6324,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" ht="16.5" spans="1:28">
+    <row r="146" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6333,7 +6354,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" ht="16.5" spans="1:28">
+    <row r="147" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6363,7 +6384,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" ht="16.5" spans="1:28">
+    <row r="148" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6393,7 +6414,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" ht="16.5" spans="1:28">
+    <row r="149" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6423,7 +6444,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" ht="16.5" spans="1:28">
+    <row r="150" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6453,7 +6474,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" ht="16.5" spans="1:28">
+    <row r="151" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6483,7 +6504,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" ht="16.5" spans="1:28">
+    <row r="152" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6513,7 +6534,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" ht="16.5" spans="1:28">
+    <row r="153" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -6543,7 +6564,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" ht="16.5" spans="1:28">
+    <row r="154" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -6573,7 +6594,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" ht="16.5" spans="1:28">
+    <row r="155" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6603,7 +6624,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" ht="16.5" spans="1:28">
+    <row r="156" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -6633,7 +6654,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" ht="16.5" spans="1:28">
+    <row r="157" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -6663,7 +6684,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" ht="16.5" spans="1:28">
+    <row r="158" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -6693,7 +6714,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" ht="16.5" spans="1:28">
+    <row r="159" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -6723,7 +6744,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" ht="16.5" spans="1:28">
+    <row r="160" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -6753,7 +6774,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" ht="16.5" spans="1:28">
+    <row r="161" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -6783,7 +6804,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" ht="16.5" spans="1:28">
+    <row r="162" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -6813,7 +6834,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" ht="16.5" spans="1:28">
+    <row r="163" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -6843,7 +6864,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" ht="16.5" spans="1:28">
+    <row r="164" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -6873,7 +6894,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" ht="16.5" spans="1:28">
+    <row r="165" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -6903,7 +6924,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" ht="16.5" spans="1:28">
+    <row r="166" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -6933,7 +6954,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" ht="16.5" spans="1:28">
+    <row r="167" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -6963,7 +6984,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" ht="16.5" spans="1:28">
+    <row r="168" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -6993,7 +7014,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" ht="16.5" spans="1:28">
+    <row r="169" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -7023,7 +7044,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" ht="16.5" spans="1:28">
+    <row r="170" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7053,7 +7074,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" ht="16.5" spans="1:28">
+    <row r="171" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7083,7 +7104,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" ht="16.5" spans="1:28">
+    <row r="172" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7113,7 +7134,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" ht="16.5" spans="1:28">
+    <row r="173" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7143,7 +7164,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" ht="16.5" spans="1:28">
+    <row r="174" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7173,7 +7194,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" ht="16.5" spans="1:28">
+    <row r="175" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7203,7 +7224,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" ht="16.5" spans="1:28">
+    <row r="176" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7233,7 +7254,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" ht="16.5" spans="1:28">
+    <row r="177" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7263,7 +7284,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" ht="16.5" spans="1:28">
+    <row r="178" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -7293,7 +7314,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" ht="16.5" spans="1:28">
+    <row r="179" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -7323,7 +7344,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" ht="16.5" spans="1:28">
+    <row r="180" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -7353,7 +7374,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" ht="16.5" spans="1:28">
+    <row r="181" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -7383,7 +7404,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" ht="16.5" spans="1:28">
+    <row r="182" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -7413,7 +7434,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" ht="16.5" spans="1:28">
+    <row r="183" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -7443,7 +7464,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" ht="16.5" spans="1:28">
+    <row r="184" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -7473,7 +7494,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" ht="16.5" spans="1:28">
+    <row r="185" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -7503,7 +7524,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" ht="16.5" spans="1:28">
+    <row r="186" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -7533,7 +7554,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" ht="16.5" spans="1:28">
+    <row r="187" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -7563,7 +7584,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" ht="16.5" spans="1:28">
+    <row r="188" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -7593,7 +7614,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" ht="16.5" spans="1:28">
+    <row r="189" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -7623,7 +7644,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" ht="16.5" spans="1:28">
+    <row r="190" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -7653,7 +7674,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" ht="16.5" spans="1:28">
+    <row r="191" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -7683,7 +7704,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" ht="16.5" spans="1:28">
+    <row r="192" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -7713,7 +7734,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" ht="16.5" spans="1:28">
+    <row r="193" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -7743,7 +7764,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" ht="16.5" spans="1:28">
+    <row r="194" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -7773,7 +7794,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" ht="16.5" spans="1:28">
+    <row r="195" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -7803,7 +7824,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" ht="16.5" spans="1:28">
+    <row r="196" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -7833,7 +7854,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" ht="16.5" spans="1:28">
+    <row r="197" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -7863,7 +7884,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" ht="16.5" spans="1:28">
+    <row r="198" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -7893,7 +7914,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" ht="16.5" spans="1:28">
+    <row r="199" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -7923,7 +7944,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" ht="16.5" spans="1:28">
+    <row r="200" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -7953,7 +7974,7 @@
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
     </row>
-    <row r="201" ht="16.5" spans="1:28">
+    <row r="201" spans="1:28">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -7983,7 +8004,7 @@
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
     </row>
-    <row r="202" ht="16.5" spans="1:28">
+    <row r="202" spans="1:28">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -8013,7 +8034,7 @@
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
     </row>
-    <row r="203" ht="16.5" spans="1:28">
+    <row r="203" spans="1:28">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -8043,7 +8064,7 @@
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
     </row>
-    <row r="204" ht="16.5" spans="1:28">
+    <row r="204" spans="1:28">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -8073,7 +8094,7 @@
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
     </row>
-    <row r="205" ht="16.5" spans="1:28">
+    <row r="205" spans="1:28">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -8103,7 +8124,7 @@
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
     </row>
-    <row r="206" ht="16.5" spans="1:28">
+    <row r="206" spans="1:28">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -8133,7 +8154,7 @@
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
     </row>
-    <row r="207" ht="16.5" spans="1:28">
+    <row r="207" spans="1:28">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -8163,7 +8184,7 @@
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
     </row>
-    <row r="208" ht="16.5" spans="1:28">
+    <row r="208" spans="1:28">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -8193,7 +8214,7 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
     </row>
-    <row r="209" ht="16.5" spans="1:28">
+    <row r="209" spans="1:28">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -8223,7 +8244,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
     </row>
-    <row r="210" ht="16.5" spans="1:28">
+    <row r="210" spans="1:28">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -8253,7 +8274,7 @@
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
     </row>
-    <row r="211" ht="16.5" spans="1:28">
+    <row r="211" spans="1:28">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -8283,7 +8304,7 @@
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
     </row>
-    <row r="212" ht="16.5" spans="1:28">
+    <row r="212" spans="1:28">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -8313,7 +8334,7 @@
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
     </row>
-    <row r="213" ht="16.5" spans="1:28">
+    <row r="213" spans="1:28">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -8343,7 +8364,7 @@
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
     </row>
-    <row r="214" ht="16.5" spans="1:28">
+    <row r="214" spans="1:28">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -8373,7 +8394,7 @@
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
     </row>
-    <row r="215" ht="16.5" spans="1:28">
+    <row r="215" spans="1:28">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -8403,7 +8424,7 @@
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
     </row>
-    <row r="216" ht="16.5" spans="1:28">
+    <row r="216" spans="1:28">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -8433,7 +8454,7 @@
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
     </row>
-    <row r="217" ht="16.5" spans="1:28">
+    <row r="217" spans="1:28">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -8463,7 +8484,7 @@
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
     </row>
-    <row r="218" ht="16.5" spans="1:28">
+    <row r="218" spans="1:28">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -8493,7 +8514,7 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
     </row>
-    <row r="219" ht="16.5" spans="1:28">
+    <row r="219" spans="1:28">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -8523,7 +8544,7 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
     </row>
-    <row r="220" ht="16.5" spans="1:28">
+    <row r="220" spans="1:28">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -8553,7 +8574,7 @@
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
     </row>
-    <row r="221" ht="16.5" spans="1:28">
+    <row r="221" spans="1:28">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -8583,7 +8604,7 @@
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
     </row>
-    <row r="222" ht="16.5" spans="1:28">
+    <row r="222" spans="1:28">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -8613,7 +8634,7 @@
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
     </row>
-    <row r="223" ht="16.5" spans="1:28">
+    <row r="223" spans="1:28">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -8643,7 +8664,7 @@
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
     </row>
-    <row r="224" ht="16.5" spans="1:28">
+    <row r="224" spans="1:28">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -8673,7 +8694,7 @@
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
     </row>
-    <row r="225" ht="16.5" spans="1:28">
+    <row r="225" spans="1:28">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -8703,7 +8724,7 @@
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
     </row>
-    <row r="226" ht="16.5" spans="1:28">
+    <row r="226" spans="1:28">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -8733,7 +8754,7 @@
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
     </row>
-    <row r="227" ht="16.5" spans="1:28">
+    <row r="227" spans="1:28">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -8763,7 +8784,7 @@
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
     </row>
-    <row r="228" ht="16.5" spans="1:28">
+    <row r="228" spans="1:28">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -8793,7 +8814,7 @@
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
     </row>
-    <row r="229" ht="16.5" spans="1:28">
+    <row r="229" spans="1:28">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -8823,7 +8844,7 @@
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
     </row>
-    <row r="230" ht="16.5" spans="1:28">
+    <row r="230" spans="1:28">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -8853,7 +8874,7 @@
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
     </row>
-    <row r="231" ht="16.5" spans="1:28">
+    <row r="231" spans="1:28">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -8883,7 +8904,7 @@
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
     </row>
-    <row r="232" ht="16.5" spans="1:28">
+    <row r="232" spans="1:28">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -8913,7 +8934,7 @@
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
     </row>
-    <row r="233" ht="16.5" spans="1:28">
+    <row r="233" spans="1:28">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -8943,7 +8964,7 @@
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
     </row>
-    <row r="234" ht="16.5" spans="1:28">
+    <row r="234" spans="1:28">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -8973,7 +8994,7 @@
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
     </row>
-    <row r="235" ht="16.5" spans="1:28">
+    <row r="235" spans="1:28">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -9003,7 +9024,7 @@
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
     </row>
-    <row r="236" ht="16.5" spans="1:28">
+    <row r="236" spans="1:28">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -9033,7 +9054,7 @@
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
     </row>
-    <row r="237" ht="16.5" spans="1:28">
+    <row r="237" spans="1:28">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -9063,7 +9084,7 @@
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
     </row>
-    <row r="238" ht="16.5" spans="1:28">
+    <row r="238" spans="1:28">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -9093,7 +9114,7 @@
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
     </row>
-    <row r="239" ht="16.5" spans="1:28">
+    <row r="239" spans="1:28">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -9123,7 +9144,7 @@
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
     </row>
-    <row r="240" ht="16.5" spans="1:28">
+    <row r="240" spans="1:28">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -9153,7 +9174,7 @@
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
     </row>
-    <row r="241" ht="16.5" spans="1:28">
+    <row r="241" spans="1:28">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -9183,7 +9204,7 @@
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
     </row>
-    <row r="242" ht="16.5" spans="1:28">
+    <row r="242" spans="1:28">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -9213,7 +9234,7 @@
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
     </row>
-    <row r="243" ht="16.5" spans="1:28">
+    <row r="243" spans="1:28">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -9243,7 +9264,7 @@
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
     </row>
-    <row r="244" ht="16.5" spans="1:28">
+    <row r="244" spans="1:28">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -9273,7 +9294,7 @@
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
     </row>
-    <row r="245" ht="16.5" spans="1:28">
+    <row r="245" spans="1:28">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -9303,7 +9324,7 @@
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
     </row>
-    <row r="246" ht="16.5" spans="1:28">
+    <row r="246" spans="1:28">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -9333,7 +9354,7 @@
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
     </row>
-    <row r="247" ht="16.5" spans="1:28">
+    <row r="247" spans="1:28">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -9373,7 +9394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AB200"/>
   <sheetViews>
@@ -9381,7 +9402,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -9398,7 +9419,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -9431,13 +9452,13 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:28">
+    <row r="2" spans="1:28">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -9449,7 +9470,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -9480,13 +9501,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -9521,17 +9542,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -9562,13 +9583,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -9603,13 +9624,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -9634,7 +9655,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" ht="16.5" spans="1:28">
+    <row r="7" spans="1:28">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9644,19 +9665,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -9677,7 +9698,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" ht="16.5" spans="1:28">
+    <row r="8" spans="1:28">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -9687,19 +9708,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -9730,13 +9751,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -9761,7 +9782,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" ht="16.5" spans="1:28">
+    <row r="10" spans="1:28">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -9771,13 +9792,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -9809,13 +9830,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -9847,19 +9868,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -9890,17 +9911,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -9931,19 +9952,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -9974,13 +9995,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -10013,19 +10034,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10046,7 +10067,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" ht="16.5" spans="1:28">
+    <row r="17" spans="1:28">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10055,13 +10076,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10084,7 +10105,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" ht="16.5" spans="1:28">
+    <row r="18" spans="1:28">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10093,13 +10114,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10131,19 +10152,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10173,17 +10194,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10213,13 +10234,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10251,19 +10272,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10293,13 +10314,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10331,13 +10352,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10369,13 +10390,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10407,13 +10428,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10445,13 +10466,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -10483,13 +10504,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10521,13 +10542,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -10561,10 +10582,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -10597,10 +10618,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -10633,17 +10654,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -10673,17 +10694,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -10704,7 +10725,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" ht="16.5" spans="1:28">
+    <row r="34" spans="1:28">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -10713,17 +10734,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -10744,7 +10765,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" ht="16.5" spans="1:28">
+    <row r="35" spans="1:28">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -10753,13 +10774,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -10782,7 +10803,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" ht="16.5" spans="1:28">
+    <row r="36" spans="1:28">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -10791,13 +10812,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -10829,10 +10850,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -10865,17 +10886,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -10905,10 +10926,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -10941,10 +10962,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -10968,7 +10989,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" ht="16.5" spans="1:28">
+    <row r="41" spans="1:28">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -10977,17 +10998,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -11008,7 +11029,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" ht="16.5" spans="1:28">
+    <row r="42" spans="1:28">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11017,10 +11038,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11053,13 +11074,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11091,10 +11112,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11118,7 +11139,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" ht="16.5" spans="1:28">
+    <row r="45" spans="1:28">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -11148,7 +11169,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" ht="16.5" spans="1:28">
+    <row r="46" spans="1:28">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -11178,7 +11199,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" ht="16.5" spans="1:28">
+    <row r="47" spans="1:28">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -11187,13 +11208,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11225,13 +11246,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -11254,7 +11275,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" ht="16.5" spans="1:28">
+    <row r="49" spans="1:28">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -11284,7 +11305,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" ht="16.5" spans="1:28">
+    <row r="50" spans="1:28">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11314,7 +11335,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" ht="16.5" spans="1:28">
+    <row r="51" spans="1:28">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -11344,7 +11365,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" ht="16.5" spans="1:28">
+    <row r="52" spans="1:28">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -11374,7 +11395,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" ht="16.5" spans="1:28">
+    <row r="53" spans="1:28">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -11404,7 +11425,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" ht="16.5" spans="1:28">
+    <row r="54" spans="1:28">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -11434,7 +11455,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" ht="16.5" spans="1:28">
+    <row r="55" spans="1:28">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -11464,7 +11485,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" ht="16.5" spans="1:28">
+    <row r="56" spans="1:28">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -11494,7 +11515,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" ht="16.5" spans="1:28">
+    <row r="57" spans="1:28">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -11524,7 +11545,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" ht="16.5" spans="1:28">
+    <row r="58" spans="1:28">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -11554,7 +11575,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" ht="16.5" spans="1:28">
+    <row r="59" spans="1:28">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -11584,7 +11605,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" ht="16.5" spans="1:28">
+    <row r="60" spans="1:28">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -11614,7 +11635,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" ht="16.5" spans="1:28">
+    <row r="61" spans="1:28">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -11644,7 +11665,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" ht="16.5" spans="1:28">
+    <row r="62" spans="1:28">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -11674,7 +11695,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" ht="16.5" spans="1:28">
+    <row r="63" spans="1:28">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -11704,7 +11725,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" ht="16.5" spans="1:28">
+    <row r="64" spans="1:28">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -11734,7 +11755,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" ht="16.5" spans="1:28">
+    <row r="65" spans="1:28">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -11764,7 +11785,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" ht="16.5" spans="1:28">
+    <row r="66" spans="1:28">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -11794,7 +11815,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" ht="16.5" spans="1:28">
+    <row r="67" spans="1:28">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -11824,7 +11845,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" ht="16.5" spans="1:28">
+    <row r="68" spans="1:28">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -11854,7 +11875,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" ht="16.5" spans="1:28">
+    <row r="69" spans="1:28">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -11884,7 +11905,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" ht="16.5" spans="1:28">
+    <row r="70" spans="1:28">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -11914,7 +11935,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" ht="16.5" spans="1:28">
+    <row r="71" spans="1:28">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -11944,7 +11965,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" ht="16.5" spans="1:28">
+    <row r="72" spans="1:28">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -11974,7 +11995,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" ht="16.5" spans="1:28">
+    <row r="73" spans="1:28">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -12004,7 +12025,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" ht="16.5" spans="1:28">
+    <row r="74" spans="1:28">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -12034,7 +12055,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" ht="16.5" spans="1:28">
+    <row r="75" spans="1:28">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -12064,7 +12085,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" ht="16.5" spans="1:28">
+    <row r="76" spans="1:28">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -12094,7 +12115,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" ht="16.5" spans="1:28">
+    <row r="77" spans="1:28">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12124,7 +12145,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" ht="16.5" spans="1:28">
+    <row r="78" spans="1:28">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -12154,7 +12175,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" ht="16.5" spans="1:28">
+    <row r="79" spans="1:28">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -12184,7 +12205,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" ht="16.5" spans="1:28">
+    <row r="80" spans="1:28">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12214,7 +12235,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
     </row>
-    <row r="81" ht="16.5" spans="1:28">
+    <row r="81" spans="1:28">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12244,7 +12265,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
     </row>
-    <row r="82" ht="16.5" spans="1:28">
+    <row r="82" spans="1:28">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12274,7 +12295,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
     </row>
-    <row r="83" ht="16.5" spans="1:28">
+    <row r="83" spans="1:28">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12304,7 +12325,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
     </row>
-    <row r="84" ht="16.5" spans="1:28">
+    <row r="84" spans="1:28">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12334,7 +12355,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" ht="16.5" spans="1:28">
+    <row r="85" spans="1:28">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -12364,7 +12385,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" ht="16.5" spans="1:28">
+    <row r="86" spans="1:28">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -12394,7 +12415,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" ht="16.5" spans="1:28">
+    <row r="87" spans="1:28">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12424,7 +12445,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
-    <row r="88" ht="16.5" spans="1:28">
+    <row r="88" spans="1:28">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -12454,7 +12475,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
     </row>
-    <row r="89" ht="16.5" spans="1:28">
+    <row r="89" spans="1:28">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -12484,7 +12505,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
     </row>
-    <row r="90" ht="16.5" spans="1:28">
+    <row r="90" spans="1:28">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -12514,7 +12535,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
     </row>
-    <row r="91" ht="16.5" spans="1:28">
+    <row r="91" spans="1:28">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -12544,7 +12565,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
     </row>
-    <row r="92" ht="16.5" spans="1:28">
+    <row r="92" spans="1:28">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -12574,7 +12595,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
     </row>
-    <row r="93" ht="16.5" spans="1:28">
+    <row r="93" spans="1:28">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -12604,7 +12625,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
     </row>
-    <row r="94" ht="16.5" spans="1:28">
+    <row r="94" spans="1:28">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -12634,7 +12655,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
     </row>
-    <row r="95" ht="16.5" spans="1:28">
+    <row r="95" spans="1:28">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -12664,7 +12685,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" ht="16.5" spans="1:28">
+    <row r="96" spans="1:28">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -12694,7 +12715,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" ht="16.5" spans="1:28">
+    <row r="97" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -12724,7 +12745,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" ht="16.5" spans="1:28">
+    <row r="98" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -12754,7 +12775,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" ht="16.5" spans="1:28">
+    <row r="99" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -12784,7 +12805,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" ht="16.5" spans="1:28">
+    <row r="100" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -12814,7 +12835,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" ht="16.5" spans="1:28">
+    <row r="101" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -12844,7 +12865,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" ht="16.5" spans="1:28">
+    <row r="102" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -12874,7 +12895,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" ht="16.5" spans="1:28">
+    <row r="103" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -12904,7 +12925,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" ht="16.5" spans="1:28">
+    <row r="104" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -12934,7 +12955,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" ht="16.5" spans="1:28">
+    <row r="105" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -12964,7 +12985,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" ht="16.5" spans="1:28">
+    <row r="106" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -12994,7 +13015,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" ht="16.5" spans="1:28">
+    <row r="107" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -13024,7 +13045,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" ht="16.5" spans="1:28">
+    <row r="108" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -13054,7 +13075,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" ht="16.5" spans="1:28">
+    <row r="109" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -13084,7 +13105,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" ht="16.5" spans="1:28">
+    <row r="110" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -13114,7 +13135,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" ht="16.5" spans="1:28">
+    <row r="111" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -13144,7 +13165,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" ht="16.5" spans="1:28">
+    <row r="112" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -13174,7 +13195,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" ht="16.5" spans="1:28">
+    <row r="113" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -13204,7 +13225,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" ht="16.5" spans="1:28">
+    <row r="114" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -13234,7 +13255,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" ht="16.5" spans="1:28">
+    <row r="115" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13264,7 +13285,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" ht="16.5" spans="1:28">
+    <row r="116" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -13294,7 +13315,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" ht="16.5" spans="1:28">
+    <row r="117" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -13324,7 +13345,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" ht="16.5" spans="1:28">
+    <row r="118" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -13354,7 +13375,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" ht="16.5" spans="1:28">
+    <row r="119" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -13384,7 +13405,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" ht="16.5" spans="1:28">
+    <row r="120" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -13414,7 +13435,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" ht="16.5" spans="1:28">
+    <row r="121" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -13444,7 +13465,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" ht="16.5" spans="1:28">
+    <row r="122" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -13474,7 +13495,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" ht="16.5" spans="1:28">
+    <row r="123" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -13504,7 +13525,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" ht="16.5" spans="1:28">
+    <row r="124" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -13534,7 +13555,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" ht="16.5" spans="1:28">
+    <row r="125" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -13564,7 +13585,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" ht="16.5" spans="1:28">
+    <row r="126" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -13594,7 +13615,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" ht="16.5" spans="1:28">
+    <row r="127" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -13624,7 +13645,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" ht="16.5" spans="1:28">
+    <row r="128" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -13654,7 +13675,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" ht="16.5" spans="1:28">
+    <row r="129" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -13684,7 +13705,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" ht="16.5" spans="1:28">
+    <row r="130" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -13714,7 +13735,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" ht="16.5" spans="1:28">
+    <row r="131" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -13744,7 +13765,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" ht="16.5" spans="1:28">
+    <row r="132" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -13774,7 +13795,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" ht="16.5" spans="1:28">
+    <row r="133" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -13804,7 +13825,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" ht="16.5" spans="1:28">
+    <row r="134" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -13834,7 +13855,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" ht="16.5" spans="1:28">
+    <row r="135" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -13864,7 +13885,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" ht="16.5" spans="1:28">
+    <row r="136" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -13894,7 +13915,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" ht="16.5" spans="1:28">
+    <row r="137" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -13924,7 +13945,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" ht="16.5" spans="1:28">
+    <row r="138" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -13954,7 +13975,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" ht="16.5" spans="1:28">
+    <row r="139" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -13984,7 +14005,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" ht="16.5" spans="1:28">
+    <row r="140" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -14014,7 +14035,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" ht="16.5" spans="1:28">
+    <row r="141" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -14044,7 +14065,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" ht="16.5" spans="1:28">
+    <row r="142" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -14074,7 +14095,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" ht="16.5" spans="1:28">
+    <row r="143" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -14104,7 +14125,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" ht="16.5" spans="1:28">
+    <row r="144" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -14134,7 +14155,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" ht="16.5" spans="1:28">
+    <row r="145" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -14164,7 +14185,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" ht="16.5" spans="1:28">
+    <row r="146" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -14194,7 +14215,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" ht="16.5" spans="1:28">
+    <row r="147" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -14224,7 +14245,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" ht="16.5" spans="1:28">
+    <row r="148" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -14254,7 +14275,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" ht="16.5" spans="1:28">
+    <row r="149" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -14284,7 +14305,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" ht="16.5" spans="1:28">
+    <row r="150" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -14314,7 +14335,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" ht="16.5" spans="1:28">
+    <row r="151" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -14344,7 +14365,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" ht="16.5" spans="1:28">
+    <row r="152" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -14374,7 +14395,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" ht="16.5" spans="1:28">
+    <row r="153" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -14404,7 +14425,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" ht="16.5" spans="1:28">
+    <row r="154" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -14434,7 +14455,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" ht="16.5" spans="1:28">
+    <row r="155" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -14464,7 +14485,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" ht="16.5" spans="1:28">
+    <row r="156" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -14494,7 +14515,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" ht="16.5" spans="1:28">
+    <row r="157" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -14524,7 +14545,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" ht="16.5" spans="1:28">
+    <row r="158" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -14554,7 +14575,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" ht="16.5" spans="1:28">
+    <row r="159" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -14584,7 +14605,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" ht="16.5" spans="1:28">
+    <row r="160" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -14614,7 +14635,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" ht="16.5" spans="1:28">
+    <row r="161" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -14644,7 +14665,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" ht="16.5" spans="1:28">
+    <row r="162" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -14674,7 +14695,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" ht="16.5" spans="1:28">
+    <row r="163" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -14704,7 +14725,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" ht="16.5" spans="1:28">
+    <row r="164" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -14734,7 +14755,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" ht="16.5" spans="1:28">
+    <row r="165" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -14764,7 +14785,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" ht="16.5" spans="1:28">
+    <row r="166" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -14794,7 +14815,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" ht="16.5" spans="1:28">
+    <row r="167" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -14824,7 +14845,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" ht="16.5" spans="1:28">
+    <row r="168" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -14854,7 +14875,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" ht="16.5" spans="1:28">
+    <row r="169" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -14884,7 +14905,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" ht="16.5" spans="1:28">
+    <row r="170" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -14914,7 +14935,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" ht="16.5" spans="1:28">
+    <row r="171" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -14944,7 +14965,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" ht="16.5" spans="1:28">
+    <row r="172" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -14974,7 +14995,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" ht="16.5" spans="1:28">
+    <row r="173" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -15004,7 +15025,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" ht="16.5" spans="1:28">
+    <row r="174" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -15034,7 +15055,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" ht="16.5" spans="1:28">
+    <row r="175" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -15064,7 +15085,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" ht="16.5" spans="1:28">
+    <row r="176" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -15094,7 +15115,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" ht="16.5" spans="1:28">
+    <row r="177" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -15124,7 +15145,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" ht="16.5" spans="1:28">
+    <row r="178" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -15154,7 +15175,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" ht="16.5" spans="1:28">
+    <row r="179" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -15184,7 +15205,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" ht="16.5" spans="1:28">
+    <row r="180" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -15214,7 +15235,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" ht="16.5" spans="1:28">
+    <row r="181" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -15244,7 +15265,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" ht="16.5" spans="1:28">
+    <row r="182" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -15274,7 +15295,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" ht="16.5" spans="1:28">
+    <row r="183" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -15304,7 +15325,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" ht="16.5" spans="1:28">
+    <row r="184" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -15334,7 +15355,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" ht="16.5" spans="1:28">
+    <row r="185" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -15364,7 +15385,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" ht="16.5" spans="1:28">
+    <row r="186" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -15394,7 +15415,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" ht="16.5" spans="1:28">
+    <row r="187" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -15424,7 +15445,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" ht="16.5" spans="1:28">
+    <row r="188" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -15454,7 +15475,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" ht="16.5" spans="1:28">
+    <row r="189" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -15484,7 +15505,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" ht="16.5" spans="1:28">
+    <row r="190" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -15514,7 +15535,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" ht="16.5" spans="1:28">
+    <row r="191" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -15544,7 +15565,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" ht="16.5" spans="1:28">
+    <row r="192" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -15574,7 +15595,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" ht="16.5" spans="1:28">
+    <row r="193" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -15604,7 +15625,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" ht="16.5" spans="1:28">
+    <row r="194" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -15634,7 +15655,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" ht="16.5" spans="1:28">
+    <row r="195" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -15664,7 +15685,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" ht="16.5" spans="1:28">
+    <row r="196" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -15694,7 +15715,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" ht="16.5" spans="1:28">
+    <row r="197" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -15724,7 +15745,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" ht="16.5" spans="1:28">
+    <row r="198" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -15754,7 +15775,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" ht="16.5" spans="1:28">
+    <row r="199" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -15784,7 +15805,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" ht="16.5" spans="1:28">
+    <row r="200" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="146">
   <si>
     <t>单元格里的
 [回车键]用
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>给该图片添加position:relative;的相对定位，使该图片呈现在与之相同宽度的log的正下方</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019/6/25</t>
   </si>
   <si>
     <t>其他例子</t>
@@ -674,11 +677,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -734,7 +737,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,7 +751,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -756,7 +759,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,33 +772,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,23 +786,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,9 +810,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,16 +841,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,61 +925,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,13 +949,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,79 +1003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,6 +1022,84 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,27 +1221,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1261,8 +1244,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1297,6 +1280,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1319,10 +1322,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1331,133 +1334,133 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1889,7 +1892,7 @@
   <dimension ref="A1:AB247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
@@ -2482,8 +2485,12 @@
       <c r="F15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -9419,7 +9426,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -9458,7 +9465,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -9470,7 +9477,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -9501,13 +9508,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -9542,17 +9549,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -9583,13 +9590,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -9624,13 +9631,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -9665,19 +9672,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -9708,19 +9715,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -9751,13 +9758,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -9792,13 +9799,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -9830,13 +9837,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -9868,19 +9875,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -9911,17 +9918,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -9952,19 +9959,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -9995,13 +10002,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -10034,19 +10041,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10076,13 +10083,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10114,13 +10121,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10152,19 +10159,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10194,17 +10201,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10234,13 +10241,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10272,19 +10279,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10314,13 +10321,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10352,13 +10359,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10390,13 +10397,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10428,13 +10435,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10466,13 +10473,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -10504,13 +10511,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10542,13 +10549,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -10582,10 +10589,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -10618,10 +10625,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -10654,17 +10661,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -10694,17 +10701,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -10734,17 +10741,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -10774,13 +10781,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -10812,13 +10819,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -10850,10 +10857,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -10886,17 +10893,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -10926,10 +10933,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -10962,10 +10969,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -10998,17 +11005,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -11038,10 +11045,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11074,13 +11081,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11112,10 +11119,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11208,13 +11215,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11246,13 +11253,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
   <si>
     <t>单元格里的
 [回车键]用
@@ -289,6 +289,16 @@
   </si>
   <si>
     <t xml:space="preserve"> 2019/6/25</t>
+  </si>
+  <si>
+    <t>前端学习：有关页面跳转，cookie作为html网页传递参数的工具，那页面跳转这些事件是不是通过cookie实现的，还是js里面设置事件监听？</t>
+  </si>
+  <si>
+    <t>function getCookie(name)//取cookies函数       
+{
+    var arr = document.cookie.match(new RegExp("(^| )"+name+"=([^;]*)(;|$)"));
+     if(arr != null) return (arr[2]); return null;
+}</t>
   </si>
   <si>
     <t>其他例子</t>
@@ -677,11 +687,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -730,7 +740,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -744,7 +769,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,42 +811,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -805,6 +825,27 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,21 +875,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -857,24 +883,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,13 +935,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,31 +1043,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,25 +1079,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,91 +1109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,7 +1231,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,11 +1266,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,203 +1324,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1596,11 +1606,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1883,19 +1888,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AB247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="5.2" customWidth="1"/>
@@ -1943,7 +1949,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" ht="16.5" spans="1:28">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -2512,14 +2518,26 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
     </row>
-    <row r="16" ht="60" customHeight="1" spans="1:28">
+    <row r="16" ht="100" customHeight="1" spans="1:28">
       <c r="A16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="20">
+        <v>43641</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="20">
+        <v>43641</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -3730,7 +3748,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="6"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -3817,7 +3835,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="6"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -3904,7 +3922,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="6"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -3991,7 +4009,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="6"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -4861,7 +4879,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" ht="16.5" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4891,7 +4909,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" ht="16.5" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4921,7 +4939,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" ht="16.5" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4951,7 +4969,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" ht="16.5" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4981,7 +4999,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" ht="16.5" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -5011,7 +5029,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" ht="16.5" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -5041,7 +5059,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" ht="16.5" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -5071,7 +5089,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" ht="16.5" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -5101,7 +5119,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" ht="16.5" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5131,7 +5149,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" ht="16.5" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5161,7 +5179,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" ht="16.5" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5191,7 +5209,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" ht="16.5" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5221,7 +5239,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" ht="16.5" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5251,7 +5269,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" ht="16.5" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5281,7 +5299,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" ht="16.5" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5311,7 +5329,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" ht="16.5" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5341,7 +5359,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" ht="16.5" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5371,7 +5389,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" ht="16.5" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5401,7 +5419,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" ht="16.5" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5431,7 +5449,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" ht="16.5" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5461,7 +5479,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" ht="16.5" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -5491,7 +5509,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" ht="16.5" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5521,7 +5539,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" ht="16.5" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -5551,7 +5569,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" ht="16.5" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -5581,7 +5599,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" ht="16.5" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -5611,7 +5629,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" ht="16.5" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -5641,7 +5659,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" ht="16.5" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -5671,7 +5689,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" ht="16.5" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -5701,7 +5719,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" ht="16.5" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5731,7 +5749,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" ht="16.5" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -5761,7 +5779,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" ht="16.5" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -5791,7 +5809,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" ht="16.5" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -5821,7 +5839,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" ht="16.5" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -5851,7 +5869,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" ht="16.5" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -5881,7 +5899,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" ht="16.5" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -5911,7 +5929,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" ht="16.5" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -5941,7 +5959,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" ht="16.5" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -5971,7 +5989,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" ht="16.5" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -6001,7 +6019,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" ht="16.5" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6031,7 +6049,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" ht="16.5" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6061,7 +6079,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" ht="16.5" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -6091,7 +6109,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" ht="16.5" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -6121,7 +6139,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" ht="16.5" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6151,7 +6169,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" ht="16.5" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6181,7 +6199,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" ht="16.5" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6211,7 +6229,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" ht="16.5" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6241,7 +6259,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" ht="16.5" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6271,7 +6289,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" ht="16.5" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6301,7 +6319,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" ht="16.5" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6331,7 +6349,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" ht="16.5" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6361,7 +6379,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" ht="16.5" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6391,7 +6409,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" ht="16.5" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6421,7 +6439,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" ht="16.5" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6451,7 +6469,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" ht="16.5" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6481,7 +6499,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" ht="16.5" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6511,7 +6529,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" ht="16.5" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6541,7 +6559,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" ht="16.5" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -6571,7 +6589,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" ht="16.5" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -6601,7 +6619,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" ht="16.5" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6631,7 +6649,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" ht="16.5" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -6661,7 +6679,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" ht="16.5" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -6691,7 +6709,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" ht="16.5" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -6721,7 +6739,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" ht="16.5" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -6751,7 +6769,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" ht="16.5" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -6781,7 +6799,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" ht="16.5" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -6811,7 +6829,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" ht="16.5" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -6841,7 +6859,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" ht="16.5" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -6871,7 +6889,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" ht="16.5" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -6901,7 +6919,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" ht="16.5" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -6931,7 +6949,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" ht="16.5" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -6961,7 +6979,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" ht="16.5" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -6991,7 +7009,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" ht="16.5" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -7021,7 +7039,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" ht="16.5" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -7051,7 +7069,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" ht="16.5" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7081,7 +7099,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" ht="16.5" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7111,7 +7129,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" ht="16.5" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7141,7 +7159,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" ht="16.5" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7171,7 +7189,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" ht="16.5" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7201,7 +7219,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" ht="16.5" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7231,7 +7249,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" ht="16.5" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7261,7 +7279,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" ht="16.5" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7291,7 +7309,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" ht="16.5" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -7321,7 +7339,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" ht="16.5" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -7351,7 +7369,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" ht="16.5" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -7381,7 +7399,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" ht="16.5" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -7411,7 +7429,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" ht="16.5" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -7441,7 +7459,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" ht="16.5" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -7471,7 +7489,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" ht="16.5" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -7501,7 +7519,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" ht="16.5" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -7531,7 +7549,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" ht="16.5" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -7561,7 +7579,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" ht="16.5" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -7591,7 +7609,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" ht="16.5" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -7621,7 +7639,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" ht="16.5" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -7651,7 +7669,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" ht="16.5" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -7681,7 +7699,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" ht="16.5" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -7711,7 +7729,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" ht="16.5" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -7741,7 +7759,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" ht="16.5" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -7771,7 +7789,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" ht="16.5" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -7801,7 +7819,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" ht="16.5" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -7831,7 +7849,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" ht="16.5" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -7861,7 +7879,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" ht="16.5" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -7891,7 +7909,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" ht="16.5" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -7921,7 +7939,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" ht="16.5" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -7951,7 +7969,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" ht="16.5" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -7981,7 +7999,7 @@
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
     </row>
-    <row r="201" spans="1:28">
+    <row r="201" ht="16.5" spans="1:28">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -8011,7 +8029,7 @@
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
     </row>
-    <row r="202" spans="1:28">
+    <row r="202" ht="16.5" spans="1:28">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -8041,7 +8059,7 @@
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
     </row>
-    <row r="203" spans="1:28">
+    <row r="203" ht="16.5" spans="1:28">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -8071,7 +8089,7 @@
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
     </row>
-    <row r="204" spans="1:28">
+    <row r="204" ht="16.5" spans="1:28">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -8101,7 +8119,7 @@
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
     </row>
-    <row r="205" spans="1:28">
+    <row r="205" ht="16.5" spans="1:28">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -8131,7 +8149,7 @@
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
     </row>
-    <row r="206" spans="1:28">
+    <row r="206" ht="16.5" spans="1:28">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -8161,7 +8179,7 @@
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
     </row>
-    <row r="207" spans="1:28">
+    <row r="207" ht="16.5" spans="1:28">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -8191,7 +8209,7 @@
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
     </row>
-    <row r="208" spans="1:28">
+    <row r="208" ht="16.5" spans="1:28">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -8221,7 +8239,7 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
     </row>
-    <row r="209" spans="1:28">
+    <row r="209" ht="16.5" spans="1:28">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -8251,7 +8269,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
     </row>
-    <row r="210" spans="1:28">
+    <row r="210" ht="16.5" spans="1:28">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -8281,7 +8299,7 @@
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
     </row>
-    <row r="211" spans="1:28">
+    <row r="211" ht="16.5" spans="1:28">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -8311,7 +8329,7 @@
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
     </row>
-    <row r="212" spans="1:28">
+    <row r="212" ht="16.5" spans="1:28">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -8341,7 +8359,7 @@
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
     </row>
-    <row r="213" spans="1:28">
+    <row r="213" ht="16.5" spans="1:28">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -8371,7 +8389,7 @@
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
     </row>
-    <row r="214" spans="1:28">
+    <row r="214" ht="16.5" spans="1:28">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -8401,7 +8419,7 @@
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
     </row>
-    <row r="215" spans="1:28">
+    <row r="215" ht="16.5" spans="1:28">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -8431,7 +8449,7 @@
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
     </row>
-    <row r="216" spans="1:28">
+    <row r="216" ht="16.5" spans="1:28">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -8461,7 +8479,7 @@
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
     </row>
-    <row r="217" spans="1:28">
+    <row r="217" ht="16.5" spans="1:28">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -8491,7 +8509,7 @@
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
     </row>
-    <row r="218" spans="1:28">
+    <row r="218" ht="16.5" spans="1:28">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -8521,7 +8539,7 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
     </row>
-    <row r="219" spans="1:28">
+    <row r="219" ht="16.5" spans="1:28">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -8551,7 +8569,7 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
     </row>
-    <row r="220" spans="1:28">
+    <row r="220" ht="16.5" spans="1:28">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -8581,7 +8599,7 @@
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
     </row>
-    <row r="221" spans="1:28">
+    <row r="221" ht="16.5" spans="1:28">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -8611,7 +8629,7 @@
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
     </row>
-    <row r="222" spans="1:28">
+    <row r="222" ht="16.5" spans="1:28">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -8641,7 +8659,7 @@
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
     </row>
-    <row r="223" spans="1:28">
+    <row r="223" ht="16.5" spans="1:28">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -8671,7 +8689,7 @@
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
     </row>
-    <row r="224" spans="1:28">
+    <row r="224" ht="16.5" spans="1:28">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -8701,7 +8719,7 @@
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
     </row>
-    <row r="225" spans="1:28">
+    <row r="225" ht="16.5" spans="1:28">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -8731,7 +8749,7 @@
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
     </row>
-    <row r="226" spans="1:28">
+    <row r="226" ht="16.5" spans="1:28">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -8761,7 +8779,7 @@
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
     </row>
-    <row r="227" spans="1:28">
+    <row r="227" ht="16.5" spans="1:28">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -8791,7 +8809,7 @@
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
     </row>
-    <row r="228" spans="1:28">
+    <row r="228" ht="16.5" spans="1:28">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -8821,7 +8839,7 @@
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
     </row>
-    <row r="229" spans="1:28">
+    <row r="229" ht="16.5" spans="1:28">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -8851,7 +8869,7 @@
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
     </row>
-    <row r="230" spans="1:28">
+    <row r="230" ht="16.5" spans="1:28">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -8881,7 +8899,7 @@
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
     </row>
-    <row r="231" spans="1:28">
+    <row r="231" ht="16.5" spans="1:28">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -8911,7 +8929,7 @@
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
     </row>
-    <row r="232" spans="1:28">
+    <row r="232" ht="16.5" spans="1:28">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -8941,7 +8959,7 @@
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
     </row>
-    <row r="233" spans="1:28">
+    <row r="233" ht="16.5" spans="1:28">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -8971,7 +8989,7 @@
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
     </row>
-    <row r="234" spans="1:28">
+    <row r="234" ht="16.5" spans="1:28">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -9001,7 +9019,7 @@
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
     </row>
-    <row r="235" spans="1:28">
+    <row r="235" ht="16.5" spans="1:28">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -9031,7 +9049,7 @@
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
     </row>
-    <row r="236" spans="1:28">
+    <row r="236" ht="16.5" spans="1:28">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -9061,7 +9079,7 @@
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
     </row>
-    <row r="237" spans="1:28">
+    <row r="237" ht="16.5" spans="1:28">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -9091,7 +9109,7 @@
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
     </row>
-    <row r="238" spans="1:28">
+    <row r="238" ht="16.5" spans="1:28">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -9121,7 +9139,7 @@
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
     </row>
-    <row r="239" spans="1:28">
+    <row r="239" ht="16.5" spans="1:28">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -9151,7 +9169,7 @@
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
     </row>
-    <row r="240" spans="1:28">
+    <row r="240" ht="16.5" spans="1:28">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -9181,7 +9199,7 @@
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
     </row>
-    <row r="241" spans="1:28">
+    <row r="241" ht="16.5" spans="1:28">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -9211,7 +9229,7 @@
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
     </row>
-    <row r="242" spans="1:28">
+    <row r="242" ht="16.5" spans="1:28">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -9241,7 +9259,7 @@
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
     </row>
-    <row r="243" spans="1:28">
+    <row r="243" ht="16.5" spans="1:28">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -9271,7 +9289,7 @@
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
     </row>
-    <row r="244" spans="1:28">
+    <row r="244" ht="16.5" spans="1:28">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -9301,7 +9319,7 @@
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
     </row>
-    <row r="245" spans="1:28">
+    <row r="245" ht="16.5" spans="1:28">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -9331,7 +9349,7 @@
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
     </row>
-    <row r="246" spans="1:28">
+    <row r="246" ht="16.5" spans="1:28">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -9361,7 +9379,7 @@
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
     </row>
-    <row r="247" spans="1:28">
+    <row r="247" ht="16.5" spans="1:28">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -9401,7 +9419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AB200"/>
   <sheetViews>
@@ -9409,7 +9427,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -9426,7 +9444,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -9459,13 +9477,13 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" ht="16.5" spans="1:28">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -9477,7 +9495,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -9508,13 +9526,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -9549,17 +9567,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -9590,13 +9608,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -9631,13 +9649,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -9662,7 +9680,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" ht="16.5" spans="1:28">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9672,19 +9690,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -9705,7 +9723,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" ht="16.5" spans="1:28">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -9715,19 +9733,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -9758,13 +9776,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -9789,7 +9807,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" ht="16.5" spans="1:28">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -9799,13 +9817,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -9837,13 +9855,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -9875,19 +9893,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -9918,17 +9936,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -9959,19 +9977,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -10002,13 +10020,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -10041,19 +10059,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10074,7 +10092,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" ht="16.5" spans="1:28">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10083,13 +10101,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10112,7 +10130,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" ht="16.5" spans="1:28">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10121,13 +10139,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10159,19 +10177,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10201,17 +10219,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10241,13 +10259,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10279,19 +10297,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10321,13 +10339,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10359,13 +10377,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10397,13 +10415,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10435,13 +10453,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10473,13 +10491,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -10511,13 +10529,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10549,13 +10567,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -10589,10 +10607,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -10625,10 +10643,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -10661,17 +10679,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -10701,17 +10719,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -10732,7 +10750,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" ht="16.5" spans="1:28">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -10741,17 +10759,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -10772,7 +10790,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" ht="16.5" spans="1:28">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -10781,13 +10799,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -10810,7 +10828,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" ht="16.5" spans="1:28">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -10819,13 +10837,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -10857,10 +10875,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -10893,17 +10911,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -10933,10 +10951,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -10969,10 +10987,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -10996,7 +11014,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" ht="16.5" spans="1:28">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -11005,17 +11023,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -11036,7 +11054,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" ht="16.5" spans="1:28">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11045,10 +11063,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11081,13 +11099,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11119,10 +11137,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11146,7 +11164,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" ht="16.5" spans="1:28">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -11176,7 +11194,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" ht="16.5" spans="1:28">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -11206,7 +11224,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" ht="16.5" spans="1:28">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -11215,13 +11233,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11253,13 +11271,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -11282,7 +11300,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" ht="16.5" spans="1:28">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -11312,7 +11330,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" ht="16.5" spans="1:28">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11342,7 +11360,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" ht="16.5" spans="1:28">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -11372,7 +11390,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" ht="16.5" spans="1:28">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -11402,7 +11420,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" ht="16.5" spans="1:28">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -11432,7 +11450,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" ht="16.5" spans="1:28">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -11462,7 +11480,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" ht="16.5" spans="1:28">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -11492,7 +11510,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" ht="16.5" spans="1:28">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -11522,7 +11540,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" ht="16.5" spans="1:28">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -11552,7 +11570,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -11582,7 +11600,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" ht="16.5" spans="1:28">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -11612,7 +11630,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" ht="16.5" spans="1:28">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -11642,7 +11660,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -11672,7 +11690,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" ht="16.5" spans="1:28">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -11702,7 +11720,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" ht="16.5" spans="1:28">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -11732,7 +11750,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -11762,7 +11780,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" ht="16.5" spans="1:28">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -11792,7 +11810,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" ht="16.5" spans="1:28">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -11822,7 +11840,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -11852,7 +11870,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" ht="16.5" spans="1:28">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -11882,7 +11900,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" ht="16.5" spans="1:28">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -11912,7 +11930,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" ht="16.5" spans="1:28">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -11942,7 +11960,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" ht="16.5" spans="1:28">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -11972,7 +11990,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" ht="16.5" spans="1:28">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -12002,7 +12020,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" ht="16.5" spans="1:28">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -12032,7 +12050,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" ht="16.5" spans="1:28">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -12062,7 +12080,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" ht="16.5" spans="1:28">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -12092,7 +12110,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" ht="16.5" spans="1:28">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -12122,7 +12140,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" ht="16.5" spans="1:28">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12152,7 +12170,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" ht="16.5" spans="1:28">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -12182,7 +12200,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" ht="16.5" spans="1:28">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -12212,7 +12230,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" ht="16.5" spans="1:28">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12242,7 +12260,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" ht="16.5" spans="1:28">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12272,7 +12290,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" ht="16.5" spans="1:28">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12302,7 +12320,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" ht="16.5" spans="1:28">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12332,7 +12350,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" ht="16.5" spans="1:28">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12362,7 +12380,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" ht="16.5" spans="1:28">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -12392,7 +12410,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" ht="16.5" spans="1:28">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -12422,7 +12440,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" ht="16.5" spans="1:28">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12452,7 +12470,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" ht="16.5" spans="1:28">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -12482,7 +12500,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" ht="16.5" spans="1:28">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -12512,7 +12530,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" ht="16.5" spans="1:28">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -12542,7 +12560,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" ht="16.5" spans="1:28">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -12572,7 +12590,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" ht="16.5" spans="1:28">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -12602,7 +12620,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" ht="16.5" spans="1:28">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -12632,7 +12650,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" ht="16.5" spans="1:28">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -12662,7 +12680,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" ht="16.5" spans="1:28">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -12692,7 +12710,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" ht="16.5" spans="1:28">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -12722,7 +12740,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" ht="16.5" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -12752,7 +12770,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" ht="16.5" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -12782,7 +12800,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" ht="16.5" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -12812,7 +12830,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" ht="16.5" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -12842,7 +12860,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" ht="16.5" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -12872,7 +12890,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" ht="16.5" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -12902,7 +12920,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" ht="16.5" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -12932,7 +12950,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" ht="16.5" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -12962,7 +12980,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" ht="16.5" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -12992,7 +13010,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" ht="16.5" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -13022,7 +13040,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" ht="16.5" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -13052,7 +13070,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" ht="16.5" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -13082,7 +13100,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" ht="16.5" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -13112,7 +13130,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" ht="16.5" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -13142,7 +13160,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" ht="16.5" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -13172,7 +13190,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" ht="16.5" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -13202,7 +13220,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" ht="16.5" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -13232,7 +13250,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" ht="16.5" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -13262,7 +13280,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" ht="16.5" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13292,7 +13310,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" ht="16.5" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -13322,7 +13340,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" ht="16.5" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -13352,7 +13370,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" ht="16.5" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -13382,7 +13400,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" ht="16.5" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -13412,7 +13430,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" ht="16.5" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -13442,7 +13460,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" ht="16.5" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -13472,7 +13490,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" ht="16.5" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -13502,7 +13520,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" ht="16.5" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -13532,7 +13550,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" ht="16.5" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -13562,7 +13580,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" ht="16.5" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -13592,7 +13610,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" ht="16.5" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -13622,7 +13640,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" ht="16.5" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -13652,7 +13670,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" ht="16.5" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -13682,7 +13700,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" ht="16.5" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -13712,7 +13730,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" ht="16.5" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -13742,7 +13760,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" ht="16.5" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -13772,7 +13790,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" ht="16.5" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -13802,7 +13820,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" ht="16.5" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -13832,7 +13850,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" ht="16.5" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -13862,7 +13880,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" ht="16.5" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -13892,7 +13910,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" ht="16.5" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -13922,7 +13940,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" ht="16.5" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -13952,7 +13970,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" ht="16.5" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -13982,7 +14000,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" ht="16.5" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -14012,7 +14030,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" ht="16.5" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -14042,7 +14060,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" ht="16.5" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -14072,7 +14090,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" ht="16.5" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -14102,7 +14120,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" ht="16.5" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -14132,7 +14150,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" ht="16.5" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -14162,7 +14180,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" ht="16.5" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -14192,7 +14210,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" ht="16.5" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -14222,7 +14240,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" ht="16.5" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -14252,7 +14270,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" ht="16.5" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -14282,7 +14300,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" ht="16.5" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -14312,7 +14330,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" ht="16.5" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -14342,7 +14360,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" ht="16.5" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -14372,7 +14390,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" ht="16.5" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -14402,7 +14420,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" ht="16.5" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -14432,7 +14450,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" ht="16.5" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -14462,7 +14480,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" ht="16.5" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -14492,7 +14510,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" ht="16.5" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -14522,7 +14540,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" ht="16.5" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -14552,7 +14570,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" ht="16.5" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -14582,7 +14600,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" ht="16.5" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -14612,7 +14630,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" ht="16.5" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -14642,7 +14660,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" ht="16.5" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -14672,7 +14690,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" ht="16.5" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -14702,7 +14720,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" ht="16.5" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -14732,7 +14750,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" ht="16.5" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -14762,7 +14780,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" ht="16.5" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -14792,7 +14810,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" ht="16.5" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -14822,7 +14840,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" ht="16.5" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -14852,7 +14870,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" ht="16.5" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -14882,7 +14900,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" ht="16.5" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -14912,7 +14930,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" ht="16.5" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -14942,7 +14960,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" ht="16.5" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -14972,7 +14990,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" ht="16.5" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -15002,7 +15020,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" ht="16.5" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -15032,7 +15050,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" ht="16.5" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -15062,7 +15080,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" ht="16.5" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -15092,7 +15110,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" ht="16.5" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -15122,7 +15140,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" ht="16.5" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -15152,7 +15170,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" ht="16.5" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -15182,7 +15200,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" ht="16.5" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -15212,7 +15230,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" ht="16.5" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -15242,7 +15260,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" ht="16.5" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -15272,7 +15290,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" ht="16.5" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -15302,7 +15320,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" ht="16.5" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -15332,7 +15350,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" ht="16.5" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -15362,7 +15380,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" ht="16.5" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -15392,7 +15410,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" ht="16.5" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -15422,7 +15440,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" ht="16.5" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -15452,7 +15470,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" ht="16.5" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -15482,7 +15500,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" ht="16.5" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -15512,7 +15530,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" ht="16.5" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -15542,7 +15560,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" ht="16.5" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -15572,7 +15590,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" ht="16.5" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -15602,7 +15620,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" ht="16.5" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -15632,7 +15650,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" ht="16.5" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -15662,7 +15680,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" ht="16.5" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -15692,7 +15710,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" ht="16.5" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -15722,7 +15740,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" ht="16.5" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -15752,7 +15770,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" ht="16.5" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -15782,7 +15800,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" ht="16.5" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -15812,7 +15830,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" ht="16.5" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19175" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="149">
   <si>
     <t>单元格里的
 [回车键]用
@@ -299,6 +299,9 @@
     var arr = document.cookie.match(new RegExp("(^| )"+name+"=([^;]*)(;|$)"));
      if(arr != null) return (arr[2]); return null;
 }</t>
+  </si>
+  <si>
+    <t>开始尝试进行视频的采集模块，能够进行视频的采集，但是不知道为何保存下来的mp4格式的视频无法进行播放</t>
   </si>
   <si>
     <t>其他例子</t>
@@ -688,10 +691,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -739,25 +742,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -775,42 +764,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -830,6 +794,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -838,7 +810,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,11 +862,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -875,16 +878,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,7 +938,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,7 +1052,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,61 +1076,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,85 +1094,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,11 +1230,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,50 +1260,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1324,153 +1294,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1606,6 +1609,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1888,20 +1896,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AB247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="5.2" customWidth="1"/>
@@ -1949,7 +1956,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:28">
+    <row r="2" spans="1:28">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -2561,12 +2568,22 @@
     </row>
     <row r="17" ht="73.5" customHeight="1" spans="1:28">
       <c r="A17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
+      <c r="C17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="20">
+        <v>43641</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="8"/>
+      <c r="G17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -3748,7 +3765,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" ht="16.5" spans="1:28">
+    <row r="58" spans="1:28">
       <c r="A58" s="6"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -3835,7 +3852,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" ht="16.5" spans="1:28">
+    <row r="61" spans="1:28">
       <c r="A61" s="6"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -3922,7 +3939,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" ht="16.5" spans="1:28">
+    <row r="64" spans="1:28">
       <c r="A64" s="6"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -4009,7 +4026,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" ht="16.5" spans="1:28">
+    <row r="67" spans="1:28">
       <c r="A67" s="6"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -4879,7 +4896,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" ht="16.5" spans="1:28">
+    <row r="97" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4909,7 +4926,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" ht="16.5" spans="1:28">
+    <row r="98" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4939,7 +4956,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" ht="16.5" spans="1:28">
+    <row r="99" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4969,7 +4986,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" ht="16.5" spans="1:28">
+    <row r="100" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4999,7 +5016,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" ht="16.5" spans="1:28">
+    <row r="101" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -5029,7 +5046,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" ht="16.5" spans="1:28">
+    <row r="102" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -5059,7 +5076,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" ht="16.5" spans="1:28">
+    <row r="103" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -5089,7 +5106,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" ht="16.5" spans="1:28">
+    <row r="104" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -5119,7 +5136,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" ht="16.5" spans="1:28">
+    <row r="105" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5149,7 +5166,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" ht="16.5" spans="1:28">
+    <row r="106" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5179,7 +5196,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" ht="16.5" spans="1:28">
+    <row r="107" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5209,7 +5226,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" ht="16.5" spans="1:28">
+    <row r="108" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5239,7 +5256,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" ht="16.5" spans="1:28">
+    <row r="109" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5269,7 +5286,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" ht="16.5" spans="1:28">
+    <row r="110" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5299,7 +5316,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" ht="16.5" spans="1:28">
+    <row r="111" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5329,7 +5346,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" ht="16.5" spans="1:28">
+    <row r="112" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5359,7 +5376,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" ht="16.5" spans="1:28">
+    <row r="113" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5389,7 +5406,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" ht="16.5" spans="1:28">
+    <row r="114" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5419,7 +5436,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" ht="16.5" spans="1:28">
+    <row r="115" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5449,7 +5466,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" ht="16.5" spans="1:28">
+    <row r="116" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5479,7 +5496,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" ht="16.5" spans="1:28">
+    <row r="117" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -5509,7 +5526,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" ht="16.5" spans="1:28">
+    <row r="118" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5539,7 +5556,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" ht="16.5" spans="1:28">
+    <row r="119" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -5569,7 +5586,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" ht="16.5" spans="1:28">
+    <row r="120" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -5599,7 +5616,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" ht="16.5" spans="1:28">
+    <row r="121" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -5629,7 +5646,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" ht="16.5" spans="1:28">
+    <row r="122" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -5659,7 +5676,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" ht="16.5" spans="1:28">
+    <row r="123" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -5689,7 +5706,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" ht="16.5" spans="1:28">
+    <row r="124" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -5719,7 +5736,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" ht="16.5" spans="1:28">
+    <row r="125" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5749,7 +5766,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" ht="16.5" spans="1:28">
+    <row r="126" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -5779,7 +5796,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" ht="16.5" spans="1:28">
+    <row r="127" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -5809,7 +5826,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" ht="16.5" spans="1:28">
+    <row r="128" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -5839,7 +5856,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" ht="16.5" spans="1:28">
+    <row r="129" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -5869,7 +5886,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" ht="16.5" spans="1:28">
+    <row r="130" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -5899,7 +5916,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" ht="16.5" spans="1:28">
+    <row r="131" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -5929,7 +5946,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" ht="16.5" spans="1:28">
+    <row r="132" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -5959,7 +5976,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" ht="16.5" spans="1:28">
+    <row r="133" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -5989,7 +6006,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" ht="16.5" spans="1:28">
+    <row r="134" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -6019,7 +6036,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" ht="16.5" spans="1:28">
+    <row r="135" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6049,7 +6066,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" ht="16.5" spans="1:28">
+    <row r="136" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6079,7 +6096,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" ht="16.5" spans="1:28">
+    <row r="137" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -6109,7 +6126,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" ht="16.5" spans="1:28">
+    <row r="138" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -6139,7 +6156,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" ht="16.5" spans="1:28">
+    <row r="139" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6169,7 +6186,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" ht="16.5" spans="1:28">
+    <row r="140" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6199,7 +6216,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" ht="16.5" spans="1:28">
+    <row r="141" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6229,7 +6246,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" ht="16.5" spans="1:28">
+    <row r="142" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6259,7 +6276,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" ht="16.5" spans="1:28">
+    <row r="143" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6289,7 +6306,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" ht="16.5" spans="1:28">
+    <row r="144" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6319,7 +6336,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" ht="16.5" spans="1:28">
+    <row r="145" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6349,7 +6366,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" ht="16.5" spans="1:28">
+    <row r="146" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6379,7 +6396,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" ht="16.5" spans="1:28">
+    <row r="147" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6409,7 +6426,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" ht="16.5" spans="1:28">
+    <row r="148" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6439,7 +6456,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" ht="16.5" spans="1:28">
+    <row r="149" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6469,7 +6486,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" ht="16.5" spans="1:28">
+    <row r="150" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6499,7 +6516,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" ht="16.5" spans="1:28">
+    <row r="151" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6529,7 +6546,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" ht="16.5" spans="1:28">
+    <row r="152" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6559,7 +6576,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" ht="16.5" spans="1:28">
+    <row r="153" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -6589,7 +6606,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" ht="16.5" spans="1:28">
+    <row r="154" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -6619,7 +6636,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" ht="16.5" spans="1:28">
+    <row r="155" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6649,7 +6666,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" ht="16.5" spans="1:28">
+    <row r="156" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -6679,7 +6696,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" ht="16.5" spans="1:28">
+    <row r="157" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -6709,7 +6726,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" ht="16.5" spans="1:28">
+    <row r="158" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -6739,7 +6756,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" ht="16.5" spans="1:28">
+    <row r="159" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -6769,7 +6786,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" ht="16.5" spans="1:28">
+    <row r="160" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -6799,7 +6816,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" ht="16.5" spans="1:28">
+    <row r="161" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -6829,7 +6846,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" ht="16.5" spans="1:28">
+    <row r="162" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -6859,7 +6876,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" ht="16.5" spans="1:28">
+    <row r="163" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -6889,7 +6906,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" ht="16.5" spans="1:28">
+    <row r="164" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -6919,7 +6936,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" ht="16.5" spans="1:28">
+    <row r="165" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -6949,7 +6966,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" ht="16.5" spans="1:28">
+    <row r="166" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -6979,7 +6996,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" ht="16.5" spans="1:28">
+    <row r="167" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -7009,7 +7026,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" ht="16.5" spans="1:28">
+    <row r="168" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -7039,7 +7056,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" ht="16.5" spans="1:28">
+    <row r="169" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -7069,7 +7086,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" ht="16.5" spans="1:28">
+    <row r="170" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7099,7 +7116,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" ht="16.5" spans="1:28">
+    <row r="171" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7129,7 +7146,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" ht="16.5" spans="1:28">
+    <row r="172" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7159,7 +7176,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" ht="16.5" spans="1:28">
+    <row r="173" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7189,7 +7206,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" ht="16.5" spans="1:28">
+    <row r="174" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7219,7 +7236,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" ht="16.5" spans="1:28">
+    <row r="175" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7249,7 +7266,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" ht="16.5" spans="1:28">
+    <row r="176" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7279,7 +7296,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" ht="16.5" spans="1:28">
+    <row r="177" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7309,7 +7326,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" ht="16.5" spans="1:28">
+    <row r="178" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -7339,7 +7356,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" ht="16.5" spans="1:28">
+    <row r="179" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -7369,7 +7386,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" ht="16.5" spans="1:28">
+    <row r="180" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -7399,7 +7416,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" ht="16.5" spans="1:28">
+    <row r="181" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -7429,7 +7446,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" ht="16.5" spans="1:28">
+    <row r="182" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -7459,7 +7476,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" ht="16.5" spans="1:28">
+    <row r="183" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -7489,7 +7506,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" ht="16.5" spans="1:28">
+    <row r="184" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -7519,7 +7536,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" ht="16.5" spans="1:28">
+    <row r="185" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -7549,7 +7566,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" ht="16.5" spans="1:28">
+    <row r="186" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -7579,7 +7596,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" ht="16.5" spans="1:28">
+    <row r="187" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -7609,7 +7626,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" ht="16.5" spans="1:28">
+    <row r="188" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -7639,7 +7656,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" ht="16.5" spans="1:28">
+    <row r="189" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -7669,7 +7686,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" ht="16.5" spans="1:28">
+    <row r="190" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -7699,7 +7716,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" ht="16.5" spans="1:28">
+    <row r="191" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -7729,7 +7746,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" ht="16.5" spans="1:28">
+    <row r="192" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -7759,7 +7776,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" ht="16.5" spans="1:28">
+    <row r="193" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -7789,7 +7806,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" ht="16.5" spans="1:28">
+    <row r="194" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -7819,7 +7836,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" ht="16.5" spans="1:28">
+    <row r="195" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -7849,7 +7866,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" ht="16.5" spans="1:28">
+    <row r="196" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -7879,7 +7896,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" ht="16.5" spans="1:28">
+    <row r="197" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -7909,7 +7926,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" ht="16.5" spans="1:28">
+    <row r="198" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -7939,7 +7956,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" ht="16.5" spans="1:28">
+    <row r="199" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -7969,7 +7986,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" ht="16.5" spans="1:28">
+    <row r="200" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -7999,7 +8016,7 @@
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
     </row>
-    <row r="201" ht="16.5" spans="1:28">
+    <row r="201" spans="1:28">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -8029,7 +8046,7 @@
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
     </row>
-    <row r="202" ht="16.5" spans="1:28">
+    <row r="202" spans="1:28">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -8059,7 +8076,7 @@
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
     </row>
-    <row r="203" ht="16.5" spans="1:28">
+    <row r="203" spans="1:28">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -8089,7 +8106,7 @@
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
     </row>
-    <row r="204" ht="16.5" spans="1:28">
+    <row r="204" spans="1:28">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -8119,7 +8136,7 @@
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
     </row>
-    <row r="205" ht="16.5" spans="1:28">
+    <row r="205" spans="1:28">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -8149,7 +8166,7 @@
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
     </row>
-    <row r="206" ht="16.5" spans="1:28">
+    <row r="206" spans="1:28">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -8179,7 +8196,7 @@
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
     </row>
-    <row r="207" ht="16.5" spans="1:28">
+    <row r="207" spans="1:28">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -8209,7 +8226,7 @@
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
     </row>
-    <row r="208" ht="16.5" spans="1:28">
+    <row r="208" spans="1:28">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -8239,7 +8256,7 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
     </row>
-    <row r="209" ht="16.5" spans="1:28">
+    <row r="209" spans="1:28">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -8269,7 +8286,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
     </row>
-    <row r="210" ht="16.5" spans="1:28">
+    <row r="210" spans="1:28">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -8299,7 +8316,7 @@
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
     </row>
-    <row r="211" ht="16.5" spans="1:28">
+    <row r="211" spans="1:28">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -8329,7 +8346,7 @@
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
     </row>
-    <row r="212" ht="16.5" spans="1:28">
+    <row r="212" spans="1:28">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -8359,7 +8376,7 @@
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
     </row>
-    <row r="213" ht="16.5" spans="1:28">
+    <row r="213" spans="1:28">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -8389,7 +8406,7 @@
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
     </row>
-    <row r="214" ht="16.5" spans="1:28">
+    <row r="214" spans="1:28">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -8419,7 +8436,7 @@
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
     </row>
-    <row r="215" ht="16.5" spans="1:28">
+    <row r="215" spans="1:28">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -8449,7 +8466,7 @@
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
     </row>
-    <row r="216" ht="16.5" spans="1:28">
+    <row r="216" spans="1:28">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -8479,7 +8496,7 @@
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
     </row>
-    <row r="217" ht="16.5" spans="1:28">
+    <row r="217" spans="1:28">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -8509,7 +8526,7 @@
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
     </row>
-    <row r="218" ht="16.5" spans="1:28">
+    <row r="218" spans="1:28">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -8539,7 +8556,7 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
     </row>
-    <row r="219" ht="16.5" spans="1:28">
+    <row r="219" spans="1:28">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -8569,7 +8586,7 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
     </row>
-    <row r="220" ht="16.5" spans="1:28">
+    <row r="220" spans="1:28">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -8599,7 +8616,7 @@
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
     </row>
-    <row r="221" ht="16.5" spans="1:28">
+    <row r="221" spans="1:28">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -8629,7 +8646,7 @@
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
     </row>
-    <row r="222" ht="16.5" spans="1:28">
+    <row r="222" spans="1:28">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -8659,7 +8676,7 @@
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
     </row>
-    <row r="223" ht="16.5" spans="1:28">
+    <row r="223" spans="1:28">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -8689,7 +8706,7 @@
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
     </row>
-    <row r="224" ht="16.5" spans="1:28">
+    <row r="224" spans="1:28">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -8719,7 +8736,7 @@
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
     </row>
-    <row r="225" ht="16.5" spans="1:28">
+    <row r="225" spans="1:28">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -8749,7 +8766,7 @@
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
     </row>
-    <row r="226" ht="16.5" spans="1:28">
+    <row r="226" spans="1:28">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -8779,7 +8796,7 @@
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
     </row>
-    <row r="227" ht="16.5" spans="1:28">
+    <row r="227" spans="1:28">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -8809,7 +8826,7 @@
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
     </row>
-    <row r="228" ht="16.5" spans="1:28">
+    <row r="228" spans="1:28">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -8839,7 +8856,7 @@
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
     </row>
-    <row r="229" ht="16.5" spans="1:28">
+    <row r="229" spans="1:28">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -8869,7 +8886,7 @@
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
     </row>
-    <row r="230" ht="16.5" spans="1:28">
+    <row r="230" spans="1:28">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -8899,7 +8916,7 @@
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
     </row>
-    <row r="231" ht="16.5" spans="1:28">
+    <row r="231" spans="1:28">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -8929,7 +8946,7 @@
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
     </row>
-    <row r="232" ht="16.5" spans="1:28">
+    <row r="232" spans="1:28">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -8959,7 +8976,7 @@
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
     </row>
-    <row r="233" ht="16.5" spans="1:28">
+    <row r="233" spans="1:28">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -8989,7 +9006,7 @@
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
     </row>
-    <row r="234" ht="16.5" spans="1:28">
+    <row r="234" spans="1:28">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -9019,7 +9036,7 @@
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
     </row>
-    <row r="235" ht="16.5" spans="1:28">
+    <row r="235" spans="1:28">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -9049,7 +9066,7 @@
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
     </row>
-    <row r="236" ht="16.5" spans="1:28">
+    <row r="236" spans="1:28">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -9079,7 +9096,7 @@
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
     </row>
-    <row r="237" ht="16.5" spans="1:28">
+    <row r="237" spans="1:28">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -9109,7 +9126,7 @@
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
     </row>
-    <row r="238" ht="16.5" spans="1:28">
+    <row r="238" spans="1:28">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -9139,7 +9156,7 @@
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
     </row>
-    <row r="239" ht="16.5" spans="1:28">
+    <row r="239" spans="1:28">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -9169,7 +9186,7 @@
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
     </row>
-    <row r="240" ht="16.5" spans="1:28">
+    <row r="240" spans="1:28">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -9199,7 +9216,7 @@
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
     </row>
-    <row r="241" ht="16.5" spans="1:28">
+    <row r="241" spans="1:28">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -9229,7 +9246,7 @@
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
     </row>
-    <row r="242" ht="16.5" spans="1:28">
+    <row r="242" spans="1:28">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -9259,7 +9276,7 @@
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
     </row>
-    <row r="243" ht="16.5" spans="1:28">
+    <row r="243" spans="1:28">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -9289,7 +9306,7 @@
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
     </row>
-    <row r="244" ht="16.5" spans="1:28">
+    <row r="244" spans="1:28">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -9319,7 +9336,7 @@
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
     </row>
-    <row r="245" ht="16.5" spans="1:28">
+    <row r="245" spans="1:28">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -9349,7 +9366,7 @@
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
     </row>
-    <row r="246" ht="16.5" spans="1:28">
+    <row r="246" spans="1:28">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -9379,7 +9396,7 @@
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
     </row>
-    <row r="247" ht="16.5" spans="1:28">
+    <row r="247" spans="1:28">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -9419,7 +9436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AB200"/>
   <sheetViews>
@@ -9427,7 +9444,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -9444,7 +9461,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -9477,13 +9494,13 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:28">
+    <row r="2" spans="1:28">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -9495,7 +9512,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -9526,13 +9543,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -9567,17 +9584,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -9608,13 +9625,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -9649,13 +9666,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -9680,7 +9697,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" ht="16.5" spans="1:28">
+    <row r="7" spans="1:28">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9690,19 +9707,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -9723,7 +9740,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" ht="16.5" spans="1:28">
+    <row r="8" spans="1:28">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -9733,19 +9750,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -9776,13 +9793,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -9807,7 +9824,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" ht="16.5" spans="1:28">
+    <row r="10" spans="1:28">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -9817,13 +9834,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -9855,13 +9872,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -9893,19 +9910,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -9936,17 +9953,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -9977,19 +9994,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -10020,13 +10037,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -10059,19 +10076,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10092,7 +10109,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" ht="16.5" spans="1:28">
+    <row r="17" spans="1:28">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10101,13 +10118,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10130,7 +10147,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" ht="16.5" spans="1:28">
+    <row r="18" spans="1:28">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10139,13 +10156,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10177,19 +10194,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10219,17 +10236,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10259,13 +10276,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10297,19 +10314,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10339,13 +10356,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10377,13 +10394,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10415,13 +10432,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10453,13 +10470,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10491,13 +10508,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -10529,13 +10546,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10567,13 +10584,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -10607,10 +10624,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -10643,10 +10660,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -10679,17 +10696,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -10719,17 +10736,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -10750,7 +10767,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" ht="16.5" spans="1:28">
+    <row r="34" spans="1:28">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -10759,17 +10776,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -10790,7 +10807,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" ht="16.5" spans="1:28">
+    <row r="35" spans="1:28">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -10799,13 +10816,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -10828,7 +10845,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" ht="16.5" spans="1:28">
+    <row r="36" spans="1:28">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -10837,13 +10854,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -10875,10 +10892,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -10911,17 +10928,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -10951,10 +10968,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -10987,10 +11004,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -11014,7 +11031,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" ht="16.5" spans="1:28">
+    <row r="41" spans="1:28">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -11023,17 +11040,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -11054,7 +11071,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" ht="16.5" spans="1:28">
+    <row r="42" spans="1:28">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11063,10 +11080,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11099,13 +11116,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11137,10 +11154,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11164,7 +11181,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" ht="16.5" spans="1:28">
+    <row r="45" spans="1:28">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -11194,7 +11211,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" ht="16.5" spans="1:28">
+    <row r="46" spans="1:28">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -11224,7 +11241,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" ht="16.5" spans="1:28">
+    <row r="47" spans="1:28">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -11233,13 +11250,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11271,13 +11288,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -11300,7 +11317,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" ht="16.5" spans="1:28">
+    <row r="49" spans="1:28">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -11330,7 +11347,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" ht="16.5" spans="1:28">
+    <row r="50" spans="1:28">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11360,7 +11377,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" ht="16.5" spans="1:28">
+    <row r="51" spans="1:28">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -11390,7 +11407,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" ht="16.5" spans="1:28">
+    <row r="52" spans="1:28">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -11420,7 +11437,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" ht="16.5" spans="1:28">
+    <row r="53" spans="1:28">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -11450,7 +11467,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" ht="16.5" spans="1:28">
+    <row r="54" spans="1:28">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -11480,7 +11497,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" ht="16.5" spans="1:28">
+    <row r="55" spans="1:28">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -11510,7 +11527,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" ht="16.5" spans="1:28">
+    <row r="56" spans="1:28">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -11540,7 +11557,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" ht="16.5" spans="1:28">
+    <row r="57" spans="1:28">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -11570,7 +11587,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" ht="16.5" spans="1:28">
+    <row r="58" spans="1:28">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -11600,7 +11617,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" ht="16.5" spans="1:28">
+    <row r="59" spans="1:28">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -11630,7 +11647,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" ht="16.5" spans="1:28">
+    <row r="60" spans="1:28">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -11660,7 +11677,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" ht="16.5" spans="1:28">
+    <row r="61" spans="1:28">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -11690,7 +11707,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" ht="16.5" spans="1:28">
+    <row r="62" spans="1:28">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -11720,7 +11737,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" ht="16.5" spans="1:28">
+    <row r="63" spans="1:28">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -11750,7 +11767,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" ht="16.5" spans="1:28">
+    <row r="64" spans="1:28">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -11780,7 +11797,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" ht="16.5" spans="1:28">
+    <row r="65" spans="1:28">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -11810,7 +11827,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" ht="16.5" spans="1:28">
+    <row r="66" spans="1:28">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -11840,7 +11857,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" ht="16.5" spans="1:28">
+    <row r="67" spans="1:28">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -11870,7 +11887,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" ht="16.5" spans="1:28">
+    <row r="68" spans="1:28">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -11900,7 +11917,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" ht="16.5" spans="1:28">
+    <row r="69" spans="1:28">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -11930,7 +11947,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" ht="16.5" spans="1:28">
+    <row r="70" spans="1:28">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -11960,7 +11977,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" ht="16.5" spans="1:28">
+    <row r="71" spans="1:28">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -11990,7 +12007,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" ht="16.5" spans="1:28">
+    <row r="72" spans="1:28">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -12020,7 +12037,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" ht="16.5" spans="1:28">
+    <row r="73" spans="1:28">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -12050,7 +12067,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" ht="16.5" spans="1:28">
+    <row r="74" spans="1:28">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -12080,7 +12097,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" ht="16.5" spans="1:28">
+    <row r="75" spans="1:28">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -12110,7 +12127,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" ht="16.5" spans="1:28">
+    <row r="76" spans="1:28">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -12140,7 +12157,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" ht="16.5" spans="1:28">
+    <row r="77" spans="1:28">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12170,7 +12187,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" ht="16.5" spans="1:28">
+    <row r="78" spans="1:28">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -12200,7 +12217,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" ht="16.5" spans="1:28">
+    <row r="79" spans="1:28">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -12230,7 +12247,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" ht="16.5" spans="1:28">
+    <row r="80" spans="1:28">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12260,7 +12277,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
     </row>
-    <row r="81" ht="16.5" spans="1:28">
+    <row r="81" spans="1:28">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12290,7 +12307,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
     </row>
-    <row r="82" ht="16.5" spans="1:28">
+    <row r="82" spans="1:28">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12320,7 +12337,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
     </row>
-    <row r="83" ht="16.5" spans="1:28">
+    <row r="83" spans="1:28">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12350,7 +12367,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
     </row>
-    <row r="84" ht="16.5" spans="1:28">
+    <row r="84" spans="1:28">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12380,7 +12397,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" ht="16.5" spans="1:28">
+    <row r="85" spans="1:28">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -12410,7 +12427,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" ht="16.5" spans="1:28">
+    <row r="86" spans="1:28">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -12440,7 +12457,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" ht="16.5" spans="1:28">
+    <row r="87" spans="1:28">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12470,7 +12487,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
-    <row r="88" ht="16.5" spans="1:28">
+    <row r="88" spans="1:28">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -12500,7 +12517,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
     </row>
-    <row r="89" ht="16.5" spans="1:28">
+    <row r="89" spans="1:28">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -12530,7 +12547,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
     </row>
-    <row r="90" ht="16.5" spans="1:28">
+    <row r="90" spans="1:28">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -12560,7 +12577,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
     </row>
-    <row r="91" ht="16.5" spans="1:28">
+    <row r="91" spans="1:28">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -12590,7 +12607,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
     </row>
-    <row r="92" ht="16.5" spans="1:28">
+    <row r="92" spans="1:28">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -12620,7 +12637,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
     </row>
-    <row r="93" ht="16.5" spans="1:28">
+    <row r="93" spans="1:28">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -12650,7 +12667,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
     </row>
-    <row r="94" ht="16.5" spans="1:28">
+    <row r="94" spans="1:28">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -12680,7 +12697,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
     </row>
-    <row r="95" ht="16.5" spans="1:28">
+    <row r="95" spans="1:28">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -12710,7 +12727,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" ht="16.5" spans="1:28">
+    <row r="96" spans="1:28">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -12740,7 +12757,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" ht="16.5" spans="1:28">
+    <row r="97" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -12770,7 +12787,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" ht="16.5" spans="1:28">
+    <row r="98" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -12800,7 +12817,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" ht="16.5" spans="1:28">
+    <row r="99" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -12830,7 +12847,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" ht="16.5" spans="1:28">
+    <row r="100" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -12860,7 +12877,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" ht="16.5" spans="1:28">
+    <row r="101" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -12890,7 +12907,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" ht="16.5" spans="1:28">
+    <row r="102" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -12920,7 +12937,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" ht="16.5" spans="1:28">
+    <row r="103" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -12950,7 +12967,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" ht="16.5" spans="1:28">
+    <row r="104" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -12980,7 +12997,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" ht="16.5" spans="1:28">
+    <row r="105" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -13010,7 +13027,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" ht="16.5" spans="1:28">
+    <row r="106" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -13040,7 +13057,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" ht="16.5" spans="1:28">
+    <row r="107" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -13070,7 +13087,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" ht="16.5" spans="1:28">
+    <row r="108" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -13100,7 +13117,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" ht="16.5" spans="1:28">
+    <row r="109" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -13130,7 +13147,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" ht="16.5" spans="1:28">
+    <row r="110" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -13160,7 +13177,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" ht="16.5" spans="1:28">
+    <row r="111" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -13190,7 +13207,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" ht="16.5" spans="1:28">
+    <row r="112" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -13220,7 +13237,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" ht="16.5" spans="1:28">
+    <row r="113" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -13250,7 +13267,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" ht="16.5" spans="1:28">
+    <row r="114" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -13280,7 +13297,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" ht="16.5" spans="1:28">
+    <row r="115" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13310,7 +13327,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" ht="16.5" spans="1:28">
+    <row r="116" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -13340,7 +13357,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" ht="16.5" spans="1:28">
+    <row r="117" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -13370,7 +13387,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" ht="16.5" spans="1:28">
+    <row r="118" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -13400,7 +13417,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" ht="16.5" spans="1:28">
+    <row r="119" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -13430,7 +13447,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" ht="16.5" spans="1:28">
+    <row r="120" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -13460,7 +13477,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" ht="16.5" spans="1:28">
+    <row r="121" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -13490,7 +13507,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" ht="16.5" spans="1:28">
+    <row r="122" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -13520,7 +13537,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" ht="16.5" spans="1:28">
+    <row r="123" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -13550,7 +13567,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" ht="16.5" spans="1:28">
+    <row r="124" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -13580,7 +13597,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" ht="16.5" spans="1:28">
+    <row r="125" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -13610,7 +13627,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" ht="16.5" spans="1:28">
+    <row r="126" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -13640,7 +13657,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" ht="16.5" spans="1:28">
+    <row r="127" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -13670,7 +13687,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" ht="16.5" spans="1:28">
+    <row r="128" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -13700,7 +13717,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" ht="16.5" spans="1:28">
+    <row r="129" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -13730,7 +13747,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" ht="16.5" spans="1:28">
+    <row r="130" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -13760,7 +13777,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" ht="16.5" spans="1:28">
+    <row r="131" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -13790,7 +13807,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" ht="16.5" spans="1:28">
+    <row r="132" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -13820,7 +13837,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" ht="16.5" spans="1:28">
+    <row r="133" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -13850,7 +13867,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" ht="16.5" spans="1:28">
+    <row r="134" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -13880,7 +13897,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" ht="16.5" spans="1:28">
+    <row r="135" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -13910,7 +13927,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" ht="16.5" spans="1:28">
+    <row r="136" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -13940,7 +13957,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" ht="16.5" spans="1:28">
+    <row r="137" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -13970,7 +13987,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" ht="16.5" spans="1:28">
+    <row r="138" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -14000,7 +14017,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" ht="16.5" spans="1:28">
+    <row r="139" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -14030,7 +14047,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" ht="16.5" spans="1:28">
+    <row r="140" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -14060,7 +14077,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" ht="16.5" spans="1:28">
+    <row r="141" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -14090,7 +14107,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" ht="16.5" spans="1:28">
+    <row r="142" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -14120,7 +14137,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" ht="16.5" spans="1:28">
+    <row r="143" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -14150,7 +14167,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" ht="16.5" spans="1:28">
+    <row r="144" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -14180,7 +14197,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" ht="16.5" spans="1:28">
+    <row r="145" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -14210,7 +14227,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" ht="16.5" spans="1:28">
+    <row r="146" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -14240,7 +14257,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" ht="16.5" spans="1:28">
+    <row r="147" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -14270,7 +14287,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" ht="16.5" spans="1:28">
+    <row r="148" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -14300,7 +14317,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" ht="16.5" spans="1:28">
+    <row r="149" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -14330,7 +14347,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" ht="16.5" spans="1:28">
+    <row r="150" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -14360,7 +14377,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" ht="16.5" spans="1:28">
+    <row r="151" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -14390,7 +14407,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" ht="16.5" spans="1:28">
+    <row r="152" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -14420,7 +14437,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" ht="16.5" spans="1:28">
+    <row r="153" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -14450,7 +14467,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" ht="16.5" spans="1:28">
+    <row r="154" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -14480,7 +14497,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" ht="16.5" spans="1:28">
+    <row r="155" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -14510,7 +14527,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" ht="16.5" spans="1:28">
+    <row r="156" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -14540,7 +14557,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" ht="16.5" spans="1:28">
+    <row r="157" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -14570,7 +14587,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" ht="16.5" spans="1:28">
+    <row r="158" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -14600,7 +14617,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" ht="16.5" spans="1:28">
+    <row r="159" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -14630,7 +14647,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" ht="16.5" spans="1:28">
+    <row r="160" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -14660,7 +14677,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" ht="16.5" spans="1:28">
+    <row r="161" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -14690,7 +14707,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" ht="16.5" spans="1:28">
+    <row r="162" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -14720,7 +14737,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" ht="16.5" spans="1:28">
+    <row r="163" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -14750,7 +14767,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" ht="16.5" spans="1:28">
+    <row r="164" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -14780,7 +14797,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" ht="16.5" spans="1:28">
+    <row r="165" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -14810,7 +14827,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" ht="16.5" spans="1:28">
+    <row r="166" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -14840,7 +14857,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" ht="16.5" spans="1:28">
+    <row r="167" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -14870,7 +14887,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" ht="16.5" spans="1:28">
+    <row r="168" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -14900,7 +14917,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" ht="16.5" spans="1:28">
+    <row r="169" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -14930,7 +14947,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" ht="16.5" spans="1:28">
+    <row r="170" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -14960,7 +14977,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" ht="16.5" spans="1:28">
+    <row r="171" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -14990,7 +15007,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" ht="16.5" spans="1:28">
+    <row r="172" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -15020,7 +15037,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" ht="16.5" spans="1:28">
+    <row r="173" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -15050,7 +15067,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" ht="16.5" spans="1:28">
+    <row r="174" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -15080,7 +15097,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" ht="16.5" spans="1:28">
+    <row r="175" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -15110,7 +15127,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" ht="16.5" spans="1:28">
+    <row r="176" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -15140,7 +15157,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" ht="16.5" spans="1:28">
+    <row r="177" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -15170,7 +15187,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" ht="16.5" spans="1:28">
+    <row r="178" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -15200,7 +15217,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" ht="16.5" spans="1:28">
+    <row r="179" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -15230,7 +15247,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" ht="16.5" spans="1:28">
+    <row r="180" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -15260,7 +15277,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" ht="16.5" spans="1:28">
+    <row r="181" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -15290,7 +15307,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" ht="16.5" spans="1:28">
+    <row r="182" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -15320,7 +15337,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" ht="16.5" spans="1:28">
+    <row r="183" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -15350,7 +15367,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" ht="16.5" spans="1:28">
+    <row r="184" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -15380,7 +15397,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" ht="16.5" spans="1:28">
+    <row r="185" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -15410,7 +15427,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" ht="16.5" spans="1:28">
+    <row r="186" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -15440,7 +15457,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" ht="16.5" spans="1:28">
+    <row r="187" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -15470,7 +15487,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" ht="16.5" spans="1:28">
+    <row r="188" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -15500,7 +15517,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" ht="16.5" spans="1:28">
+    <row r="189" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -15530,7 +15547,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" ht="16.5" spans="1:28">
+    <row r="190" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -15560,7 +15577,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" ht="16.5" spans="1:28">
+    <row r="191" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -15590,7 +15607,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" ht="16.5" spans="1:28">
+    <row r="192" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -15620,7 +15637,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" ht="16.5" spans="1:28">
+    <row r="193" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -15650,7 +15667,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" ht="16.5" spans="1:28">
+    <row r="194" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -15680,7 +15697,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" ht="16.5" spans="1:28">
+    <row r="195" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -15710,7 +15727,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" ht="16.5" spans="1:28">
+    <row r="196" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -15740,7 +15757,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" ht="16.5" spans="1:28">
+    <row r="197" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -15770,7 +15787,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" ht="16.5" spans="1:28">
+    <row r="198" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -15800,7 +15817,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" ht="16.5" spans="1:28">
+    <row r="199" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -15830,7 +15847,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" ht="16.5" spans="1:28">
+    <row r="200" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="154">
   <si>
     <t>单元格里的
 [回车键]用
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>在前期工作的基础上，划分了更细致的工作范围。开始进行各个功能的逻辑实现。</t>
+  </si>
+  <si>
+    <t>配置spring MVC框架中出现错误,最后检查发现是缺少包</t>
+  </si>
+  <si>
+    <t>导入jstl-1.1.2.jar和standard-1.1.2.jar包</t>
   </si>
   <si>
     <t>其他例子</t>
@@ -699,9 +705,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -751,45 +757,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,7 +766,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,6 +782,90 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -824,8 +877,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,31 +893,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -879,29 +908,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -914,7 +920,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -947,67 +953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,49 +977,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,7 +1049,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,19 +1079,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,13 +1091,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,63 +1247,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1327,18 +1275,70 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1347,148 +1347,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1925,8 +1925,8 @@
   <sheetPr/>
   <dimension ref="A1:AB247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
@@ -2749,12 +2749,27 @@
     </row>
     <row r="20" ht="48" customHeight="1" spans="1:28">
       <c r="A20" s="22"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="9"/>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="23">
+        <v>43644</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="14">
+        <v>43644</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -9545,7 +9560,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -9584,7 +9599,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -9596,7 +9611,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -9627,13 +9642,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -9668,17 +9683,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -9709,13 +9724,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -9750,13 +9765,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -9791,19 +9806,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -9834,19 +9849,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -9877,13 +9892,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -9918,13 +9933,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -9956,13 +9971,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -9994,19 +10009,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -10037,17 +10052,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -10078,19 +10093,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -10121,13 +10136,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -10160,19 +10175,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10202,13 +10217,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10240,13 +10255,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10278,19 +10293,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10320,17 +10335,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10360,13 +10375,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10398,19 +10413,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10440,13 +10455,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10478,13 +10493,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10516,13 +10531,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10554,13 +10569,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10592,13 +10607,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -10630,13 +10645,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10668,13 +10683,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -10708,10 +10723,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -10744,10 +10759,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -10780,17 +10795,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -10820,17 +10835,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -10860,17 +10875,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -10900,13 +10915,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -10938,13 +10953,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -10976,10 +10991,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -11012,17 +11027,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -11052,10 +11067,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -11088,10 +11103,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -11124,17 +11139,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -11164,10 +11179,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11200,13 +11215,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11238,10 +11253,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11334,13 +11349,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11372,13 +11387,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="160">
   <si>
     <t>单元格里的
 [回车键]用
@@ -323,6 +323,18 @@
   </si>
   <si>
     <t>完成了管理员的主界面</t>
+  </si>
+  <si>
+    <t>通过教学视频学习了利用webRTC和websocekt进行的直播间的搭建，然后在springMVC框架方面尝试用表单进行数据的传输以及尝试Ajax技术进行数据交互</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>JavaScript实现验证输入（数字等）/正则表达式相关；解决jstl-1.1.2，standard-1.1.2等jar包的下载与导入，实现springMVC框架下对web、对mysql数据库的访问</t>
+  </si>
+  <si>
+    <t>正则表达式用于扫描用户输入信息是否合法；导入jar包后，应该而且导入成功后，把hello.jsp文件放在index.jsp同级目录下才可以运行；而且要修改index.jsp里的href属性的内容才行</t>
   </si>
   <si>
     <t>其他例子</t>
@@ -711,8 +723,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
@@ -771,7 +783,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,7 +791,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,26 +804,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -830,23 +827,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,8 +873,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,7 +898,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,22 +921,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,7 +938,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -959,13 +971,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,67 +1127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,97 +1139,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,21 +1263,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1290,8 +1281,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1331,6 +1322,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1345,15 +1360,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1362,10 +1368,10 @@
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1374,133 +1380,133 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1938,7 +1944,7 @@
   <dimension ref="A1:AB247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
@@ -2889,12 +2895,27 @@
     </row>
     <row r="23" ht="48.75" customHeight="1" spans="1:28">
       <c r="A23" s="6"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="8"/>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="20">
+        <v>43644</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="14">
+        <v>43644</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -2918,12 +2939,27 @@
     </row>
     <row r="24" ht="148.5" customHeight="1" spans="1:28">
       <c r="A24" s="6"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="8"/>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="20">
+        <v>43644</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="14">
+        <v>43644</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -9598,7 +9634,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -9637,7 +9673,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -9649,7 +9685,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -9680,13 +9716,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -9721,17 +9757,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -9762,13 +9798,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -9803,13 +9839,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -9844,19 +9880,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -9887,19 +9923,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -9930,13 +9966,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -9971,13 +10007,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -10009,13 +10045,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -10047,19 +10083,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -10090,17 +10126,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -10131,19 +10167,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -10174,13 +10210,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -10213,19 +10249,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10255,13 +10291,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10293,13 +10329,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10331,19 +10367,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10373,17 +10409,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10413,13 +10449,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10451,19 +10487,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10493,13 +10529,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10531,13 +10567,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10569,13 +10605,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10607,13 +10643,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10645,13 +10681,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -10683,13 +10719,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10721,13 +10757,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -10761,10 +10797,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -10797,10 +10833,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -10833,17 +10869,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -10873,17 +10909,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -10913,17 +10949,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -10953,13 +10989,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -10991,13 +11027,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -11029,10 +11065,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -11065,17 +11101,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -11105,10 +11141,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -11141,10 +11177,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -11177,17 +11213,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -11217,10 +11253,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11253,13 +11289,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11291,10 +11327,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11387,13 +11423,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11425,13 +11461,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="162">
   <si>
     <t>单元格里的
 [回车键]用
@@ -337,6 +337,14 @@
     <t>正则表达式用于扫描用户输入信息是否合法；导入jar包后，应该而且导入成功后，把hello.jsp文件放在index.jsp同级目录下才可以运行；而且要修改index.jsp里的href属性的内容才行</t>
   </si>
   <si>
+    <t>Tomcat运行时异常信息: Illegal access: this web application instance has been stopped already. Could not load []. The following stack trace is thrown for debugging purposes as well as to attempt to terminate the thread which caused the illegal access.java.lang.IllegalStateException: Illegal access: this web application instance has been stopped already. Could not load []. The following stack trace is thrown for debugging purposes as well as to attempt to terminate the thread which caused the illegal access.</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_30714157/article/details/81236434
+此博客里方法2
+路径D:\Software\apache-tomcat-9.0.21\conf</t>
+  </si>
+  <si>
     <t>其他例子</t>
   </si>
   <si>
@@ -723,10 +731,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="29">
@@ -776,22 +784,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,17 +797,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,14 +842,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -851,22 +850,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -896,16 +889,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,9 +927,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,7 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,109 +991,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,7 +1015,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,7 +1099,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,25 +1141,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,7 +1290,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1291,7 +1314,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1345,168 +1368,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1943,11 +1951,11 @@
   <sheetPr/>
   <dimension ref="A1:AB247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="5.2" customWidth="1"/>
@@ -1995,7 +2003,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" ht="16.5" spans="1:28">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -2904,10 +2912,10 @@
       <c r="D23" s="20">
         <v>43644</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="19" t="s">
         <v>51</v>
       </c>
       <c r="G23" s="14">
@@ -2948,10 +2956,10 @@
       <c r="D24" s="20">
         <v>43644</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="19" t="s">
         <v>53</v>
       </c>
       <c r="G24" s="14">
@@ -2981,14 +2989,29 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
     </row>
-    <row r="25" ht="148.5" customHeight="1" spans="1:28">
+    <row r="25" ht="183" customHeight="1" spans="1:28">
       <c r="A25" s="6"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="8"/>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="20">
+        <v>43644</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="14">
+        <v>43644</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -3938,7 +3961,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="6"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -4025,7 +4048,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="6"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4112,7 +4135,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="6"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -4199,7 +4222,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="6"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -5069,7 +5092,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" ht="16.5" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -5099,7 +5122,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" ht="16.5" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -5129,7 +5152,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" ht="16.5" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -5159,7 +5182,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" ht="16.5" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -5189,7 +5212,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" ht="16.5" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -5219,7 +5242,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" ht="16.5" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -5249,7 +5272,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" ht="16.5" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -5279,7 +5302,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" ht="16.5" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -5309,7 +5332,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" ht="16.5" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5339,7 +5362,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" ht="16.5" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5369,7 +5392,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" ht="16.5" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5399,7 +5422,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" ht="16.5" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5429,7 +5452,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" ht="16.5" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5459,7 +5482,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" ht="16.5" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5489,7 +5512,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" ht="16.5" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5519,7 +5542,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" ht="16.5" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5549,7 +5572,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" ht="16.5" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5579,7 +5602,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" ht="16.5" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5609,7 +5632,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" ht="16.5" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5639,7 +5662,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" ht="16.5" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5669,7 +5692,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" ht="16.5" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -5699,7 +5722,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" ht="16.5" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5729,7 +5752,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" ht="16.5" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -5759,7 +5782,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" ht="16.5" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -5789,7 +5812,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" ht="16.5" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -5819,7 +5842,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" ht="16.5" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -5849,7 +5872,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" ht="16.5" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -5879,7 +5902,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" ht="16.5" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -5909,7 +5932,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" ht="16.5" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5939,7 +5962,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" ht="16.5" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -5969,7 +5992,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" ht="16.5" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -5999,7 +6022,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" ht="16.5" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -6029,7 +6052,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" ht="16.5" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -6059,7 +6082,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" ht="16.5" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -6089,7 +6112,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" ht="16.5" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -6119,7 +6142,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" ht="16.5" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -6149,7 +6172,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" ht="16.5" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -6179,7 +6202,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" ht="16.5" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -6209,7 +6232,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" ht="16.5" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6239,7 +6262,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" ht="16.5" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6269,7 +6292,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" ht="16.5" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -6299,7 +6322,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" ht="16.5" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -6329,7 +6352,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" ht="16.5" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6359,7 +6382,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" ht="16.5" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6389,7 +6412,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" ht="16.5" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6419,7 +6442,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" ht="16.5" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6449,7 +6472,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" ht="16.5" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6479,7 +6502,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" ht="16.5" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6509,7 +6532,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" ht="16.5" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6539,7 +6562,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" ht="16.5" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6569,7 +6592,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" ht="16.5" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6599,7 +6622,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" ht="16.5" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6629,7 +6652,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" ht="16.5" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6659,7 +6682,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" ht="16.5" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6689,7 +6712,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" ht="16.5" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6719,7 +6742,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" ht="16.5" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6749,7 +6772,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" ht="16.5" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -6779,7 +6802,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" ht="16.5" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -6809,7 +6832,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" ht="16.5" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6839,7 +6862,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" ht="16.5" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -6869,7 +6892,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" ht="16.5" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -6899,7 +6922,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" ht="16.5" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -6929,7 +6952,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" ht="16.5" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -6959,7 +6982,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" ht="16.5" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -6989,7 +7012,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" ht="16.5" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -7019,7 +7042,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" ht="16.5" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -7049,7 +7072,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" ht="16.5" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -7079,7 +7102,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" ht="16.5" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -7109,7 +7132,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" ht="16.5" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -7139,7 +7162,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" ht="16.5" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -7169,7 +7192,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" ht="16.5" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -7199,7 +7222,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" ht="16.5" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -7229,7 +7252,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" ht="16.5" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -7259,7 +7282,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" ht="16.5" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7289,7 +7312,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" ht="16.5" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7319,7 +7342,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" ht="16.5" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7349,7 +7372,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" ht="16.5" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7379,7 +7402,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" ht="16.5" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7409,7 +7432,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" ht="16.5" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7439,7 +7462,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" ht="16.5" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7469,7 +7492,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" ht="16.5" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7499,7 +7522,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" ht="16.5" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -7529,7 +7552,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" ht="16.5" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -7559,7 +7582,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" ht="16.5" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -7589,7 +7612,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" ht="16.5" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -7619,7 +7642,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" ht="16.5" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -7649,7 +7672,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" ht="16.5" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -7679,7 +7702,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" ht="16.5" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -7709,7 +7732,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" ht="16.5" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -7739,7 +7762,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" ht="16.5" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -7769,7 +7792,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" ht="16.5" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -7799,7 +7822,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" ht="16.5" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -7829,7 +7852,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" ht="16.5" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -7859,7 +7882,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" ht="16.5" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -7889,7 +7912,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" ht="16.5" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -7919,7 +7942,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" ht="16.5" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -7949,7 +7972,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" ht="16.5" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -7979,7 +8002,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" ht="16.5" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -8009,7 +8032,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" ht="16.5" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -8039,7 +8062,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" ht="16.5" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -8069,7 +8092,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" ht="16.5" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -8099,7 +8122,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" ht="16.5" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -8129,7 +8152,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" ht="16.5" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -8159,7 +8182,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" ht="16.5" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -8189,7 +8212,7 @@
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
     </row>
-    <row r="201" spans="1:28">
+    <row r="201" ht="16.5" spans="1:28">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -8219,7 +8242,7 @@
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
     </row>
-    <row r="202" spans="1:28">
+    <row r="202" ht="16.5" spans="1:28">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -8249,7 +8272,7 @@
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
     </row>
-    <row r="203" spans="1:28">
+    <row r="203" ht="16.5" spans="1:28">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -8279,7 +8302,7 @@
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
     </row>
-    <row r="204" spans="1:28">
+    <row r="204" ht="16.5" spans="1:28">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -8309,7 +8332,7 @@
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
     </row>
-    <row r="205" spans="1:28">
+    <row r="205" ht="16.5" spans="1:28">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -8339,7 +8362,7 @@
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
     </row>
-    <row r="206" spans="1:28">
+    <row r="206" ht="16.5" spans="1:28">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -8369,7 +8392,7 @@
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
     </row>
-    <row r="207" spans="1:28">
+    <row r="207" ht="16.5" spans="1:28">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -8399,7 +8422,7 @@
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
     </row>
-    <row r="208" spans="1:28">
+    <row r="208" ht="16.5" spans="1:28">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -8429,7 +8452,7 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
     </row>
-    <row r="209" spans="1:28">
+    <row r="209" ht="16.5" spans="1:28">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -8459,7 +8482,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
     </row>
-    <row r="210" spans="1:28">
+    <row r="210" ht="16.5" spans="1:28">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -8489,7 +8512,7 @@
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
     </row>
-    <row r="211" spans="1:28">
+    <row r="211" ht="16.5" spans="1:28">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -8519,7 +8542,7 @@
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
     </row>
-    <row r="212" spans="1:28">
+    <row r="212" ht="16.5" spans="1:28">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -8549,7 +8572,7 @@
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
     </row>
-    <row r="213" spans="1:28">
+    <row r="213" ht="16.5" spans="1:28">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -8579,7 +8602,7 @@
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
     </row>
-    <row r="214" spans="1:28">
+    <row r="214" ht="16.5" spans="1:28">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -8609,7 +8632,7 @@
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
     </row>
-    <row r="215" spans="1:28">
+    <row r="215" ht="16.5" spans="1:28">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -8639,7 +8662,7 @@
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
     </row>
-    <row r="216" spans="1:28">
+    <row r="216" ht="16.5" spans="1:28">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -8669,7 +8692,7 @@
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
     </row>
-    <row r="217" spans="1:28">
+    <row r="217" ht="16.5" spans="1:28">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -8699,7 +8722,7 @@
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
     </row>
-    <row r="218" spans="1:28">
+    <row r="218" ht="16.5" spans="1:28">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -8729,7 +8752,7 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
     </row>
-    <row r="219" spans="1:28">
+    <row r="219" ht="16.5" spans="1:28">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -8759,7 +8782,7 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
     </row>
-    <row r="220" spans="1:28">
+    <row r="220" ht="16.5" spans="1:28">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -8789,7 +8812,7 @@
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
     </row>
-    <row r="221" spans="1:28">
+    <row r="221" ht="16.5" spans="1:28">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -8819,7 +8842,7 @@
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
     </row>
-    <row r="222" spans="1:28">
+    <row r="222" ht="16.5" spans="1:28">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -8849,7 +8872,7 @@
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
     </row>
-    <row r="223" spans="1:28">
+    <row r="223" ht="16.5" spans="1:28">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -8879,7 +8902,7 @@
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
     </row>
-    <row r="224" spans="1:28">
+    <row r="224" ht="16.5" spans="1:28">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -8909,7 +8932,7 @@
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
     </row>
-    <row r="225" spans="1:28">
+    <row r="225" ht="16.5" spans="1:28">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -8939,7 +8962,7 @@
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
     </row>
-    <row r="226" spans="1:28">
+    <row r="226" ht="16.5" spans="1:28">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -8969,7 +8992,7 @@
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
     </row>
-    <row r="227" spans="1:28">
+    <row r="227" ht="16.5" spans="1:28">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -8999,7 +9022,7 @@
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
     </row>
-    <row r="228" spans="1:28">
+    <row r="228" ht="16.5" spans="1:28">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -9029,7 +9052,7 @@
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
     </row>
-    <row r="229" spans="1:28">
+    <row r="229" ht="16.5" spans="1:28">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -9059,7 +9082,7 @@
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
     </row>
-    <row r="230" spans="1:28">
+    <row r="230" ht="16.5" spans="1:28">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -9089,7 +9112,7 @@
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
     </row>
-    <row r="231" spans="1:28">
+    <row r="231" ht="16.5" spans="1:28">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -9119,7 +9142,7 @@
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
     </row>
-    <row r="232" spans="1:28">
+    <row r="232" ht="16.5" spans="1:28">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -9149,7 +9172,7 @@
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
     </row>
-    <row r="233" spans="1:28">
+    <row r="233" ht="16.5" spans="1:28">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -9179,7 +9202,7 @@
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
     </row>
-    <row r="234" spans="1:28">
+    <row r="234" ht="16.5" spans="1:28">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -9209,7 +9232,7 @@
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
     </row>
-    <row r="235" spans="1:28">
+    <row r="235" ht="16.5" spans="1:28">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -9239,7 +9262,7 @@
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
     </row>
-    <row r="236" spans="1:28">
+    <row r="236" ht="16.5" spans="1:28">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -9269,7 +9292,7 @@
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
     </row>
-    <row r="237" spans="1:28">
+    <row r="237" ht="16.5" spans="1:28">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -9299,7 +9322,7 @@
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
     </row>
-    <row r="238" spans="1:28">
+    <row r="238" ht="16.5" spans="1:28">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -9329,7 +9352,7 @@
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
     </row>
-    <row r="239" spans="1:28">
+    <row r="239" ht="16.5" spans="1:28">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -9359,7 +9382,7 @@
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
     </row>
-    <row r="240" spans="1:28">
+    <row r="240" ht="16.5" spans="1:28">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -9389,7 +9412,7 @@
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
     </row>
-    <row r="241" spans="1:28">
+    <row r="241" ht="16.5" spans="1:28">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -9419,7 +9442,7 @@
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
     </row>
-    <row r="242" spans="1:28">
+    <row r="242" ht="16.5" spans="1:28">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -9449,7 +9472,7 @@
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
     </row>
-    <row r="243" spans="1:28">
+    <row r="243" ht="16.5" spans="1:28">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -9479,7 +9502,7 @@
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
     </row>
-    <row r="244" spans="1:28">
+    <row r="244" ht="16.5" spans="1:28">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -9509,7 +9532,7 @@
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
     </row>
-    <row r="245" spans="1:28">
+    <row r="245" ht="16.5" spans="1:28">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -9539,7 +9562,7 @@
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
     </row>
-    <row r="246" spans="1:28">
+    <row r="246" ht="16.5" spans="1:28">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -9569,7 +9592,7 @@
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
     </row>
-    <row r="247" spans="1:28">
+    <row r="247" ht="16.5" spans="1:28">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -9617,7 +9640,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -9634,7 +9657,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -9667,13 +9690,13 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" ht="16.5" spans="1:28">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -9685,7 +9708,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -9716,13 +9739,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -9757,17 +9780,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -9798,13 +9821,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -9839,13 +9862,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -9870,7 +9893,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" ht="16.5" spans="1:28">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9880,19 +9903,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -9913,7 +9936,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" ht="16.5" spans="1:28">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -9923,19 +9946,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -9966,13 +9989,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -9997,7 +10020,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" ht="16.5" spans="1:28">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10007,13 +10030,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -10045,13 +10068,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -10083,19 +10106,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -10126,17 +10149,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -10167,19 +10190,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -10210,13 +10233,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -10249,19 +10272,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10282,7 +10305,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" ht="16.5" spans="1:28">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10291,13 +10314,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10320,7 +10343,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" ht="16.5" spans="1:28">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10329,13 +10352,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10367,19 +10390,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10409,17 +10432,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10449,13 +10472,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10487,19 +10510,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10529,13 +10552,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10567,13 +10590,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10605,13 +10628,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10643,13 +10666,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10681,13 +10704,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -10719,13 +10742,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10757,13 +10780,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -10797,10 +10820,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -10833,10 +10856,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -10869,17 +10892,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -10909,17 +10932,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -10940,7 +10963,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" ht="16.5" spans="1:28">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -10949,17 +10972,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -10980,7 +11003,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" ht="16.5" spans="1:28">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -10989,13 +11012,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -11018,7 +11041,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" ht="16.5" spans="1:28">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11027,13 +11050,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -11065,10 +11088,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -11101,17 +11124,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -11141,10 +11164,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -11177,10 +11200,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -11204,7 +11227,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" ht="16.5" spans="1:28">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -11213,17 +11236,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -11244,7 +11267,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" ht="16.5" spans="1:28">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11253,10 +11276,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11289,13 +11312,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11327,10 +11350,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11354,7 +11377,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" ht="16.5" spans="1:28">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -11384,7 +11407,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" ht="16.5" spans="1:28">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -11414,7 +11437,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" ht="16.5" spans="1:28">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -11423,13 +11446,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11461,13 +11484,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -11490,7 +11513,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" ht="16.5" spans="1:28">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -11520,7 +11543,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" ht="16.5" spans="1:28">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11550,7 +11573,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" ht="16.5" spans="1:28">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -11580,7 +11603,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" ht="16.5" spans="1:28">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -11610,7 +11633,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" ht="16.5" spans="1:28">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -11640,7 +11663,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" ht="16.5" spans="1:28">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -11670,7 +11693,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" ht="16.5" spans="1:28">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -11700,7 +11723,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" ht="16.5" spans="1:28">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -11730,7 +11753,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" ht="16.5" spans="1:28">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -11760,7 +11783,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -11790,7 +11813,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" ht="16.5" spans="1:28">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -11820,7 +11843,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" ht="16.5" spans="1:28">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -11850,7 +11873,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -11880,7 +11903,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" ht="16.5" spans="1:28">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -11910,7 +11933,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" ht="16.5" spans="1:28">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -11940,7 +11963,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -11970,7 +11993,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" ht="16.5" spans="1:28">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -12000,7 +12023,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" ht="16.5" spans="1:28">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -12030,7 +12053,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -12060,7 +12083,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" ht="16.5" spans="1:28">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -12090,7 +12113,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" ht="16.5" spans="1:28">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -12120,7 +12143,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" ht="16.5" spans="1:28">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -12150,7 +12173,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" ht="16.5" spans="1:28">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -12180,7 +12203,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" ht="16.5" spans="1:28">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -12210,7 +12233,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" ht="16.5" spans="1:28">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -12240,7 +12263,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" ht="16.5" spans="1:28">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -12270,7 +12293,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" ht="16.5" spans="1:28">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -12300,7 +12323,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" ht="16.5" spans="1:28">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -12330,7 +12353,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" ht="16.5" spans="1:28">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12360,7 +12383,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" ht="16.5" spans="1:28">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -12390,7 +12413,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" ht="16.5" spans="1:28">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -12420,7 +12443,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" ht="16.5" spans="1:28">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12450,7 +12473,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" ht="16.5" spans="1:28">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12480,7 +12503,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" ht="16.5" spans="1:28">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12510,7 +12533,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" ht="16.5" spans="1:28">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12540,7 +12563,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" ht="16.5" spans="1:28">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12570,7 +12593,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" ht="16.5" spans="1:28">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -12600,7 +12623,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" ht="16.5" spans="1:28">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -12630,7 +12653,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" ht="16.5" spans="1:28">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12660,7 +12683,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" ht="16.5" spans="1:28">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -12690,7 +12713,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" ht="16.5" spans="1:28">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -12720,7 +12743,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" ht="16.5" spans="1:28">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -12750,7 +12773,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" ht="16.5" spans="1:28">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -12780,7 +12803,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" ht="16.5" spans="1:28">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -12810,7 +12833,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" ht="16.5" spans="1:28">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -12840,7 +12863,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" ht="16.5" spans="1:28">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -12870,7 +12893,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" ht="16.5" spans="1:28">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -12900,7 +12923,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" ht="16.5" spans="1:28">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -12930,7 +12953,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" ht="16.5" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -12960,7 +12983,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" ht="16.5" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -12990,7 +13013,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" ht="16.5" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -13020,7 +13043,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" ht="16.5" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -13050,7 +13073,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" ht="16.5" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -13080,7 +13103,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" ht="16.5" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -13110,7 +13133,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" ht="16.5" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -13140,7 +13163,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" ht="16.5" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -13170,7 +13193,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" ht="16.5" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -13200,7 +13223,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" ht="16.5" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -13230,7 +13253,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" ht="16.5" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -13260,7 +13283,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" ht="16.5" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -13290,7 +13313,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" ht="16.5" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -13320,7 +13343,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" ht="16.5" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -13350,7 +13373,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" ht="16.5" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -13380,7 +13403,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" ht="16.5" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -13410,7 +13433,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" ht="16.5" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -13440,7 +13463,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" ht="16.5" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -13470,7 +13493,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" ht="16.5" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13500,7 +13523,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" ht="16.5" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -13530,7 +13553,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" ht="16.5" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -13560,7 +13583,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" ht="16.5" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -13590,7 +13613,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" ht="16.5" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -13620,7 +13643,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" ht="16.5" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -13650,7 +13673,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" ht="16.5" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -13680,7 +13703,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" ht="16.5" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -13710,7 +13733,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" ht="16.5" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -13740,7 +13763,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" ht="16.5" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -13770,7 +13793,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" ht="16.5" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -13800,7 +13823,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" ht="16.5" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -13830,7 +13853,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" ht="16.5" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -13860,7 +13883,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" ht="16.5" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -13890,7 +13913,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" ht="16.5" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -13920,7 +13943,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" ht="16.5" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -13950,7 +13973,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" ht="16.5" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -13980,7 +14003,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" ht="16.5" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -14010,7 +14033,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" ht="16.5" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -14040,7 +14063,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" ht="16.5" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -14070,7 +14093,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" ht="16.5" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -14100,7 +14123,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" ht="16.5" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -14130,7 +14153,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" ht="16.5" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -14160,7 +14183,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" ht="16.5" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -14190,7 +14213,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" ht="16.5" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -14220,7 +14243,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" ht="16.5" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -14250,7 +14273,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" ht="16.5" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -14280,7 +14303,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" ht="16.5" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -14310,7 +14333,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" ht="16.5" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -14340,7 +14363,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" ht="16.5" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -14370,7 +14393,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" ht="16.5" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -14400,7 +14423,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" ht="16.5" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -14430,7 +14453,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" ht="16.5" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -14460,7 +14483,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" ht="16.5" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -14490,7 +14513,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" ht="16.5" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -14520,7 +14543,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" ht="16.5" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -14550,7 +14573,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" ht="16.5" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -14580,7 +14603,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" ht="16.5" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -14610,7 +14633,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" ht="16.5" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -14640,7 +14663,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" ht="16.5" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -14670,7 +14693,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" ht="16.5" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -14700,7 +14723,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" ht="16.5" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -14730,7 +14753,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" ht="16.5" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -14760,7 +14783,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" ht="16.5" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -14790,7 +14813,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" ht="16.5" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -14820,7 +14843,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" ht="16.5" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -14850,7 +14873,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" ht="16.5" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -14880,7 +14903,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" ht="16.5" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -14910,7 +14933,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" ht="16.5" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -14940,7 +14963,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" ht="16.5" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -14970,7 +14993,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" ht="16.5" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -15000,7 +15023,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" ht="16.5" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -15030,7 +15053,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" ht="16.5" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -15060,7 +15083,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" ht="16.5" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -15090,7 +15113,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" ht="16.5" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -15120,7 +15143,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" ht="16.5" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -15150,7 +15173,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" ht="16.5" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -15180,7 +15203,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" ht="16.5" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -15210,7 +15233,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" ht="16.5" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -15240,7 +15263,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" ht="16.5" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -15270,7 +15293,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" ht="16.5" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -15300,7 +15323,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" ht="16.5" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -15330,7 +15353,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" ht="16.5" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -15360,7 +15383,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" ht="16.5" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -15390,7 +15413,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" ht="16.5" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -15420,7 +15443,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" ht="16.5" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -15450,7 +15473,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" ht="16.5" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -15480,7 +15503,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" ht="16.5" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -15510,7 +15533,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" ht="16.5" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -15540,7 +15563,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" ht="16.5" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -15570,7 +15593,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" ht="16.5" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -15600,7 +15623,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" ht="16.5" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -15630,7 +15653,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" ht="16.5" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -15660,7 +15683,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" ht="16.5" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -15690,7 +15713,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" ht="16.5" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -15720,7 +15743,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" ht="16.5" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -15750,7 +15773,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" ht="16.5" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -15780,7 +15803,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" ht="16.5" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -15810,7 +15833,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" ht="16.5" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -15840,7 +15863,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" ht="16.5" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -15870,7 +15893,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" ht="16.5" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -15900,7 +15923,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" ht="16.5" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -15930,7 +15953,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" ht="16.5" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -15960,7 +15983,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" ht="16.5" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -15990,7 +16013,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" ht="16.5" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -16020,7 +16043,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" ht="16.5" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="163">
   <si>
     <t>单元格里的
 [回车键]用
@@ -345,6 +345,9 @@
 路径D:\Software\apache-tomcat-9.0.21\conf</t>
   </si>
   <si>
+    <t>初步实现直播和直播的聊天室，开始尝试进行直播界面的美化以及尝试实现直播的电脑屏幕共享功能</t>
+  </si>
+  <si>
     <t>其他例子</t>
   </si>
   <si>
@@ -732,8 +735,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -784,7 +787,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,6 +826,53 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -814,37 +893,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,14 +915,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -875,51 +923,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -946,7 +949,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -979,49 +982,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,37 +1006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,19 +1030,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,49 +1168,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,21 +1292,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1295,16 +1301,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1334,28 +1340,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1368,157 +1363,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1589,6 +1610,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1951,11 +1984,11 @@
   <sheetPr/>
   <dimension ref="A1:AB247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="5.2" customWidth="1"/>
@@ -2003,7 +2036,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:28">
+    <row r="2" spans="1:28">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -3003,7 +3036,7 @@
       <c r="E25" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="24" t="s">
         <v>55</v>
       </c>
       <c r="G25" s="14">
@@ -3035,12 +3068,25 @@
     </row>
     <row r="26" ht="60.75" customHeight="1" spans="1:28">
       <c r="A26" s="6"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="23">
+        <v>43647</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="23">
+        <v>43647</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -3066,8 +3112,8 @@
       <c r="A27" s="6"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="9"/>
       <c r="H27" s="8"/>
       <c r="I27" s="5"/>
@@ -3095,8 +3141,8 @@
       <c r="A28" s="6"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="9"/>
       <c r="H28" s="8"/>
       <c r="I28" s="5"/>
@@ -3125,7 +3171,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="24"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="9"/>
       <c r="H29" s="8"/>
       <c r="I29" s="5"/>
@@ -3154,7 +3200,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="24"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="9"/>
       <c r="H30" s="8"/>
       <c r="I30" s="5"/>
@@ -3183,7 +3229,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="5"/>
@@ -3212,7 +3258,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="24"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
       <c r="I32" s="5"/>
@@ -3241,7 +3287,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="24"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
       <c r="I33" s="5"/>
@@ -3270,7 +3316,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="24"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
       <c r="I34" s="5"/>
@@ -3299,7 +3345,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="24"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="9"/>
       <c r="H35" s="8"/>
       <c r="I35" s="5"/>
@@ -3328,7 +3374,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="24"/>
+      <c r="F36" s="28"/>
       <c r="G36" s="9"/>
       <c r="H36" s="8"/>
       <c r="I36" s="5"/>
@@ -3357,7 +3403,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="25"/>
+      <c r="F37" s="29"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="5"/>
@@ -3385,7 +3431,7 @@
       <c r="A38" s="6"/>
       <c r="C38" s="9"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="24"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="9"/>
       <c r="G38" s="14"/>
       <c r="H38" s="9"/>
@@ -3961,7 +4007,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" ht="16.5" spans="1:28">
+    <row r="58" spans="1:28">
       <c r="A58" s="6"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -3997,7 +4043,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="26"/>
+      <c r="H59" s="30"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -4048,7 +4094,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" ht="16.5" spans="1:28">
+    <row r="61" spans="1:28">
       <c r="A61" s="6"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4135,7 +4181,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" ht="16.5" spans="1:28">
+    <row r="64" spans="1:28">
       <c r="A64" s="6"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -4222,7 +4268,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" ht="16.5" spans="1:28">
+    <row r="67" spans="1:28">
       <c r="A67" s="6"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -4749,7 +4795,7 @@
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="27"/>
+      <c r="F85" s="31"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="5"/>
@@ -5092,7 +5138,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" ht="16.5" spans="1:28">
+    <row r="97" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -5122,7 +5168,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" ht="16.5" spans="1:28">
+    <row r="98" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -5152,7 +5198,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" ht="16.5" spans="1:28">
+    <row r="99" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -5182,7 +5228,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" ht="16.5" spans="1:28">
+    <row r="100" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -5212,7 +5258,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" ht="16.5" spans="1:28">
+    <row r="101" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -5242,7 +5288,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" ht="16.5" spans="1:28">
+    <row r="102" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -5272,7 +5318,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" ht="16.5" spans="1:28">
+    <row r="103" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -5302,7 +5348,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" ht="16.5" spans="1:28">
+    <row r="104" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -5332,7 +5378,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" ht="16.5" spans="1:28">
+    <row r="105" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5362,7 +5408,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" ht="16.5" spans="1:28">
+    <row r="106" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5392,7 +5438,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" ht="16.5" spans="1:28">
+    <row r="107" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5422,7 +5468,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" ht="16.5" spans="1:28">
+    <row r="108" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5452,7 +5498,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" ht="16.5" spans="1:28">
+    <row r="109" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5482,7 +5528,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" ht="16.5" spans="1:28">
+    <row r="110" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5512,7 +5558,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" ht="16.5" spans="1:28">
+    <row r="111" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5542,7 +5588,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" ht="16.5" spans="1:28">
+    <row r="112" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5572,7 +5618,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" ht="16.5" spans="1:28">
+    <row r="113" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5602,7 +5648,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" ht="16.5" spans="1:28">
+    <row r="114" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5632,7 +5678,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" ht="16.5" spans="1:28">
+    <row r="115" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5662,7 +5708,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" ht="16.5" spans="1:28">
+    <row r="116" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5692,7 +5738,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" ht="16.5" spans="1:28">
+    <row r="117" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -5722,7 +5768,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" ht="16.5" spans="1:28">
+    <row r="118" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5752,7 +5798,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" ht="16.5" spans="1:28">
+    <row r="119" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -5782,7 +5828,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" ht="16.5" spans="1:28">
+    <row r="120" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -5812,7 +5858,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" ht="16.5" spans="1:28">
+    <row r="121" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -5842,7 +5888,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" ht="16.5" spans="1:28">
+    <row r="122" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -5872,7 +5918,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" ht="16.5" spans="1:28">
+    <row r="123" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -5902,7 +5948,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" ht="16.5" spans="1:28">
+    <row r="124" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -5932,7 +5978,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" ht="16.5" spans="1:28">
+    <row r="125" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5962,7 +6008,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" ht="16.5" spans="1:28">
+    <row r="126" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -5992,7 +6038,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" ht="16.5" spans="1:28">
+    <row r="127" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -6022,7 +6068,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" ht="16.5" spans="1:28">
+    <row r="128" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -6052,7 +6098,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" ht="16.5" spans="1:28">
+    <row r="129" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -6082,7 +6128,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" ht="16.5" spans="1:28">
+    <row r="130" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -6112,7 +6158,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" ht="16.5" spans="1:28">
+    <row r="131" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -6142,7 +6188,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" ht="16.5" spans="1:28">
+    <row r="132" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -6172,7 +6218,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" ht="16.5" spans="1:28">
+    <row r="133" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -6202,7 +6248,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" ht="16.5" spans="1:28">
+    <row r="134" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -6232,7 +6278,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" ht="16.5" spans="1:28">
+    <row r="135" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6262,7 +6308,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" ht="16.5" spans="1:28">
+    <row r="136" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6292,7 +6338,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" ht="16.5" spans="1:28">
+    <row r="137" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -6322,7 +6368,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" ht="16.5" spans="1:28">
+    <row r="138" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -6352,7 +6398,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" ht="16.5" spans="1:28">
+    <row r="139" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6382,7 +6428,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" ht="16.5" spans="1:28">
+    <row r="140" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6412,7 +6458,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" ht="16.5" spans="1:28">
+    <row r="141" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6442,7 +6488,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" ht="16.5" spans="1:28">
+    <row r="142" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6472,7 +6518,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" ht="16.5" spans="1:28">
+    <row r="143" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6502,7 +6548,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" ht="16.5" spans="1:28">
+    <row r="144" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6532,7 +6578,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" ht="16.5" spans="1:28">
+    <row r="145" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6562,7 +6608,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" ht="16.5" spans="1:28">
+    <row r="146" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6592,7 +6638,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" ht="16.5" spans="1:28">
+    <row r="147" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6622,7 +6668,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" ht="16.5" spans="1:28">
+    <row r="148" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6652,7 +6698,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" ht="16.5" spans="1:28">
+    <row r="149" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6682,7 +6728,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" ht="16.5" spans="1:28">
+    <row r="150" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6712,7 +6758,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" ht="16.5" spans="1:28">
+    <row r="151" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6742,7 +6788,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" ht="16.5" spans="1:28">
+    <row r="152" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6772,7 +6818,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" ht="16.5" spans="1:28">
+    <row r="153" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -6802,7 +6848,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" ht="16.5" spans="1:28">
+    <row r="154" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -6832,7 +6878,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" ht="16.5" spans="1:28">
+    <row r="155" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6862,7 +6908,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" ht="16.5" spans="1:28">
+    <row r="156" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -6892,7 +6938,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" ht="16.5" spans="1:28">
+    <row r="157" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -6922,7 +6968,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" ht="16.5" spans="1:28">
+    <row r="158" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -6952,7 +6998,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" ht="16.5" spans="1:28">
+    <row r="159" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -6982,7 +7028,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" ht="16.5" spans="1:28">
+    <row r="160" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -7012,7 +7058,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" ht="16.5" spans="1:28">
+    <row r="161" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -7042,7 +7088,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" ht="16.5" spans="1:28">
+    <row r="162" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -7072,7 +7118,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" ht="16.5" spans="1:28">
+    <row r="163" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -7102,7 +7148,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" ht="16.5" spans="1:28">
+    <row r="164" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -7132,7 +7178,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" ht="16.5" spans="1:28">
+    <row r="165" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -7162,7 +7208,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" ht="16.5" spans="1:28">
+    <row r="166" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -7192,7 +7238,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" ht="16.5" spans="1:28">
+    <row r="167" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -7222,7 +7268,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" ht="16.5" spans="1:28">
+    <row r="168" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -7252,7 +7298,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" ht="16.5" spans="1:28">
+    <row r="169" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -7282,7 +7328,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" ht="16.5" spans="1:28">
+    <row r="170" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7312,7 +7358,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" ht="16.5" spans="1:28">
+    <row r="171" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7342,7 +7388,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" ht="16.5" spans="1:28">
+    <row r="172" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7372,7 +7418,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" ht="16.5" spans="1:28">
+    <row r="173" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7402,7 +7448,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" ht="16.5" spans="1:28">
+    <row r="174" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7432,7 +7478,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" ht="16.5" spans="1:28">
+    <row r="175" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7462,7 +7508,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" ht="16.5" spans="1:28">
+    <row r="176" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7492,7 +7538,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" ht="16.5" spans="1:28">
+    <row r="177" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7522,7 +7568,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" ht="16.5" spans="1:28">
+    <row r="178" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -7552,7 +7598,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" ht="16.5" spans="1:28">
+    <row r="179" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -7582,7 +7628,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" ht="16.5" spans="1:28">
+    <row r="180" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -7612,7 +7658,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" ht="16.5" spans="1:28">
+    <row r="181" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -7642,7 +7688,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" ht="16.5" spans="1:28">
+    <row r="182" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -7672,7 +7718,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" ht="16.5" spans="1:28">
+    <row r="183" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -7702,7 +7748,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" ht="16.5" spans="1:28">
+    <row r="184" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -7732,7 +7778,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" ht="16.5" spans="1:28">
+    <row r="185" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -7762,7 +7808,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" ht="16.5" spans="1:28">
+    <row r="186" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -7792,7 +7838,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" ht="16.5" spans="1:28">
+    <row r="187" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -7822,7 +7868,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" ht="16.5" spans="1:28">
+    <row r="188" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -7852,7 +7898,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" ht="16.5" spans="1:28">
+    <row r="189" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -7882,7 +7928,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" ht="16.5" spans="1:28">
+    <row r="190" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -7912,7 +7958,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" ht="16.5" spans="1:28">
+    <row r="191" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -7942,7 +7988,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" ht="16.5" spans="1:28">
+    <row r="192" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -7972,7 +8018,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" ht="16.5" spans="1:28">
+    <row r="193" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -8002,7 +8048,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" ht="16.5" spans="1:28">
+    <row r="194" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -8032,7 +8078,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" ht="16.5" spans="1:28">
+    <row r="195" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -8062,7 +8108,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" ht="16.5" spans="1:28">
+    <row r="196" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -8092,7 +8138,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" ht="16.5" spans="1:28">
+    <row r="197" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -8122,7 +8168,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" ht="16.5" spans="1:28">
+    <row r="198" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -8152,7 +8198,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" ht="16.5" spans="1:28">
+    <row r="199" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -8182,7 +8228,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" ht="16.5" spans="1:28">
+    <row r="200" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -8212,7 +8258,7 @@
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
     </row>
-    <row r="201" ht="16.5" spans="1:28">
+    <row r="201" spans="1:28">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -8242,7 +8288,7 @@
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
     </row>
-    <row r="202" ht="16.5" spans="1:28">
+    <row r="202" spans="1:28">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -8272,7 +8318,7 @@
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
     </row>
-    <row r="203" ht="16.5" spans="1:28">
+    <row r="203" spans="1:28">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -8302,7 +8348,7 @@
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
     </row>
-    <row r="204" ht="16.5" spans="1:28">
+    <row r="204" spans="1:28">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -8332,7 +8378,7 @@
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
     </row>
-    <row r="205" ht="16.5" spans="1:28">
+    <row r="205" spans="1:28">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -8362,7 +8408,7 @@
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
     </row>
-    <row r="206" ht="16.5" spans="1:28">
+    <row r="206" spans="1:28">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -8392,7 +8438,7 @@
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
     </row>
-    <row r="207" ht="16.5" spans="1:28">
+    <row r="207" spans="1:28">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -8422,7 +8468,7 @@
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
     </row>
-    <row r="208" ht="16.5" spans="1:28">
+    <row r="208" spans="1:28">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -8452,7 +8498,7 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
     </row>
-    <row r="209" ht="16.5" spans="1:28">
+    <row r="209" spans="1:28">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -8482,7 +8528,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
     </row>
-    <row r="210" ht="16.5" spans="1:28">
+    <row r="210" spans="1:28">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -8512,7 +8558,7 @@
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
     </row>
-    <row r="211" ht="16.5" spans="1:28">
+    <row r="211" spans="1:28">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -8542,7 +8588,7 @@
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
     </row>
-    <row r="212" ht="16.5" spans="1:28">
+    <row r="212" spans="1:28">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -8572,7 +8618,7 @@
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
     </row>
-    <row r="213" ht="16.5" spans="1:28">
+    <row r="213" spans="1:28">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -8602,7 +8648,7 @@
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
     </row>
-    <row r="214" ht="16.5" spans="1:28">
+    <row r="214" spans="1:28">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -8632,7 +8678,7 @@
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
     </row>
-    <row r="215" ht="16.5" spans="1:28">
+    <row r="215" spans="1:28">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -8662,7 +8708,7 @@
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
     </row>
-    <row r="216" ht="16.5" spans="1:28">
+    <row r="216" spans="1:28">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -8692,7 +8738,7 @@
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
     </row>
-    <row r="217" ht="16.5" spans="1:28">
+    <row r="217" spans="1:28">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -8722,7 +8768,7 @@
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
     </row>
-    <row r="218" ht="16.5" spans="1:28">
+    <row r="218" spans="1:28">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -8752,7 +8798,7 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
     </row>
-    <row r="219" ht="16.5" spans="1:28">
+    <row r="219" spans="1:28">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -8782,7 +8828,7 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
     </row>
-    <row r="220" ht="16.5" spans="1:28">
+    <row r="220" spans="1:28">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -8812,7 +8858,7 @@
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
     </row>
-    <row r="221" ht="16.5" spans="1:28">
+    <row r="221" spans="1:28">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -8842,7 +8888,7 @@
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
     </row>
-    <row r="222" ht="16.5" spans="1:28">
+    <row r="222" spans="1:28">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -8872,7 +8918,7 @@
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
     </row>
-    <row r="223" ht="16.5" spans="1:28">
+    <row r="223" spans="1:28">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -8902,7 +8948,7 @@
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
     </row>
-    <row r="224" ht="16.5" spans="1:28">
+    <row r="224" spans="1:28">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -8932,7 +8978,7 @@
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
     </row>
-    <row r="225" ht="16.5" spans="1:28">
+    <row r="225" spans="1:28">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -8962,7 +9008,7 @@
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
     </row>
-    <row r="226" ht="16.5" spans="1:28">
+    <row r="226" spans="1:28">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -8992,7 +9038,7 @@
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
     </row>
-    <row r="227" ht="16.5" spans="1:28">
+    <row r="227" spans="1:28">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -9022,7 +9068,7 @@
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
     </row>
-    <row r="228" ht="16.5" spans="1:28">
+    <row r="228" spans="1:28">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -9052,7 +9098,7 @@
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
     </row>
-    <row r="229" ht="16.5" spans="1:28">
+    <row r="229" spans="1:28">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -9082,7 +9128,7 @@
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
     </row>
-    <row r="230" ht="16.5" spans="1:28">
+    <row r="230" spans="1:28">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -9112,7 +9158,7 @@
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
     </row>
-    <row r="231" ht="16.5" spans="1:28">
+    <row r="231" spans="1:28">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -9142,7 +9188,7 @@
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
     </row>
-    <row r="232" ht="16.5" spans="1:28">
+    <row r="232" spans="1:28">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -9172,7 +9218,7 @@
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
     </row>
-    <row r="233" ht="16.5" spans="1:28">
+    <row r="233" spans="1:28">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -9202,7 +9248,7 @@
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
     </row>
-    <row r="234" ht="16.5" spans="1:28">
+    <row r="234" spans="1:28">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -9232,7 +9278,7 @@
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
     </row>
-    <row r="235" ht="16.5" spans="1:28">
+    <row r="235" spans="1:28">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -9262,7 +9308,7 @@
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
     </row>
-    <row r="236" ht="16.5" spans="1:28">
+    <row r="236" spans="1:28">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -9292,7 +9338,7 @@
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
     </row>
-    <row r="237" ht="16.5" spans="1:28">
+    <row r="237" spans="1:28">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -9322,7 +9368,7 @@
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
     </row>
-    <row r="238" ht="16.5" spans="1:28">
+    <row r="238" spans="1:28">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -9352,7 +9398,7 @@
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
     </row>
-    <row r="239" ht="16.5" spans="1:28">
+    <row r="239" spans="1:28">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -9382,7 +9428,7 @@
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
     </row>
-    <row r="240" ht="16.5" spans="1:28">
+    <row r="240" spans="1:28">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -9412,7 +9458,7 @@
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
     </row>
-    <row r="241" ht="16.5" spans="1:28">
+    <row r="241" spans="1:28">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -9442,7 +9488,7 @@
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
     </row>
-    <row r="242" ht="16.5" spans="1:28">
+    <row r="242" spans="1:28">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -9472,7 +9518,7 @@
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
     </row>
-    <row r="243" ht="16.5" spans="1:28">
+    <row r="243" spans="1:28">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -9502,7 +9548,7 @@
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
     </row>
-    <row r="244" ht="16.5" spans="1:28">
+    <row r="244" spans="1:28">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -9532,7 +9578,7 @@
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
     </row>
-    <row r="245" ht="16.5" spans="1:28">
+    <row r="245" spans="1:28">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -9562,7 +9608,7 @@
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
     </row>
-    <row r="246" ht="16.5" spans="1:28">
+    <row r="246" spans="1:28">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -9592,7 +9638,7 @@
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
     </row>
-    <row r="247" ht="16.5" spans="1:28">
+    <row r="247" spans="1:28">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -9640,7 +9686,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -9657,7 +9703,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -9690,13 +9736,13 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:28">
+    <row r="2" spans="1:28">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -9708,7 +9754,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -9739,13 +9785,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -9780,17 +9826,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -9821,13 +9867,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -9862,13 +9908,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -9893,7 +9939,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" ht="16.5" spans="1:28">
+    <row r="7" spans="1:28">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9903,19 +9949,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -9936,7 +9982,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" ht="16.5" spans="1:28">
+    <row r="8" spans="1:28">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -9946,19 +9992,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -9989,13 +10035,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -10020,7 +10066,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" ht="16.5" spans="1:28">
+    <row r="10" spans="1:28">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10030,13 +10076,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -10068,13 +10114,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -10106,19 +10152,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -10149,17 +10195,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -10190,19 +10236,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -10233,13 +10279,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -10272,19 +10318,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10305,7 +10351,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" ht="16.5" spans="1:28">
+    <row r="17" spans="1:28">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10314,13 +10360,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10343,7 +10389,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" ht="16.5" spans="1:28">
+    <row r="18" spans="1:28">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10352,13 +10398,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10390,19 +10436,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10432,17 +10478,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10472,13 +10518,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10510,19 +10556,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10552,13 +10598,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10590,13 +10636,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10628,13 +10674,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10666,13 +10712,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10704,13 +10750,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -10742,13 +10788,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10780,13 +10826,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -10820,10 +10866,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -10856,10 +10902,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -10892,17 +10938,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -10932,17 +10978,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -10963,7 +11009,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" ht="16.5" spans="1:28">
+    <row r="34" spans="1:28">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -10972,17 +11018,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -11003,7 +11049,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" ht="16.5" spans="1:28">
+    <row r="35" spans="1:28">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -11012,13 +11058,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -11041,7 +11087,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" ht="16.5" spans="1:28">
+    <row r="36" spans="1:28">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11050,13 +11096,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -11088,10 +11134,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -11124,17 +11170,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -11164,10 +11210,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -11200,10 +11246,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -11227,7 +11273,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" ht="16.5" spans="1:28">
+    <row r="41" spans="1:28">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -11236,17 +11282,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -11267,7 +11313,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" ht="16.5" spans="1:28">
+    <row r="42" spans="1:28">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11276,10 +11322,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11312,13 +11358,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11350,10 +11396,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11377,7 +11423,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" ht="16.5" spans="1:28">
+    <row r="45" spans="1:28">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -11407,7 +11453,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" ht="16.5" spans="1:28">
+    <row r="46" spans="1:28">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -11437,7 +11483,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" ht="16.5" spans="1:28">
+    <row r="47" spans="1:28">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -11446,13 +11492,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11484,13 +11530,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -11513,7 +11559,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" ht="16.5" spans="1:28">
+    <row r="49" spans="1:28">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -11543,7 +11589,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" ht="16.5" spans="1:28">
+    <row r="50" spans="1:28">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11573,7 +11619,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" ht="16.5" spans="1:28">
+    <row r="51" spans="1:28">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -11603,7 +11649,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" ht="16.5" spans="1:28">
+    <row r="52" spans="1:28">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -11633,7 +11679,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" ht="16.5" spans="1:28">
+    <row r="53" spans="1:28">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -11663,7 +11709,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" ht="16.5" spans="1:28">
+    <row r="54" spans="1:28">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -11693,7 +11739,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" ht="16.5" spans="1:28">
+    <row r="55" spans="1:28">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -11723,7 +11769,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" ht="16.5" spans="1:28">
+    <row r="56" spans="1:28">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -11753,7 +11799,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" ht="16.5" spans="1:28">
+    <row r="57" spans="1:28">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -11783,7 +11829,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" ht="16.5" spans="1:28">
+    <row r="58" spans="1:28">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -11813,7 +11859,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" ht="16.5" spans="1:28">
+    <row r="59" spans="1:28">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -11843,7 +11889,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" ht="16.5" spans="1:28">
+    <row r="60" spans="1:28">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -11873,7 +11919,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" ht="16.5" spans="1:28">
+    <row r="61" spans="1:28">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -11903,7 +11949,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" ht="16.5" spans="1:28">
+    <row r="62" spans="1:28">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -11933,7 +11979,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" ht="16.5" spans="1:28">
+    <row r="63" spans="1:28">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -11963,7 +12009,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" ht="16.5" spans="1:28">
+    <row r="64" spans="1:28">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -11993,7 +12039,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" ht="16.5" spans="1:28">
+    <row r="65" spans="1:28">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -12023,7 +12069,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" ht="16.5" spans="1:28">
+    <row r="66" spans="1:28">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -12053,7 +12099,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" ht="16.5" spans="1:28">
+    <row r="67" spans="1:28">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -12083,7 +12129,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" ht="16.5" spans="1:28">
+    <row r="68" spans="1:28">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -12113,7 +12159,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" ht="16.5" spans="1:28">
+    <row r="69" spans="1:28">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -12143,7 +12189,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" ht="16.5" spans="1:28">
+    <row r="70" spans="1:28">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -12173,7 +12219,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" ht="16.5" spans="1:28">
+    <row r="71" spans="1:28">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -12203,7 +12249,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" ht="16.5" spans="1:28">
+    <row r="72" spans="1:28">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -12233,7 +12279,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" ht="16.5" spans="1:28">
+    <row r="73" spans="1:28">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -12263,7 +12309,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" ht="16.5" spans="1:28">
+    <row r="74" spans="1:28">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -12293,7 +12339,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" ht="16.5" spans="1:28">
+    <row r="75" spans="1:28">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -12323,7 +12369,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" ht="16.5" spans="1:28">
+    <row r="76" spans="1:28">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -12353,7 +12399,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" ht="16.5" spans="1:28">
+    <row r="77" spans="1:28">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12383,7 +12429,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" ht="16.5" spans="1:28">
+    <row r="78" spans="1:28">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -12413,7 +12459,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" ht="16.5" spans="1:28">
+    <row r="79" spans="1:28">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -12443,7 +12489,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" ht="16.5" spans="1:28">
+    <row r="80" spans="1:28">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12473,7 +12519,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
     </row>
-    <row r="81" ht="16.5" spans="1:28">
+    <row r="81" spans="1:28">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12503,7 +12549,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
     </row>
-    <row r="82" ht="16.5" spans="1:28">
+    <row r="82" spans="1:28">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12533,7 +12579,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
     </row>
-    <row r="83" ht="16.5" spans="1:28">
+    <row r="83" spans="1:28">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12563,7 +12609,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
     </row>
-    <row r="84" ht="16.5" spans="1:28">
+    <row r="84" spans="1:28">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12593,7 +12639,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" ht="16.5" spans="1:28">
+    <row r="85" spans="1:28">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -12623,7 +12669,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" ht="16.5" spans="1:28">
+    <row r="86" spans="1:28">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -12653,7 +12699,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" ht="16.5" spans="1:28">
+    <row r="87" spans="1:28">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12683,7 +12729,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
-    <row r="88" ht="16.5" spans="1:28">
+    <row r="88" spans="1:28">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -12713,7 +12759,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
     </row>
-    <row r="89" ht="16.5" spans="1:28">
+    <row r="89" spans="1:28">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -12743,7 +12789,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
     </row>
-    <row r="90" ht="16.5" spans="1:28">
+    <row r="90" spans="1:28">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -12773,7 +12819,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
     </row>
-    <row r="91" ht="16.5" spans="1:28">
+    <row r="91" spans="1:28">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -12803,7 +12849,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
     </row>
-    <row r="92" ht="16.5" spans="1:28">
+    <row r="92" spans="1:28">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -12833,7 +12879,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
     </row>
-    <row r="93" ht="16.5" spans="1:28">
+    <row r="93" spans="1:28">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -12863,7 +12909,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
     </row>
-    <row r="94" ht="16.5" spans="1:28">
+    <row r="94" spans="1:28">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -12893,7 +12939,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
     </row>
-    <row r="95" ht="16.5" spans="1:28">
+    <row r="95" spans="1:28">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -12923,7 +12969,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" ht="16.5" spans="1:28">
+    <row r="96" spans="1:28">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -12953,7 +12999,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" ht="16.5" spans="1:28">
+    <row r="97" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -12983,7 +13029,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" ht="16.5" spans="1:28">
+    <row r="98" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -13013,7 +13059,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" ht="16.5" spans="1:28">
+    <row r="99" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -13043,7 +13089,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" ht="16.5" spans="1:28">
+    <row r="100" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -13073,7 +13119,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" ht="16.5" spans="1:28">
+    <row r="101" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -13103,7 +13149,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" ht="16.5" spans="1:28">
+    <row r="102" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -13133,7 +13179,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" ht="16.5" spans="1:28">
+    <row r="103" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -13163,7 +13209,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" ht="16.5" spans="1:28">
+    <row r="104" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -13193,7 +13239,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" ht="16.5" spans="1:28">
+    <row r="105" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -13223,7 +13269,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" ht="16.5" spans="1:28">
+    <row r="106" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -13253,7 +13299,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" ht="16.5" spans="1:28">
+    <row r="107" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -13283,7 +13329,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" ht="16.5" spans="1:28">
+    <row r="108" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -13313,7 +13359,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" ht="16.5" spans="1:28">
+    <row r="109" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -13343,7 +13389,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" ht="16.5" spans="1:28">
+    <row r="110" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -13373,7 +13419,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" ht="16.5" spans="1:28">
+    <row r="111" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -13403,7 +13449,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" ht="16.5" spans="1:28">
+    <row r="112" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -13433,7 +13479,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" ht="16.5" spans="1:28">
+    <row r="113" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -13463,7 +13509,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" ht="16.5" spans="1:28">
+    <row r="114" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -13493,7 +13539,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" ht="16.5" spans="1:28">
+    <row r="115" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13523,7 +13569,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" ht="16.5" spans="1:28">
+    <row r="116" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -13553,7 +13599,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" ht="16.5" spans="1:28">
+    <row r="117" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -13583,7 +13629,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" ht="16.5" spans="1:28">
+    <row r="118" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -13613,7 +13659,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" ht="16.5" spans="1:28">
+    <row r="119" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -13643,7 +13689,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" ht="16.5" spans="1:28">
+    <row r="120" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -13673,7 +13719,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" ht="16.5" spans="1:28">
+    <row r="121" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -13703,7 +13749,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" ht="16.5" spans="1:28">
+    <row r="122" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -13733,7 +13779,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" ht="16.5" spans="1:28">
+    <row r="123" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -13763,7 +13809,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" ht="16.5" spans="1:28">
+    <row r="124" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -13793,7 +13839,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" ht="16.5" spans="1:28">
+    <row r="125" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -13823,7 +13869,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" ht="16.5" spans="1:28">
+    <row r="126" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -13853,7 +13899,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" ht="16.5" spans="1:28">
+    <row r="127" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -13883,7 +13929,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" ht="16.5" spans="1:28">
+    <row r="128" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -13913,7 +13959,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" ht="16.5" spans="1:28">
+    <row r="129" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -13943,7 +13989,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" ht="16.5" spans="1:28">
+    <row r="130" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -13973,7 +14019,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" ht="16.5" spans="1:28">
+    <row r="131" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -14003,7 +14049,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" ht="16.5" spans="1:28">
+    <row r="132" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -14033,7 +14079,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" ht="16.5" spans="1:28">
+    <row r="133" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -14063,7 +14109,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" ht="16.5" spans="1:28">
+    <row r="134" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -14093,7 +14139,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" ht="16.5" spans="1:28">
+    <row r="135" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -14123,7 +14169,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" ht="16.5" spans="1:28">
+    <row r="136" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -14153,7 +14199,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" ht="16.5" spans="1:28">
+    <row r="137" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -14183,7 +14229,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" ht="16.5" spans="1:28">
+    <row r="138" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -14213,7 +14259,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" ht="16.5" spans="1:28">
+    <row r="139" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -14243,7 +14289,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" ht="16.5" spans="1:28">
+    <row r="140" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -14273,7 +14319,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" ht="16.5" spans="1:28">
+    <row r="141" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -14303,7 +14349,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" ht="16.5" spans="1:28">
+    <row r="142" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -14333,7 +14379,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" ht="16.5" spans="1:28">
+    <row r="143" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -14363,7 +14409,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" ht="16.5" spans="1:28">
+    <row r="144" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -14393,7 +14439,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" ht="16.5" spans="1:28">
+    <row r="145" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -14423,7 +14469,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" ht="16.5" spans="1:28">
+    <row r="146" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -14453,7 +14499,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" ht="16.5" spans="1:28">
+    <row r="147" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -14483,7 +14529,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" ht="16.5" spans="1:28">
+    <row r="148" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -14513,7 +14559,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" ht="16.5" spans="1:28">
+    <row r="149" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -14543,7 +14589,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" ht="16.5" spans="1:28">
+    <row r="150" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -14573,7 +14619,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" ht="16.5" spans="1:28">
+    <row r="151" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -14603,7 +14649,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" ht="16.5" spans="1:28">
+    <row r="152" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -14633,7 +14679,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" ht="16.5" spans="1:28">
+    <row r="153" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -14663,7 +14709,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" ht="16.5" spans="1:28">
+    <row r="154" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -14693,7 +14739,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" ht="16.5" spans="1:28">
+    <row r="155" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -14723,7 +14769,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" ht="16.5" spans="1:28">
+    <row r="156" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -14753,7 +14799,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" ht="16.5" spans="1:28">
+    <row r="157" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -14783,7 +14829,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" ht="16.5" spans="1:28">
+    <row r="158" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -14813,7 +14859,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" ht="16.5" spans="1:28">
+    <row r="159" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -14843,7 +14889,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" ht="16.5" spans="1:28">
+    <row r="160" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -14873,7 +14919,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" ht="16.5" spans="1:28">
+    <row r="161" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -14903,7 +14949,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" ht="16.5" spans="1:28">
+    <row r="162" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -14933,7 +14979,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" ht="16.5" spans="1:28">
+    <row r="163" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -14963,7 +15009,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" ht="16.5" spans="1:28">
+    <row r="164" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -14993,7 +15039,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" ht="16.5" spans="1:28">
+    <row r="165" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -15023,7 +15069,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" ht="16.5" spans="1:28">
+    <row r="166" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -15053,7 +15099,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" ht="16.5" spans="1:28">
+    <row r="167" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -15083,7 +15129,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" ht="16.5" spans="1:28">
+    <row r="168" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -15113,7 +15159,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" ht="16.5" spans="1:28">
+    <row r="169" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -15143,7 +15189,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" ht="16.5" spans="1:28">
+    <row r="170" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -15173,7 +15219,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" ht="16.5" spans="1:28">
+    <row r="171" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -15203,7 +15249,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" ht="16.5" spans="1:28">
+    <row r="172" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -15233,7 +15279,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" ht="16.5" spans="1:28">
+    <row r="173" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -15263,7 +15309,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" ht="16.5" spans="1:28">
+    <row r="174" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -15293,7 +15339,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" ht="16.5" spans="1:28">
+    <row r="175" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -15323,7 +15369,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" ht="16.5" spans="1:28">
+    <row r="176" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -15353,7 +15399,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" ht="16.5" spans="1:28">
+    <row r="177" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -15383,7 +15429,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" ht="16.5" spans="1:28">
+    <row r="178" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -15413,7 +15459,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" ht="16.5" spans="1:28">
+    <row r="179" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -15443,7 +15489,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" ht="16.5" spans="1:28">
+    <row r="180" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -15473,7 +15519,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" ht="16.5" spans="1:28">
+    <row r="181" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -15503,7 +15549,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" ht="16.5" spans="1:28">
+    <row r="182" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -15533,7 +15579,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" ht="16.5" spans="1:28">
+    <row r="183" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -15563,7 +15609,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" ht="16.5" spans="1:28">
+    <row r="184" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -15593,7 +15639,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" ht="16.5" spans="1:28">
+    <row r="185" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -15623,7 +15669,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" ht="16.5" spans="1:28">
+    <row r="186" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -15653,7 +15699,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" ht="16.5" spans="1:28">
+    <row r="187" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -15683,7 +15729,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" ht="16.5" spans="1:28">
+    <row r="188" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -15713,7 +15759,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" ht="16.5" spans="1:28">
+    <row r="189" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -15743,7 +15789,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" ht="16.5" spans="1:28">
+    <row r="190" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -15773,7 +15819,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" ht="16.5" spans="1:28">
+    <row r="191" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -15803,7 +15849,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" ht="16.5" spans="1:28">
+    <row r="192" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -15833,7 +15879,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" ht="16.5" spans="1:28">
+    <row r="193" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -15863,7 +15909,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" ht="16.5" spans="1:28">
+    <row r="194" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -15893,7 +15939,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" ht="16.5" spans="1:28">
+    <row r="195" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -15923,7 +15969,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" ht="16.5" spans="1:28">
+    <row r="196" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -15953,7 +15999,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" ht="16.5" spans="1:28">
+    <row r="197" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -15983,7 +16029,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" ht="16.5" spans="1:28">
+    <row r="198" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -16013,7 +16059,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" ht="16.5" spans="1:28">
+    <row r="199" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -16043,7 +16089,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" ht="16.5" spans="1:28">
+    <row r="200" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="167">
   <si>
     <t>单元格里的
 [回车键]用
@@ -357,6 +357,9 @@
     <t>接下来准备尝试与后台、服务器进行交互，安装并配置tomcat9.0，jdk1.6.0等的环境变量（之前在sublime text3上运行）；tomcat安装时会自动找到JRE位置，必须先安装JDK，并把这个目录正确指向JRE或者JDK的目录）</t>
   </si>
   <si>
+    <t>安装了spring mvc框架，学习了ajax的用法</t>
+  </si>
+  <si>
     <t>其他例子</t>
   </si>
   <si>
@@ -743,11 +746,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -809,18 +812,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -838,16 +850,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,11 +873,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -877,9 +918,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,54 +934,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,7 +961,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,61 +994,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,7 +1024,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,31 +1120,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,25 +1138,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,37 +1168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,11 +1301,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1328,17 +1331,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1364,25 +1370,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1394,10 +1391,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1409,130 +1406,130 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1677,6 +1674,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1959,20 +1961,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AB247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="5.2" customWidth="1"/>
@@ -2020,7 +2021,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:28">
+    <row r="2" spans="1:28">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -3220,12 +3221,25 @@
     </row>
     <row r="30" ht="46.5" customHeight="1" spans="1:28">
       <c r="A30" s="6"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="20">
+        <v>43647</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="F30" s="25"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="8"/>
+      <c r="G30" s="23">
+        <v>42917</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -4030,7 +4044,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" ht="16.5" spans="1:28">
+    <row r="58" spans="1:28">
       <c r="A58" s="6"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -4117,7 +4131,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" ht="16.5" spans="1:28">
+    <row r="61" spans="1:28">
       <c r="A61" s="6"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4204,7 +4218,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" ht="16.5" spans="1:28">
+    <row r="64" spans="1:28">
       <c r="A64" s="6"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -4291,7 +4305,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" ht="16.5" spans="1:28">
+    <row r="67" spans="1:28">
       <c r="A67" s="6"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -5161,7 +5175,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" ht="16.5" spans="1:28">
+    <row r="97" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -5191,7 +5205,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" ht="16.5" spans="1:28">
+    <row r="98" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -5221,7 +5235,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" ht="16.5" spans="1:28">
+    <row r="99" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -5251,7 +5265,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" ht="16.5" spans="1:28">
+    <row r="100" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -5281,7 +5295,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" ht="16.5" spans="1:28">
+    <row r="101" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -5311,7 +5325,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" ht="16.5" spans="1:28">
+    <row r="102" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -5341,7 +5355,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" ht="16.5" spans="1:28">
+    <row r="103" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -5371,7 +5385,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" ht="16.5" spans="1:28">
+    <row r="104" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -5401,7 +5415,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" ht="16.5" spans="1:28">
+    <row r="105" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5431,7 +5445,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" ht="16.5" spans="1:28">
+    <row r="106" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5461,7 +5475,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" ht="16.5" spans="1:28">
+    <row r="107" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5491,7 +5505,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" ht="16.5" spans="1:28">
+    <row r="108" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5521,7 +5535,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" ht="16.5" spans="1:28">
+    <row r="109" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5551,7 +5565,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" ht="16.5" spans="1:28">
+    <row r="110" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5581,7 +5595,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" ht="16.5" spans="1:28">
+    <row r="111" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5611,7 +5625,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" ht="16.5" spans="1:28">
+    <row r="112" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5641,7 +5655,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" ht="16.5" spans="1:28">
+    <row r="113" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5671,7 +5685,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" ht="16.5" spans="1:28">
+    <row r="114" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5701,7 +5715,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" ht="16.5" spans="1:28">
+    <row r="115" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5731,7 +5745,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" ht="16.5" spans="1:28">
+    <row r="116" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5761,7 +5775,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" ht="16.5" spans="1:28">
+    <row r="117" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -5791,7 +5805,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" ht="16.5" spans="1:28">
+    <row r="118" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5821,7 +5835,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" ht="16.5" spans="1:28">
+    <row r="119" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -5851,7 +5865,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" ht="16.5" spans="1:28">
+    <row r="120" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -5881,7 +5895,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" ht="16.5" spans="1:28">
+    <row r="121" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -5911,7 +5925,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" ht="16.5" spans="1:28">
+    <row r="122" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -5941,7 +5955,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" ht="16.5" spans="1:28">
+    <row r="123" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -5971,7 +5985,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" ht="16.5" spans="1:28">
+    <row r="124" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -6001,7 +6015,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" ht="16.5" spans="1:28">
+    <row r="125" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -6031,7 +6045,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" ht="16.5" spans="1:28">
+    <row r="126" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -6061,7 +6075,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" ht="16.5" spans="1:28">
+    <row r="127" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -6091,7 +6105,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" ht="16.5" spans="1:28">
+    <row r="128" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -6121,7 +6135,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" ht="16.5" spans="1:28">
+    <row r="129" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -6151,7 +6165,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" ht="16.5" spans="1:28">
+    <row r="130" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -6181,7 +6195,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" ht="16.5" spans="1:28">
+    <row r="131" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -6211,7 +6225,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" ht="16.5" spans="1:28">
+    <row r="132" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -6241,7 +6255,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" ht="16.5" spans="1:28">
+    <row r="133" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -6271,7 +6285,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" ht="16.5" spans="1:28">
+    <row r="134" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -6301,7 +6315,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" ht="16.5" spans="1:28">
+    <row r="135" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6331,7 +6345,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" ht="16.5" spans="1:28">
+    <row r="136" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6361,7 +6375,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" ht="16.5" spans="1:28">
+    <row r="137" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -6391,7 +6405,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" ht="16.5" spans="1:28">
+    <row r="138" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -6421,7 +6435,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" ht="16.5" spans="1:28">
+    <row r="139" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6451,7 +6465,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" ht="16.5" spans="1:28">
+    <row r="140" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6481,7 +6495,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" ht="16.5" spans="1:28">
+    <row r="141" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6511,7 +6525,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" ht="16.5" spans="1:28">
+    <row r="142" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6541,7 +6555,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" ht="16.5" spans="1:28">
+    <row r="143" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6571,7 +6585,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" ht="16.5" spans="1:28">
+    <row r="144" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6601,7 +6615,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" ht="16.5" spans="1:28">
+    <row r="145" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6631,7 +6645,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" ht="16.5" spans="1:28">
+    <row r="146" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6661,7 +6675,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" ht="16.5" spans="1:28">
+    <row r="147" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6691,7 +6705,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" ht="16.5" spans="1:28">
+    <row r="148" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6721,7 +6735,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" ht="16.5" spans="1:28">
+    <row r="149" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6751,7 +6765,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" ht="16.5" spans="1:28">
+    <row r="150" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6781,7 +6795,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" ht="16.5" spans="1:28">
+    <row r="151" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6811,7 +6825,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" ht="16.5" spans="1:28">
+    <row r="152" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6841,7 +6855,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" ht="16.5" spans="1:28">
+    <row r="153" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -6871,7 +6885,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" ht="16.5" spans="1:28">
+    <row r="154" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -6901,7 +6915,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" ht="16.5" spans="1:28">
+    <row r="155" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6931,7 +6945,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" ht="16.5" spans="1:28">
+    <row r="156" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -6961,7 +6975,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" ht="16.5" spans="1:28">
+    <row r="157" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -6991,7 +7005,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" ht="16.5" spans="1:28">
+    <row r="158" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -7021,7 +7035,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" ht="16.5" spans="1:28">
+    <row r="159" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -7051,7 +7065,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" ht="16.5" spans="1:28">
+    <row r="160" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -7081,7 +7095,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" ht="16.5" spans="1:28">
+    <row r="161" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -7111,7 +7125,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" ht="16.5" spans="1:28">
+    <row r="162" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -7141,7 +7155,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" ht="16.5" spans="1:28">
+    <row r="163" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -7171,7 +7185,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" ht="16.5" spans="1:28">
+    <row r="164" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -7201,7 +7215,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" ht="16.5" spans="1:28">
+    <row r="165" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -7231,7 +7245,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" ht="16.5" spans="1:28">
+    <row r="166" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -7261,7 +7275,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" ht="16.5" spans="1:28">
+    <row r="167" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -7291,7 +7305,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" ht="16.5" spans="1:28">
+    <row r="168" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -7321,7 +7335,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" ht="16.5" spans="1:28">
+    <row r="169" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -7351,7 +7365,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" ht="16.5" spans="1:28">
+    <row r="170" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7381,7 +7395,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" ht="16.5" spans="1:28">
+    <row r="171" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7411,7 +7425,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" ht="16.5" spans="1:28">
+    <row r="172" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7441,7 +7455,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" ht="16.5" spans="1:28">
+    <row r="173" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7471,7 +7485,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" ht="16.5" spans="1:28">
+    <row r="174" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7501,7 +7515,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" ht="16.5" spans="1:28">
+    <row r="175" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7531,7 +7545,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" ht="16.5" spans="1:28">
+    <row r="176" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7561,7 +7575,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" ht="16.5" spans="1:28">
+    <row r="177" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7591,7 +7605,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" ht="16.5" spans="1:28">
+    <row r="178" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -7621,7 +7635,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" ht="16.5" spans="1:28">
+    <row r="179" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -7651,7 +7665,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" ht="16.5" spans="1:28">
+    <row r="180" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -7681,7 +7695,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" ht="16.5" spans="1:28">
+    <row r="181" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -7711,7 +7725,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" ht="16.5" spans="1:28">
+    <row r="182" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -7741,7 +7755,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" ht="16.5" spans="1:28">
+    <row r="183" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -7771,7 +7785,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" ht="16.5" spans="1:28">
+    <row r="184" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -7801,7 +7815,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" ht="16.5" spans="1:28">
+    <row r="185" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -7831,7 +7845,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" ht="16.5" spans="1:28">
+    <row r="186" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -7861,7 +7875,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" ht="16.5" spans="1:28">
+    <row r="187" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -7891,7 +7905,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" ht="16.5" spans="1:28">
+    <row r="188" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -7921,7 +7935,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" ht="16.5" spans="1:28">
+    <row r="189" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -7951,7 +7965,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" ht="16.5" spans="1:28">
+    <row r="190" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -7981,7 +7995,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" ht="16.5" spans="1:28">
+    <row r="191" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -8011,7 +8025,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" ht="16.5" spans="1:28">
+    <row r="192" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -8041,7 +8055,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" ht="16.5" spans="1:28">
+    <row r="193" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -8071,7 +8085,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" ht="16.5" spans="1:28">
+    <row r="194" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -8101,7 +8115,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" ht="16.5" spans="1:28">
+    <row r="195" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -8131,7 +8145,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" ht="16.5" spans="1:28">
+    <row r="196" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -8161,7 +8175,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" ht="16.5" spans="1:28">
+    <row r="197" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -8191,7 +8205,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" ht="16.5" spans="1:28">
+    <row r="198" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -8221,7 +8235,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" ht="16.5" spans="1:28">
+    <row r="199" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -8251,7 +8265,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" ht="16.5" spans="1:28">
+    <row r="200" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -8281,7 +8295,7 @@
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
     </row>
-    <row r="201" ht="16.5" spans="1:28">
+    <row r="201" spans="1:28">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -8311,7 +8325,7 @@
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
     </row>
-    <row r="202" ht="16.5" spans="1:28">
+    <row r="202" spans="1:28">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -8341,7 +8355,7 @@
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
     </row>
-    <row r="203" ht="16.5" spans="1:28">
+    <row r="203" spans="1:28">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -8371,7 +8385,7 @@
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
     </row>
-    <row r="204" ht="16.5" spans="1:28">
+    <row r="204" spans="1:28">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -8401,7 +8415,7 @@
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
     </row>
-    <row r="205" ht="16.5" spans="1:28">
+    <row r="205" spans="1:28">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -8431,7 +8445,7 @@
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
     </row>
-    <row r="206" ht="16.5" spans="1:28">
+    <row r="206" spans="1:28">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -8461,7 +8475,7 @@
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
     </row>
-    <row r="207" ht="16.5" spans="1:28">
+    <row r="207" spans="1:28">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -8491,7 +8505,7 @@
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
     </row>
-    <row r="208" ht="16.5" spans="1:28">
+    <row r="208" spans="1:28">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -8521,7 +8535,7 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
     </row>
-    <row r="209" ht="16.5" spans="1:28">
+    <row r="209" spans="1:28">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -8551,7 +8565,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
     </row>
-    <row r="210" ht="16.5" spans="1:28">
+    <row r="210" spans="1:28">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -8581,7 +8595,7 @@
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
     </row>
-    <row r="211" ht="16.5" spans="1:28">
+    <row r="211" spans="1:28">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -8611,7 +8625,7 @@
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
     </row>
-    <row r="212" ht="16.5" spans="1:28">
+    <row r="212" spans="1:28">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -8641,7 +8655,7 @@
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
     </row>
-    <row r="213" ht="16.5" spans="1:28">
+    <row r="213" spans="1:28">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -8671,7 +8685,7 @@
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
     </row>
-    <row r="214" ht="16.5" spans="1:28">
+    <row r="214" spans="1:28">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -8701,7 +8715,7 @@
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
     </row>
-    <row r="215" ht="16.5" spans="1:28">
+    <row r="215" spans="1:28">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -8731,7 +8745,7 @@
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
     </row>
-    <row r="216" ht="16.5" spans="1:28">
+    <row r="216" spans="1:28">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -8761,7 +8775,7 @@
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
     </row>
-    <row r="217" ht="16.5" spans="1:28">
+    <row r="217" spans="1:28">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -8791,7 +8805,7 @@
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
     </row>
-    <row r="218" ht="16.5" spans="1:28">
+    <row r="218" spans="1:28">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -8821,7 +8835,7 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
     </row>
-    <row r="219" ht="16.5" spans="1:28">
+    <row r="219" spans="1:28">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -8851,7 +8865,7 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
     </row>
-    <row r="220" ht="16.5" spans="1:28">
+    <row r="220" spans="1:28">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -8881,7 +8895,7 @@
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
     </row>
-    <row r="221" ht="16.5" spans="1:28">
+    <row r="221" spans="1:28">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -8911,7 +8925,7 @@
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
     </row>
-    <row r="222" ht="16.5" spans="1:28">
+    <row r="222" spans="1:28">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -8941,7 +8955,7 @@
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
     </row>
-    <row r="223" ht="16.5" spans="1:28">
+    <row r="223" spans="1:28">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -8971,7 +8985,7 @@
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
     </row>
-    <row r="224" ht="16.5" spans="1:28">
+    <row r="224" spans="1:28">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -9001,7 +9015,7 @@
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
     </row>
-    <row r="225" ht="16.5" spans="1:28">
+    <row r="225" spans="1:28">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -9031,7 +9045,7 @@
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
     </row>
-    <row r="226" ht="16.5" spans="1:28">
+    <row r="226" spans="1:28">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -9061,7 +9075,7 @@
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
     </row>
-    <row r="227" ht="16.5" spans="1:28">
+    <row r="227" spans="1:28">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -9091,7 +9105,7 @@
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
     </row>
-    <row r="228" ht="16.5" spans="1:28">
+    <row r="228" spans="1:28">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -9121,7 +9135,7 @@
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
     </row>
-    <row r="229" ht="16.5" spans="1:28">
+    <row r="229" spans="1:28">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -9151,7 +9165,7 @@
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
     </row>
-    <row r="230" ht="16.5" spans="1:28">
+    <row r="230" spans="1:28">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -9181,7 +9195,7 @@
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
     </row>
-    <row r="231" ht="16.5" spans="1:28">
+    <row r="231" spans="1:28">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -9211,7 +9225,7 @@
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
     </row>
-    <row r="232" ht="16.5" spans="1:28">
+    <row r="232" spans="1:28">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -9241,7 +9255,7 @@
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
     </row>
-    <row r="233" ht="16.5" spans="1:28">
+    <row r="233" spans="1:28">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -9271,7 +9285,7 @@
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
     </row>
-    <row r="234" ht="16.5" spans="1:28">
+    <row r="234" spans="1:28">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -9301,7 +9315,7 @@
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
     </row>
-    <row r="235" ht="16.5" spans="1:28">
+    <row r="235" spans="1:28">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -9331,7 +9345,7 @@
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
     </row>
-    <row r="236" ht="16.5" spans="1:28">
+    <row r="236" spans="1:28">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -9361,7 +9375,7 @@
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
     </row>
-    <row r="237" ht="16.5" spans="1:28">
+    <row r="237" spans="1:28">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -9391,7 +9405,7 @@
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
     </row>
-    <row r="238" ht="16.5" spans="1:28">
+    <row r="238" spans="1:28">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -9421,7 +9435,7 @@
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
     </row>
-    <row r="239" ht="16.5" spans="1:28">
+    <row r="239" spans="1:28">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -9451,7 +9465,7 @@
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
     </row>
-    <row r="240" ht="16.5" spans="1:28">
+    <row r="240" spans="1:28">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -9481,7 +9495,7 @@
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
     </row>
-    <row r="241" ht="16.5" spans="1:28">
+    <row r="241" spans="1:28">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -9511,7 +9525,7 @@
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
     </row>
-    <row r="242" ht="16.5" spans="1:28">
+    <row r="242" spans="1:28">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -9541,7 +9555,7 @@
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
     </row>
-    <row r="243" ht="16.5" spans="1:28">
+    <row r="243" spans="1:28">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -9571,7 +9585,7 @@
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
     </row>
-    <row r="244" ht="16.5" spans="1:28">
+    <row r="244" spans="1:28">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -9601,7 +9615,7 @@
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
     </row>
-    <row r="245" ht="16.5" spans="1:28">
+    <row r="245" spans="1:28">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -9631,7 +9645,7 @@
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
     </row>
-    <row r="246" ht="16.5" spans="1:28">
+    <row r="246" spans="1:28">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -9661,7 +9675,7 @@
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
     </row>
-    <row r="247" ht="16.5" spans="1:28">
+    <row r="247" spans="1:28">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -9701,7 +9715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AB200"/>
   <sheetViews>
@@ -9709,7 +9723,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -9726,7 +9740,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -9759,13 +9773,13 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:28">
+    <row r="2" spans="1:28">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -9777,7 +9791,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -9808,13 +9822,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -9849,17 +9863,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -9890,13 +9904,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -9931,13 +9945,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -9962,7 +9976,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" ht="16.5" spans="1:28">
+    <row r="7" spans="1:28">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9972,19 +9986,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -10005,7 +10019,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" ht="16.5" spans="1:28">
+    <row r="8" spans="1:28">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -10015,19 +10029,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -10058,13 +10072,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -10089,7 +10103,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" ht="16.5" spans="1:28">
+    <row r="10" spans="1:28">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10099,13 +10113,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -10137,13 +10151,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -10175,19 +10189,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -10218,17 +10232,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -10259,19 +10273,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -10302,13 +10316,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -10341,19 +10355,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10374,7 +10388,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" ht="16.5" spans="1:28">
+    <row r="17" spans="1:28">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10383,13 +10397,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10412,7 +10426,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" ht="16.5" spans="1:28">
+    <row r="18" spans="1:28">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10421,13 +10435,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10459,19 +10473,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10501,17 +10515,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10541,13 +10555,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10579,19 +10593,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10621,13 +10635,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10659,13 +10673,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10697,13 +10711,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10735,13 +10749,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10773,13 +10787,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -10811,13 +10825,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10849,13 +10863,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -10889,10 +10903,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -10925,10 +10939,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -10961,17 +10975,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -11001,17 +11015,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -11032,7 +11046,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" ht="16.5" spans="1:28">
+    <row r="34" spans="1:28">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -11041,17 +11055,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -11072,7 +11086,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" ht="16.5" spans="1:28">
+    <row r="35" spans="1:28">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -11081,13 +11095,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -11110,7 +11124,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" ht="16.5" spans="1:28">
+    <row r="36" spans="1:28">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11119,13 +11133,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -11157,10 +11171,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -11193,17 +11207,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -11233,10 +11247,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -11269,10 +11283,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -11296,7 +11310,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" ht="16.5" spans="1:28">
+    <row r="41" spans="1:28">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -11305,17 +11319,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -11336,7 +11350,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" ht="16.5" spans="1:28">
+    <row r="42" spans="1:28">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11345,10 +11359,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11381,13 +11395,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11419,10 +11433,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11446,7 +11460,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" ht="16.5" spans="1:28">
+    <row r="45" spans="1:28">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -11476,7 +11490,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" ht="16.5" spans="1:28">
+    <row r="46" spans="1:28">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -11506,7 +11520,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" ht="16.5" spans="1:28">
+    <row r="47" spans="1:28">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -11515,13 +11529,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11553,13 +11567,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -11582,7 +11596,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" ht="16.5" spans="1:28">
+    <row r="49" spans="1:28">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -11612,7 +11626,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" ht="16.5" spans="1:28">
+    <row r="50" spans="1:28">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11642,7 +11656,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" ht="16.5" spans="1:28">
+    <row r="51" spans="1:28">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -11672,7 +11686,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" ht="16.5" spans="1:28">
+    <row r="52" spans="1:28">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -11702,7 +11716,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" ht="16.5" spans="1:28">
+    <row r="53" spans="1:28">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -11732,7 +11746,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" ht="16.5" spans="1:28">
+    <row r="54" spans="1:28">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -11762,7 +11776,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" ht="16.5" spans="1:28">
+    <row r="55" spans="1:28">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -11792,7 +11806,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" ht="16.5" spans="1:28">
+    <row r="56" spans="1:28">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -11822,7 +11836,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" ht="16.5" spans="1:28">
+    <row r="57" spans="1:28">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -11852,7 +11866,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" ht="16.5" spans="1:28">
+    <row r="58" spans="1:28">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -11882,7 +11896,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" ht="16.5" spans="1:28">
+    <row r="59" spans="1:28">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -11912,7 +11926,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" ht="16.5" spans="1:28">
+    <row r="60" spans="1:28">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -11942,7 +11956,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" ht="16.5" spans="1:28">
+    <row r="61" spans="1:28">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -11972,7 +11986,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" ht="16.5" spans="1:28">
+    <row r="62" spans="1:28">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -12002,7 +12016,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" ht="16.5" spans="1:28">
+    <row r="63" spans="1:28">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -12032,7 +12046,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" ht="16.5" spans="1:28">
+    <row r="64" spans="1:28">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -12062,7 +12076,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" ht="16.5" spans="1:28">
+    <row r="65" spans="1:28">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -12092,7 +12106,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" ht="16.5" spans="1:28">
+    <row r="66" spans="1:28">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -12122,7 +12136,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" ht="16.5" spans="1:28">
+    <row r="67" spans="1:28">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -12152,7 +12166,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" ht="16.5" spans="1:28">
+    <row r="68" spans="1:28">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -12182,7 +12196,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" ht="16.5" spans="1:28">
+    <row r="69" spans="1:28">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -12212,7 +12226,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" ht="16.5" spans="1:28">
+    <row r="70" spans="1:28">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -12242,7 +12256,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" ht="16.5" spans="1:28">
+    <row r="71" spans="1:28">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -12272,7 +12286,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" ht="16.5" spans="1:28">
+    <row r="72" spans="1:28">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -12302,7 +12316,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" ht="16.5" spans="1:28">
+    <row r="73" spans="1:28">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -12332,7 +12346,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" ht="16.5" spans="1:28">
+    <row r="74" spans="1:28">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -12362,7 +12376,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" ht="16.5" spans="1:28">
+    <row r="75" spans="1:28">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -12392,7 +12406,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" ht="16.5" spans="1:28">
+    <row r="76" spans="1:28">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -12422,7 +12436,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" ht="16.5" spans="1:28">
+    <row r="77" spans="1:28">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12452,7 +12466,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" ht="16.5" spans="1:28">
+    <row r="78" spans="1:28">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -12482,7 +12496,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" ht="16.5" spans="1:28">
+    <row r="79" spans="1:28">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -12512,7 +12526,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" ht="16.5" spans="1:28">
+    <row r="80" spans="1:28">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12542,7 +12556,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
     </row>
-    <row r="81" ht="16.5" spans="1:28">
+    <row r="81" spans="1:28">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12572,7 +12586,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
     </row>
-    <row r="82" ht="16.5" spans="1:28">
+    <row r="82" spans="1:28">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12602,7 +12616,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
     </row>
-    <row r="83" ht="16.5" spans="1:28">
+    <row r="83" spans="1:28">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12632,7 +12646,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
     </row>
-    <row r="84" ht="16.5" spans="1:28">
+    <row r="84" spans="1:28">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12662,7 +12676,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" ht="16.5" spans="1:28">
+    <row r="85" spans="1:28">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -12692,7 +12706,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" ht="16.5" spans="1:28">
+    <row r="86" spans="1:28">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -12722,7 +12736,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" ht="16.5" spans="1:28">
+    <row r="87" spans="1:28">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12752,7 +12766,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
-    <row r="88" ht="16.5" spans="1:28">
+    <row r="88" spans="1:28">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -12782,7 +12796,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
     </row>
-    <row r="89" ht="16.5" spans="1:28">
+    <row r="89" spans="1:28">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -12812,7 +12826,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
     </row>
-    <row r="90" ht="16.5" spans="1:28">
+    <row r="90" spans="1:28">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -12842,7 +12856,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
     </row>
-    <row r="91" ht="16.5" spans="1:28">
+    <row r="91" spans="1:28">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -12872,7 +12886,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
     </row>
-    <row r="92" ht="16.5" spans="1:28">
+    <row r="92" spans="1:28">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -12902,7 +12916,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
     </row>
-    <row r="93" ht="16.5" spans="1:28">
+    <row r="93" spans="1:28">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -12932,7 +12946,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
     </row>
-    <row r="94" ht="16.5" spans="1:28">
+    <row r="94" spans="1:28">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -12962,7 +12976,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
     </row>
-    <row r="95" ht="16.5" spans="1:28">
+    <row r="95" spans="1:28">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -12992,7 +13006,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" ht="16.5" spans="1:28">
+    <row r="96" spans="1:28">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -13022,7 +13036,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" ht="16.5" spans="1:28">
+    <row r="97" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -13052,7 +13066,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" ht="16.5" spans="1:28">
+    <row r="98" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -13082,7 +13096,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" ht="16.5" spans="1:28">
+    <row r="99" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -13112,7 +13126,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" ht="16.5" spans="1:28">
+    <row r="100" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -13142,7 +13156,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" ht="16.5" spans="1:28">
+    <row r="101" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -13172,7 +13186,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" ht="16.5" spans="1:28">
+    <row r="102" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -13202,7 +13216,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" ht="16.5" spans="1:28">
+    <row r="103" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -13232,7 +13246,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" ht="16.5" spans="1:28">
+    <row r="104" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -13262,7 +13276,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" ht="16.5" spans="1:28">
+    <row r="105" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -13292,7 +13306,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" ht="16.5" spans="1:28">
+    <row r="106" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -13322,7 +13336,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" ht="16.5" spans="1:28">
+    <row r="107" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -13352,7 +13366,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" ht="16.5" spans="1:28">
+    <row r="108" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -13382,7 +13396,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" ht="16.5" spans="1:28">
+    <row r="109" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -13412,7 +13426,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" ht="16.5" spans="1:28">
+    <row r="110" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -13442,7 +13456,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" ht="16.5" spans="1:28">
+    <row r="111" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -13472,7 +13486,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" ht="16.5" spans="1:28">
+    <row r="112" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -13502,7 +13516,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" ht="16.5" spans="1:28">
+    <row r="113" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -13532,7 +13546,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" ht="16.5" spans="1:28">
+    <row r="114" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -13562,7 +13576,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" ht="16.5" spans="1:28">
+    <row r="115" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13592,7 +13606,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" ht="16.5" spans="1:28">
+    <row r="116" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -13622,7 +13636,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" ht="16.5" spans="1:28">
+    <row r="117" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -13652,7 +13666,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" ht="16.5" spans="1:28">
+    <row r="118" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -13682,7 +13696,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" ht="16.5" spans="1:28">
+    <row r="119" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -13712,7 +13726,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" ht="16.5" spans="1:28">
+    <row r="120" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -13742,7 +13756,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" ht="16.5" spans="1:28">
+    <row r="121" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -13772,7 +13786,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" ht="16.5" spans="1:28">
+    <row r="122" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -13802,7 +13816,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" ht="16.5" spans="1:28">
+    <row r="123" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -13832,7 +13846,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" ht="16.5" spans="1:28">
+    <row r="124" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -13862,7 +13876,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" ht="16.5" spans="1:28">
+    <row r="125" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -13892,7 +13906,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" ht="16.5" spans="1:28">
+    <row r="126" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -13922,7 +13936,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" ht="16.5" spans="1:28">
+    <row r="127" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -13952,7 +13966,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" ht="16.5" spans="1:28">
+    <row r="128" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -13982,7 +13996,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" ht="16.5" spans="1:28">
+    <row r="129" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -14012,7 +14026,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" ht="16.5" spans="1:28">
+    <row r="130" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -14042,7 +14056,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" ht="16.5" spans="1:28">
+    <row r="131" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -14072,7 +14086,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" ht="16.5" spans="1:28">
+    <row r="132" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -14102,7 +14116,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" ht="16.5" spans="1:28">
+    <row r="133" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -14132,7 +14146,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" ht="16.5" spans="1:28">
+    <row r="134" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -14162,7 +14176,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" ht="16.5" spans="1:28">
+    <row r="135" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -14192,7 +14206,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" ht="16.5" spans="1:28">
+    <row r="136" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -14222,7 +14236,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" ht="16.5" spans="1:28">
+    <row r="137" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -14252,7 +14266,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" ht="16.5" spans="1:28">
+    <row r="138" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -14282,7 +14296,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" ht="16.5" spans="1:28">
+    <row r="139" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -14312,7 +14326,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" ht="16.5" spans="1:28">
+    <row r="140" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -14342,7 +14356,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" ht="16.5" spans="1:28">
+    <row r="141" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -14372,7 +14386,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" ht="16.5" spans="1:28">
+    <row r="142" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -14402,7 +14416,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" ht="16.5" spans="1:28">
+    <row r="143" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -14432,7 +14446,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" ht="16.5" spans="1:28">
+    <row r="144" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -14462,7 +14476,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" ht="16.5" spans="1:28">
+    <row r="145" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -14492,7 +14506,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" ht="16.5" spans="1:28">
+    <row r="146" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -14522,7 +14536,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" ht="16.5" spans="1:28">
+    <row r="147" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -14552,7 +14566,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" ht="16.5" spans="1:28">
+    <row r="148" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -14582,7 +14596,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" ht="16.5" spans="1:28">
+    <row r="149" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -14612,7 +14626,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" ht="16.5" spans="1:28">
+    <row r="150" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -14642,7 +14656,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" ht="16.5" spans="1:28">
+    <row r="151" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -14672,7 +14686,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" ht="16.5" spans="1:28">
+    <row r="152" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -14702,7 +14716,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" ht="16.5" spans="1:28">
+    <row r="153" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -14732,7 +14746,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" ht="16.5" spans="1:28">
+    <row r="154" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -14762,7 +14776,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" ht="16.5" spans="1:28">
+    <row r="155" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -14792,7 +14806,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" ht="16.5" spans="1:28">
+    <row r="156" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -14822,7 +14836,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" ht="16.5" spans="1:28">
+    <row r="157" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -14852,7 +14866,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" ht="16.5" spans="1:28">
+    <row r="158" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -14882,7 +14896,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" ht="16.5" spans="1:28">
+    <row r="159" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -14912,7 +14926,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" ht="16.5" spans="1:28">
+    <row r="160" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -14942,7 +14956,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" ht="16.5" spans="1:28">
+    <row r="161" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -14972,7 +14986,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" ht="16.5" spans="1:28">
+    <row r="162" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -15002,7 +15016,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" ht="16.5" spans="1:28">
+    <row r="163" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -15032,7 +15046,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" ht="16.5" spans="1:28">
+    <row r="164" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -15062,7 +15076,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" ht="16.5" spans="1:28">
+    <row r="165" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -15092,7 +15106,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" ht="16.5" spans="1:28">
+    <row r="166" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -15122,7 +15136,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" ht="16.5" spans="1:28">
+    <row r="167" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -15152,7 +15166,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" ht="16.5" spans="1:28">
+    <row r="168" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -15182,7 +15196,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" ht="16.5" spans="1:28">
+    <row r="169" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -15212,7 +15226,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" ht="16.5" spans="1:28">
+    <row r="170" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -15242,7 +15256,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" ht="16.5" spans="1:28">
+    <row r="171" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -15272,7 +15286,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" ht="16.5" spans="1:28">
+    <row r="172" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -15302,7 +15316,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" ht="16.5" spans="1:28">
+    <row r="173" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -15332,7 +15346,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" ht="16.5" spans="1:28">
+    <row r="174" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -15362,7 +15376,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" ht="16.5" spans="1:28">
+    <row r="175" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -15392,7 +15406,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" ht="16.5" spans="1:28">
+    <row r="176" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -15422,7 +15436,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" ht="16.5" spans="1:28">
+    <row r="177" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -15452,7 +15466,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" ht="16.5" spans="1:28">
+    <row r="178" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -15482,7 +15496,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" ht="16.5" spans="1:28">
+    <row r="179" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -15512,7 +15526,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" ht="16.5" spans="1:28">
+    <row r="180" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -15542,7 +15556,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" ht="16.5" spans="1:28">
+    <row r="181" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -15572,7 +15586,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" ht="16.5" spans="1:28">
+    <row r="182" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -15602,7 +15616,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" ht="16.5" spans="1:28">
+    <row r="183" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -15632,7 +15646,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" ht="16.5" spans="1:28">
+    <row r="184" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -15662,7 +15676,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" ht="16.5" spans="1:28">
+    <row r="185" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -15692,7 +15706,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" ht="16.5" spans="1:28">
+    <row r="186" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -15722,7 +15736,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" ht="16.5" spans="1:28">
+    <row r="187" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -15752,7 +15766,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" ht="16.5" spans="1:28">
+    <row r="188" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -15782,7 +15796,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" ht="16.5" spans="1:28">
+    <row r="189" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -15812,7 +15826,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" ht="16.5" spans="1:28">
+    <row r="190" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -15842,7 +15856,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" ht="16.5" spans="1:28">
+    <row r="191" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -15872,7 +15886,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" ht="16.5" spans="1:28">
+    <row r="192" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -15902,7 +15916,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" ht="16.5" spans="1:28">
+    <row r="193" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -15932,7 +15946,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" ht="16.5" spans="1:28">
+    <row r="194" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -15962,7 +15976,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" ht="16.5" spans="1:28">
+    <row r="195" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -15992,7 +16006,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" ht="16.5" spans="1:28">
+    <row r="196" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -16022,7 +16036,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" ht="16.5" spans="1:28">
+    <row r="197" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -16052,7 +16066,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" ht="16.5" spans="1:28">
+    <row r="198" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -16082,7 +16096,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" ht="16.5" spans="1:28">
+    <row r="199" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -16112,7 +16126,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" ht="16.5" spans="1:28">
+    <row r="200" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="168">
   <si>
     <t>单元格里的
 [回车键]用
@@ -360,6 +360,9 @@
     <t>安装了spring mvc框架，学习了ajax的用法</t>
   </si>
   <si>
+    <t>实现了各个要用到的实体表以及关联表，接下来要完成用户后台的功能的逻辑实现。实现了调用jsp页面表单中的数据到后台。</t>
+  </si>
+  <si>
     <t>其他例子</t>
   </si>
   <si>
@@ -746,11 +749,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -798,8 +801,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -808,15 +812,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -828,9 +824,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,7 +870,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,15 +909,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,13 +920,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -903,40 +938,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,7 +997,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,7 +1033,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,49 +1117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,13 +1129,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,25 +1153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,49 +1171,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,6 +1289,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1316,44 +1367,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1368,168 +1386,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1970,10 +1973,10 @@
   <dimension ref="A1:AB247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="5.2" customWidth="1"/>
@@ -2021,7 +2024,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" ht="16.5" spans="1:28">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -3230,10 +3233,10 @@
       <c r="D30" s="20">
         <v>43647</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="23">
         <v>42917</v>
       </c>
@@ -3263,12 +3266,25 @@
     </row>
     <row r="31" ht="51" customHeight="1" spans="1:28">
       <c r="A31" s="6"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="23">
+        <v>43647</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="23">
+        <v>42917</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -4044,7 +4060,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="6"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -4131,7 +4147,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="6"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4218,7 +4234,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="6"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -4305,7 +4321,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="6"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -5175,7 +5191,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" ht="16.5" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -5205,7 +5221,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" ht="16.5" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -5235,7 +5251,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" ht="16.5" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -5265,7 +5281,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" ht="16.5" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -5295,7 +5311,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" ht="16.5" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -5325,7 +5341,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" ht="16.5" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -5355,7 +5371,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" ht="16.5" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -5385,7 +5401,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" ht="16.5" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -5415,7 +5431,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" ht="16.5" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5445,7 +5461,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" ht="16.5" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5475,7 +5491,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" ht="16.5" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5505,7 +5521,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" ht="16.5" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5535,7 +5551,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" ht="16.5" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5565,7 +5581,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" ht="16.5" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5595,7 +5611,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" ht="16.5" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5625,7 +5641,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" ht="16.5" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5655,7 +5671,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" ht="16.5" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5685,7 +5701,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" ht="16.5" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5715,7 +5731,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" ht="16.5" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5745,7 +5761,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" ht="16.5" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5775,7 +5791,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" ht="16.5" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -5805,7 +5821,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" ht="16.5" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5835,7 +5851,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" ht="16.5" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -5865,7 +5881,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" ht="16.5" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -5895,7 +5911,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" ht="16.5" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -5925,7 +5941,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" ht="16.5" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -5955,7 +5971,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" ht="16.5" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -5985,7 +6001,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" ht="16.5" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -6015,7 +6031,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" ht="16.5" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -6045,7 +6061,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" ht="16.5" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -6075,7 +6091,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" ht="16.5" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -6105,7 +6121,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" ht="16.5" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -6135,7 +6151,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" ht="16.5" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -6165,7 +6181,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" ht="16.5" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -6195,7 +6211,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" ht="16.5" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -6225,7 +6241,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" ht="16.5" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -6255,7 +6271,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" ht="16.5" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -6285,7 +6301,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" ht="16.5" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -6315,7 +6331,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" ht="16.5" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6345,7 +6361,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" ht="16.5" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6375,7 +6391,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" ht="16.5" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -6405,7 +6421,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" ht="16.5" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -6435,7 +6451,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" ht="16.5" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6465,7 +6481,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" ht="16.5" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6495,7 +6511,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" ht="16.5" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6525,7 +6541,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" ht="16.5" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6555,7 +6571,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" ht="16.5" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6585,7 +6601,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" ht="16.5" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6615,7 +6631,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" ht="16.5" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6645,7 +6661,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" ht="16.5" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6675,7 +6691,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" ht="16.5" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6705,7 +6721,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" ht="16.5" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6735,7 +6751,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" ht="16.5" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6765,7 +6781,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" ht="16.5" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6795,7 +6811,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" ht="16.5" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6825,7 +6841,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" ht="16.5" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6855,7 +6871,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" ht="16.5" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -6885,7 +6901,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" ht="16.5" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -6915,7 +6931,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" ht="16.5" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6945,7 +6961,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" ht="16.5" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -6975,7 +6991,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" ht="16.5" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -7005,7 +7021,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" ht="16.5" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -7035,7 +7051,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" ht="16.5" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -7065,7 +7081,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" ht="16.5" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -7095,7 +7111,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" ht="16.5" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -7125,7 +7141,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" ht="16.5" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -7155,7 +7171,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" ht="16.5" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -7185,7 +7201,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" ht="16.5" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -7215,7 +7231,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" ht="16.5" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -7245,7 +7261,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" ht="16.5" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -7275,7 +7291,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" ht="16.5" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -7305,7 +7321,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" ht="16.5" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -7335,7 +7351,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" ht="16.5" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -7365,7 +7381,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" ht="16.5" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7395,7 +7411,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" ht="16.5" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7425,7 +7441,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" ht="16.5" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7455,7 +7471,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" ht="16.5" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7485,7 +7501,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" ht="16.5" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7515,7 +7531,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" ht="16.5" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7545,7 +7561,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" ht="16.5" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7575,7 +7591,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" ht="16.5" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7605,7 +7621,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" ht="16.5" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -7635,7 +7651,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" ht="16.5" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -7665,7 +7681,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" ht="16.5" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -7695,7 +7711,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" ht="16.5" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -7725,7 +7741,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" ht="16.5" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -7755,7 +7771,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" ht="16.5" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -7785,7 +7801,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" ht="16.5" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -7815,7 +7831,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" ht="16.5" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -7845,7 +7861,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" ht="16.5" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -7875,7 +7891,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" ht="16.5" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -7905,7 +7921,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" ht="16.5" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -7935,7 +7951,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" ht="16.5" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -7965,7 +7981,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" ht="16.5" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -7995,7 +8011,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" ht="16.5" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -8025,7 +8041,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" ht="16.5" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -8055,7 +8071,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" ht="16.5" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -8085,7 +8101,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" ht="16.5" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -8115,7 +8131,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" ht="16.5" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -8145,7 +8161,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" ht="16.5" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -8175,7 +8191,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" ht="16.5" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -8205,7 +8221,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" ht="16.5" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -8235,7 +8251,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" ht="16.5" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -8265,7 +8281,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" ht="16.5" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -8295,7 +8311,7 @@
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
     </row>
-    <row r="201" spans="1:28">
+    <row r="201" ht="16.5" spans="1:28">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -8325,7 +8341,7 @@
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
     </row>
-    <row r="202" spans="1:28">
+    <row r="202" ht="16.5" spans="1:28">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -8355,7 +8371,7 @@
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
     </row>
-    <row r="203" spans="1:28">
+    <row r="203" ht="16.5" spans="1:28">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -8385,7 +8401,7 @@
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
     </row>
-    <row r="204" spans="1:28">
+    <row r="204" ht="16.5" spans="1:28">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -8415,7 +8431,7 @@
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
     </row>
-    <row r="205" spans="1:28">
+    <row r="205" ht="16.5" spans="1:28">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -8445,7 +8461,7 @@
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
     </row>
-    <row r="206" spans="1:28">
+    <row r="206" ht="16.5" spans="1:28">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -8475,7 +8491,7 @@
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
     </row>
-    <row r="207" spans="1:28">
+    <row r="207" ht="16.5" spans="1:28">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -8505,7 +8521,7 @@
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
     </row>
-    <row r="208" spans="1:28">
+    <row r="208" ht="16.5" spans="1:28">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -8535,7 +8551,7 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
     </row>
-    <row r="209" spans="1:28">
+    <row r="209" ht="16.5" spans="1:28">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -8565,7 +8581,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
     </row>
-    <row r="210" spans="1:28">
+    <row r="210" ht="16.5" spans="1:28">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -8595,7 +8611,7 @@
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
     </row>
-    <row r="211" spans="1:28">
+    <row r="211" ht="16.5" spans="1:28">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -8625,7 +8641,7 @@
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
     </row>
-    <row r="212" spans="1:28">
+    <row r="212" ht="16.5" spans="1:28">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -8655,7 +8671,7 @@
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
     </row>
-    <row r="213" spans="1:28">
+    <row r="213" ht="16.5" spans="1:28">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -8685,7 +8701,7 @@
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
     </row>
-    <row r="214" spans="1:28">
+    <row r="214" ht="16.5" spans="1:28">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -8715,7 +8731,7 @@
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
     </row>
-    <row r="215" spans="1:28">
+    <row r="215" ht="16.5" spans="1:28">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -8745,7 +8761,7 @@
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
     </row>
-    <row r="216" spans="1:28">
+    <row r="216" ht="16.5" spans="1:28">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -8775,7 +8791,7 @@
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
     </row>
-    <row r="217" spans="1:28">
+    <row r="217" ht="16.5" spans="1:28">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -8805,7 +8821,7 @@
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
     </row>
-    <row r="218" spans="1:28">
+    <row r="218" ht="16.5" spans="1:28">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -8835,7 +8851,7 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
     </row>
-    <row r="219" spans="1:28">
+    <row r="219" ht="16.5" spans="1:28">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -8865,7 +8881,7 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
     </row>
-    <row r="220" spans="1:28">
+    <row r="220" ht="16.5" spans="1:28">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -8895,7 +8911,7 @@
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
     </row>
-    <row r="221" spans="1:28">
+    <row r="221" ht="16.5" spans="1:28">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -8925,7 +8941,7 @@
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
     </row>
-    <row r="222" spans="1:28">
+    <row r="222" ht="16.5" spans="1:28">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -8955,7 +8971,7 @@
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
     </row>
-    <row r="223" spans="1:28">
+    <row r="223" ht="16.5" spans="1:28">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -8985,7 +9001,7 @@
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
     </row>
-    <row r="224" spans="1:28">
+    <row r="224" ht="16.5" spans="1:28">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -9015,7 +9031,7 @@
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
     </row>
-    <row r="225" spans="1:28">
+    <row r="225" ht="16.5" spans="1:28">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -9045,7 +9061,7 @@
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
     </row>
-    <row r="226" spans="1:28">
+    <row r="226" ht="16.5" spans="1:28">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -9075,7 +9091,7 @@
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
     </row>
-    <row r="227" spans="1:28">
+    <row r="227" ht="16.5" spans="1:28">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -9105,7 +9121,7 @@
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
     </row>
-    <row r="228" spans="1:28">
+    <row r="228" ht="16.5" spans="1:28">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -9135,7 +9151,7 @@
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
     </row>
-    <row r="229" spans="1:28">
+    <row r="229" ht="16.5" spans="1:28">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -9165,7 +9181,7 @@
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
     </row>
-    <row r="230" spans="1:28">
+    <row r="230" ht="16.5" spans="1:28">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -9195,7 +9211,7 @@
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
     </row>
-    <row r="231" spans="1:28">
+    <row r="231" ht="16.5" spans="1:28">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -9225,7 +9241,7 @@
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
     </row>
-    <row r="232" spans="1:28">
+    <row r="232" ht="16.5" spans="1:28">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -9255,7 +9271,7 @@
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
     </row>
-    <row r="233" spans="1:28">
+    <row r="233" ht="16.5" spans="1:28">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -9285,7 +9301,7 @@
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
     </row>
-    <row r="234" spans="1:28">
+    <row r="234" ht="16.5" spans="1:28">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -9315,7 +9331,7 @@
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
     </row>
-    <row r="235" spans="1:28">
+    <row r="235" ht="16.5" spans="1:28">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -9345,7 +9361,7 @@
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
     </row>
-    <row r="236" spans="1:28">
+    <row r="236" ht="16.5" spans="1:28">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -9375,7 +9391,7 @@
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
     </row>
-    <row r="237" spans="1:28">
+    <row r="237" ht="16.5" spans="1:28">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -9405,7 +9421,7 @@
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
     </row>
-    <row r="238" spans="1:28">
+    <row r="238" ht="16.5" spans="1:28">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -9435,7 +9451,7 @@
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
     </row>
-    <row r="239" spans="1:28">
+    <row r="239" ht="16.5" spans="1:28">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -9465,7 +9481,7 @@
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
     </row>
-    <row r="240" spans="1:28">
+    <row r="240" ht="16.5" spans="1:28">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -9495,7 +9511,7 @@
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
     </row>
-    <row r="241" spans="1:28">
+    <row r="241" ht="16.5" spans="1:28">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -9525,7 +9541,7 @@
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
     </row>
-    <row r="242" spans="1:28">
+    <row r="242" ht="16.5" spans="1:28">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -9555,7 +9571,7 @@
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
     </row>
-    <row r="243" spans="1:28">
+    <row r="243" ht="16.5" spans="1:28">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -9585,7 +9601,7 @@
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
     </row>
-    <row r="244" spans="1:28">
+    <row r="244" ht="16.5" spans="1:28">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -9615,7 +9631,7 @@
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
     </row>
-    <row r="245" spans="1:28">
+    <row r="245" ht="16.5" spans="1:28">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -9645,7 +9661,7 @@
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
     </row>
-    <row r="246" spans="1:28">
+    <row r="246" ht="16.5" spans="1:28">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -9675,7 +9691,7 @@
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
     </row>
-    <row r="247" spans="1:28">
+    <row r="247" ht="16.5" spans="1:28">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -9723,7 +9739,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -9740,7 +9756,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -9773,13 +9789,13 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" ht="16.5" spans="1:28">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -9791,7 +9807,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -9822,13 +9838,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -9863,17 +9879,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -9904,13 +9920,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -9945,13 +9961,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -9976,7 +9992,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" ht="16.5" spans="1:28">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9986,19 +10002,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -10019,7 +10035,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" ht="16.5" spans="1:28">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -10029,19 +10045,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -10072,13 +10088,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -10103,7 +10119,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" ht="16.5" spans="1:28">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10113,13 +10129,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -10151,13 +10167,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -10189,19 +10205,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -10232,17 +10248,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -10273,19 +10289,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -10316,13 +10332,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -10355,19 +10371,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10388,7 +10404,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" ht="16.5" spans="1:28">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10397,13 +10413,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10426,7 +10442,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" ht="16.5" spans="1:28">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10435,13 +10451,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10473,19 +10489,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10515,17 +10531,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10555,13 +10571,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10593,19 +10609,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10635,13 +10651,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10673,13 +10689,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10711,13 +10727,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10749,13 +10765,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10787,13 +10803,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -10825,13 +10841,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10863,13 +10879,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -10903,10 +10919,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -10939,10 +10955,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -10975,17 +10991,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -11015,17 +11031,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -11046,7 +11062,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" ht="16.5" spans="1:28">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -11055,17 +11071,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -11086,7 +11102,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" ht="16.5" spans="1:28">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -11095,13 +11111,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -11124,7 +11140,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" ht="16.5" spans="1:28">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11133,13 +11149,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -11171,10 +11187,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -11207,17 +11223,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -11247,10 +11263,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -11283,10 +11299,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -11310,7 +11326,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" ht="16.5" spans="1:28">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -11319,17 +11335,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -11350,7 +11366,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" ht="16.5" spans="1:28">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11359,10 +11375,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11395,13 +11411,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11433,10 +11449,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11460,7 +11476,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" ht="16.5" spans="1:28">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -11490,7 +11506,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" ht="16.5" spans="1:28">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -11520,7 +11536,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" ht="16.5" spans="1:28">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -11529,13 +11545,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11567,13 +11583,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -11596,7 +11612,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" ht="16.5" spans="1:28">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -11626,7 +11642,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" ht="16.5" spans="1:28">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11656,7 +11672,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" ht="16.5" spans="1:28">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -11686,7 +11702,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" ht="16.5" spans="1:28">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -11716,7 +11732,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" ht="16.5" spans="1:28">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -11746,7 +11762,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" ht="16.5" spans="1:28">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -11776,7 +11792,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" ht="16.5" spans="1:28">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -11806,7 +11822,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" ht="16.5" spans="1:28">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -11836,7 +11852,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" ht="16.5" spans="1:28">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -11866,7 +11882,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -11896,7 +11912,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" ht="16.5" spans="1:28">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -11926,7 +11942,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" ht="16.5" spans="1:28">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -11956,7 +11972,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -11986,7 +12002,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" ht="16.5" spans="1:28">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -12016,7 +12032,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" ht="16.5" spans="1:28">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -12046,7 +12062,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -12076,7 +12092,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" ht="16.5" spans="1:28">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -12106,7 +12122,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" ht="16.5" spans="1:28">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -12136,7 +12152,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -12166,7 +12182,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" ht="16.5" spans="1:28">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -12196,7 +12212,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" ht="16.5" spans="1:28">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -12226,7 +12242,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" ht="16.5" spans="1:28">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -12256,7 +12272,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" ht="16.5" spans="1:28">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -12286,7 +12302,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" ht="16.5" spans="1:28">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -12316,7 +12332,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" ht="16.5" spans="1:28">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -12346,7 +12362,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" ht="16.5" spans="1:28">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -12376,7 +12392,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" ht="16.5" spans="1:28">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -12406,7 +12422,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" ht="16.5" spans="1:28">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -12436,7 +12452,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" ht="16.5" spans="1:28">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12466,7 +12482,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" ht="16.5" spans="1:28">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -12496,7 +12512,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" ht="16.5" spans="1:28">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -12526,7 +12542,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" ht="16.5" spans="1:28">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12556,7 +12572,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" ht="16.5" spans="1:28">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12586,7 +12602,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" ht="16.5" spans="1:28">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12616,7 +12632,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" ht="16.5" spans="1:28">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12646,7 +12662,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" ht="16.5" spans="1:28">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12676,7 +12692,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" ht="16.5" spans="1:28">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -12706,7 +12722,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" ht="16.5" spans="1:28">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -12736,7 +12752,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" ht="16.5" spans="1:28">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12766,7 +12782,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" ht="16.5" spans="1:28">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -12796,7 +12812,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" ht="16.5" spans="1:28">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -12826,7 +12842,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" ht="16.5" spans="1:28">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -12856,7 +12872,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" ht="16.5" spans="1:28">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -12886,7 +12902,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" ht="16.5" spans="1:28">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -12916,7 +12932,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" ht="16.5" spans="1:28">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -12946,7 +12962,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" ht="16.5" spans="1:28">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -12976,7 +12992,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" ht="16.5" spans="1:28">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -13006,7 +13022,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" ht="16.5" spans="1:28">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -13036,7 +13052,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" ht="16.5" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -13066,7 +13082,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" ht="16.5" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -13096,7 +13112,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" ht="16.5" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -13126,7 +13142,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" ht="16.5" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -13156,7 +13172,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" ht="16.5" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -13186,7 +13202,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" ht="16.5" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -13216,7 +13232,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" ht="16.5" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -13246,7 +13262,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" ht="16.5" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -13276,7 +13292,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" ht="16.5" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -13306,7 +13322,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" ht="16.5" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -13336,7 +13352,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" ht="16.5" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -13366,7 +13382,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" ht="16.5" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -13396,7 +13412,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" ht="16.5" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -13426,7 +13442,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" ht="16.5" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -13456,7 +13472,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" ht="16.5" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -13486,7 +13502,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" ht="16.5" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -13516,7 +13532,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" ht="16.5" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -13546,7 +13562,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" ht="16.5" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -13576,7 +13592,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" ht="16.5" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13606,7 +13622,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" ht="16.5" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -13636,7 +13652,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" ht="16.5" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -13666,7 +13682,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" ht="16.5" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -13696,7 +13712,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" ht="16.5" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -13726,7 +13742,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" ht="16.5" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -13756,7 +13772,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" ht="16.5" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -13786,7 +13802,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" ht="16.5" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -13816,7 +13832,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" ht="16.5" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -13846,7 +13862,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" ht="16.5" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -13876,7 +13892,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" ht="16.5" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -13906,7 +13922,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" ht="16.5" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -13936,7 +13952,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" ht="16.5" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -13966,7 +13982,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" ht="16.5" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -13996,7 +14012,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" ht="16.5" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -14026,7 +14042,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" ht="16.5" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -14056,7 +14072,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" ht="16.5" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -14086,7 +14102,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" ht="16.5" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -14116,7 +14132,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" ht="16.5" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -14146,7 +14162,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" ht="16.5" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -14176,7 +14192,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" ht="16.5" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -14206,7 +14222,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" ht="16.5" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -14236,7 +14252,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" ht="16.5" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -14266,7 +14282,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" ht="16.5" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -14296,7 +14312,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" ht="16.5" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -14326,7 +14342,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" ht="16.5" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -14356,7 +14372,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" ht="16.5" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -14386,7 +14402,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" ht="16.5" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -14416,7 +14432,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" ht="16.5" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -14446,7 +14462,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" ht="16.5" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -14476,7 +14492,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" ht="16.5" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -14506,7 +14522,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" ht="16.5" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -14536,7 +14552,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" ht="16.5" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -14566,7 +14582,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" ht="16.5" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -14596,7 +14612,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" ht="16.5" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -14626,7 +14642,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" ht="16.5" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -14656,7 +14672,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" ht="16.5" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -14686,7 +14702,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" ht="16.5" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -14716,7 +14732,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" ht="16.5" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -14746,7 +14762,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" ht="16.5" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -14776,7 +14792,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" ht="16.5" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -14806,7 +14822,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" ht="16.5" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -14836,7 +14852,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" ht="16.5" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -14866,7 +14882,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" ht="16.5" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -14896,7 +14912,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" ht="16.5" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -14926,7 +14942,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" ht="16.5" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -14956,7 +14972,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" ht="16.5" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -14986,7 +15002,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" ht="16.5" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -15016,7 +15032,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" ht="16.5" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -15046,7 +15062,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" ht="16.5" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -15076,7 +15092,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" ht="16.5" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -15106,7 +15122,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" ht="16.5" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -15136,7 +15152,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" ht="16.5" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -15166,7 +15182,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" ht="16.5" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -15196,7 +15212,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" ht="16.5" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -15226,7 +15242,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" ht="16.5" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -15256,7 +15272,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" ht="16.5" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -15286,7 +15302,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" ht="16.5" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -15316,7 +15332,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" ht="16.5" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -15346,7 +15362,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" ht="16.5" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -15376,7 +15392,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" ht="16.5" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -15406,7 +15422,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" ht="16.5" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -15436,7 +15452,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" ht="16.5" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -15466,7 +15482,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" ht="16.5" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -15496,7 +15512,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" ht="16.5" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -15526,7 +15542,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" ht="16.5" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -15556,7 +15572,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" ht="16.5" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -15586,7 +15602,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" ht="16.5" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -15616,7 +15632,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" ht="16.5" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -15646,7 +15662,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" ht="16.5" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -15676,7 +15692,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" ht="16.5" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -15706,7 +15722,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" ht="16.5" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -15736,7 +15752,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" ht="16.5" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -15766,7 +15782,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" ht="16.5" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -15796,7 +15812,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" ht="16.5" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -15826,7 +15842,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" ht="16.5" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -15856,7 +15872,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" ht="16.5" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -15886,7 +15902,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" ht="16.5" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -15916,7 +15932,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" ht="16.5" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -15946,7 +15962,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" ht="16.5" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -15976,7 +15992,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" ht="16.5" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -16006,7 +16022,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" ht="16.5" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -16036,7 +16052,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" ht="16.5" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -16066,7 +16082,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" ht="16.5" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -16096,7 +16112,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" ht="16.5" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -16126,7 +16142,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" ht="16.5" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
   <si>
     <t>单元格里的
 [回车键]用
@@ -381,6 +381,9 @@
     <t>顺利采集到电脑截屏图片用于屏幕共享，但是使用bufferedImage类转换为base64编码时候出现BASE64Encoder cannot be resolved to a type错误提示，因为BASE64Enconder类不在java eclipse的标准库中，但是尝试了网上的对应解决方案都并未解决问题</t>
   </si>
   <si>
+    <t>网站首页编码实现中(导航栏，主体首页的界面)</t>
+  </si>
+  <si>
     <t>其他例子</t>
   </si>
   <si>
@@ -768,12 +771,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -813,23 +816,42 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -849,21 +871,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,6 +894,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -885,21 +908,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -916,23 +930,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,25 +953,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -982,7 +979,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1015,7 +1012,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,37 +1114,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,85 +1168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,43 +1180,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,15 +1307,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1361,17 +1343,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1381,17 +1357,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1410,157 +1375,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1639,9 +1630,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1704,11 +1692,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1991,19 +1974,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AB247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="5.2" customWidth="1"/>
@@ -2051,7 +2035,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" ht="16.5" spans="1:28">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -3550,12 +3534,25 @@
     </row>
     <row r="37" ht="87.9" customHeight="1" spans="1:28">
       <c r="A37" s="6"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="20">
+        <v>43648</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="20">
+        <v>43648</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -3581,7 +3578,7 @@
       <c r="A38" s="6"/>
       <c r="C38" s="9"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="27"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="9"/>
       <c r="G38" s="14"/>
       <c r="H38" s="9"/>
@@ -4157,7 +4154,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="6"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -4193,7 +4190,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="28"/>
+      <c r="H59" s="27"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -4244,7 +4241,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="6"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4331,7 +4328,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="6"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -4418,7 +4415,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="6"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -4945,7 +4942,7 @@
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="29"/>
+      <c r="F85" s="28"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="5"/>
@@ -5288,7 +5285,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" ht="16.5" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -5318,7 +5315,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" ht="16.5" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -5348,7 +5345,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" ht="16.5" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -5378,7 +5375,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" ht="16.5" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -5408,7 +5405,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" ht="16.5" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -5438,7 +5435,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" ht="16.5" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -5468,7 +5465,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" ht="16.5" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -5498,7 +5495,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" ht="16.5" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -5528,7 +5525,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" ht="16.5" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5558,7 +5555,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" ht="16.5" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5588,7 +5585,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" ht="16.5" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5618,7 +5615,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" ht="16.5" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5648,7 +5645,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" ht="16.5" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5678,7 +5675,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" ht="16.5" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5708,7 +5705,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" ht="16.5" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5738,7 +5735,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" ht="16.5" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5768,7 +5765,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" ht="16.5" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5798,7 +5795,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" ht="16.5" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5828,7 +5825,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" ht="16.5" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5858,7 +5855,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" ht="16.5" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5888,7 +5885,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" ht="16.5" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -5918,7 +5915,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" ht="16.5" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5948,7 +5945,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" ht="16.5" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -5978,7 +5975,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" ht="16.5" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -6008,7 +6005,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" ht="16.5" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -6038,7 +6035,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" ht="16.5" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -6068,7 +6065,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" ht="16.5" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -6098,7 +6095,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" ht="16.5" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -6128,7 +6125,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" ht="16.5" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -6158,7 +6155,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" ht="16.5" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -6188,7 +6185,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" ht="16.5" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -6218,7 +6215,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" ht="16.5" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -6248,7 +6245,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" ht="16.5" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -6278,7 +6275,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" ht="16.5" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -6308,7 +6305,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" ht="16.5" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -6338,7 +6335,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" ht="16.5" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -6368,7 +6365,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" ht="16.5" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -6398,7 +6395,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" ht="16.5" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -6428,7 +6425,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" ht="16.5" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6458,7 +6455,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" ht="16.5" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6488,7 +6485,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" ht="16.5" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -6518,7 +6515,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" ht="16.5" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -6548,7 +6545,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" ht="16.5" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6578,7 +6575,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" ht="16.5" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6608,7 +6605,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" ht="16.5" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6638,7 +6635,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" ht="16.5" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6668,7 +6665,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" ht="16.5" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6698,7 +6695,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" ht="16.5" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6728,7 +6725,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" ht="16.5" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6758,7 +6755,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" ht="16.5" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6788,7 +6785,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" ht="16.5" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6818,7 +6815,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" ht="16.5" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6848,7 +6845,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" ht="16.5" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6878,7 +6875,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" ht="16.5" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6908,7 +6905,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" ht="16.5" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6938,7 +6935,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" ht="16.5" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6968,7 +6965,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" ht="16.5" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -6998,7 +6995,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" ht="16.5" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -7028,7 +7025,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" ht="16.5" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -7058,7 +7055,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" ht="16.5" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -7088,7 +7085,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" ht="16.5" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -7118,7 +7115,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" ht="16.5" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -7148,7 +7145,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" ht="16.5" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -7178,7 +7175,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" ht="16.5" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -7208,7 +7205,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" ht="16.5" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -7238,7 +7235,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" ht="16.5" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -7268,7 +7265,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" ht="16.5" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -7298,7 +7295,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" ht="16.5" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -7328,7 +7325,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" ht="16.5" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -7358,7 +7355,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" ht="16.5" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -7388,7 +7385,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" ht="16.5" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -7418,7 +7415,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" ht="16.5" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -7448,7 +7445,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" ht="16.5" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -7478,7 +7475,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" ht="16.5" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7508,7 +7505,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" ht="16.5" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7538,7 +7535,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" ht="16.5" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7568,7 +7565,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" ht="16.5" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7598,7 +7595,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" ht="16.5" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7628,7 +7625,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" ht="16.5" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7658,7 +7655,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" ht="16.5" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7688,7 +7685,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" ht="16.5" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7718,7 +7715,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" ht="16.5" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -7748,7 +7745,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" ht="16.5" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -7778,7 +7775,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" ht="16.5" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -7808,7 +7805,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" ht="16.5" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -7838,7 +7835,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" ht="16.5" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -7868,7 +7865,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" ht="16.5" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -7898,7 +7895,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" ht="16.5" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -7928,7 +7925,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" ht="16.5" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -7958,7 +7955,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" ht="16.5" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -7988,7 +7985,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" ht="16.5" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -8018,7 +8015,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" ht="16.5" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -8048,7 +8045,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" ht="16.5" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -8078,7 +8075,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" ht="16.5" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -8108,7 +8105,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" ht="16.5" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -8138,7 +8135,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" ht="16.5" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -8168,7 +8165,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" ht="16.5" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -8198,7 +8195,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" ht="16.5" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -8228,7 +8225,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" ht="16.5" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -8258,7 +8255,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" ht="16.5" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -8288,7 +8285,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" ht="16.5" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -8318,7 +8315,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" ht="16.5" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -8348,7 +8345,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" ht="16.5" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -8378,7 +8375,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" ht="16.5" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -8408,7 +8405,7 @@
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
     </row>
-    <row r="201" spans="1:28">
+    <row r="201" ht="16.5" spans="1:28">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -8438,7 +8435,7 @@
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
     </row>
-    <row r="202" spans="1:28">
+    <row r="202" ht="16.5" spans="1:28">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -8468,7 +8465,7 @@
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
     </row>
-    <row r="203" spans="1:28">
+    <row r="203" ht="16.5" spans="1:28">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -8498,7 +8495,7 @@
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
     </row>
-    <row r="204" spans="1:28">
+    <row r="204" ht="16.5" spans="1:28">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -8528,7 +8525,7 @@
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
     </row>
-    <row r="205" spans="1:28">
+    <row r="205" ht="16.5" spans="1:28">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -8558,7 +8555,7 @@
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
     </row>
-    <row r="206" spans="1:28">
+    <row r="206" ht="16.5" spans="1:28">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -8588,7 +8585,7 @@
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
     </row>
-    <row r="207" spans="1:28">
+    <row r="207" ht="16.5" spans="1:28">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -8618,7 +8615,7 @@
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
     </row>
-    <row r="208" spans="1:28">
+    <row r="208" ht="16.5" spans="1:28">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -8648,7 +8645,7 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
     </row>
-    <row r="209" spans="1:28">
+    <row r="209" ht="16.5" spans="1:28">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -8678,7 +8675,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
     </row>
-    <row r="210" spans="1:28">
+    <row r="210" ht="16.5" spans="1:28">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -8708,7 +8705,7 @@
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
     </row>
-    <row r="211" spans="1:28">
+    <row r="211" ht="16.5" spans="1:28">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -8738,7 +8735,7 @@
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
     </row>
-    <row r="212" spans="1:28">
+    <row r="212" ht="16.5" spans="1:28">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -8768,7 +8765,7 @@
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
     </row>
-    <row r="213" spans="1:28">
+    <row r="213" ht="16.5" spans="1:28">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -8798,7 +8795,7 @@
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
     </row>
-    <row r="214" spans="1:28">
+    <row r="214" ht="16.5" spans="1:28">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -8828,7 +8825,7 @@
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
     </row>
-    <row r="215" spans="1:28">
+    <row r="215" ht="16.5" spans="1:28">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -8858,7 +8855,7 @@
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
     </row>
-    <row r="216" spans="1:28">
+    <row r="216" ht="16.5" spans="1:28">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -8888,7 +8885,7 @@
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
     </row>
-    <row r="217" spans="1:28">
+    <row r="217" ht="16.5" spans="1:28">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -8918,7 +8915,7 @@
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
     </row>
-    <row r="218" spans="1:28">
+    <row r="218" ht="16.5" spans="1:28">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -8948,7 +8945,7 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
     </row>
-    <row r="219" spans="1:28">
+    <row r="219" ht="16.5" spans="1:28">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -8978,7 +8975,7 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
     </row>
-    <row r="220" spans="1:28">
+    <row r="220" ht="16.5" spans="1:28">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -9008,7 +9005,7 @@
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
     </row>
-    <row r="221" spans="1:28">
+    <row r="221" ht="16.5" spans="1:28">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -9038,7 +9035,7 @@
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
     </row>
-    <row r="222" spans="1:28">
+    <row r="222" ht="16.5" spans="1:28">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -9068,7 +9065,7 @@
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
     </row>
-    <row r="223" spans="1:28">
+    <row r="223" ht="16.5" spans="1:28">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -9098,7 +9095,7 @@
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
     </row>
-    <row r="224" spans="1:28">
+    <row r="224" ht="16.5" spans="1:28">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -9128,7 +9125,7 @@
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
     </row>
-    <row r="225" spans="1:28">
+    <row r="225" ht="16.5" spans="1:28">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -9158,7 +9155,7 @@
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
     </row>
-    <row r="226" spans="1:28">
+    <row r="226" ht="16.5" spans="1:28">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -9188,7 +9185,7 @@
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
     </row>
-    <row r="227" spans="1:28">
+    <row r="227" ht="16.5" spans="1:28">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -9218,7 +9215,7 @@
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
     </row>
-    <row r="228" spans="1:28">
+    <row r="228" ht="16.5" spans="1:28">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -9248,7 +9245,7 @@
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
     </row>
-    <row r="229" spans="1:28">
+    <row r="229" ht="16.5" spans="1:28">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -9278,7 +9275,7 @@
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
     </row>
-    <row r="230" spans="1:28">
+    <row r="230" ht="16.5" spans="1:28">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -9308,7 +9305,7 @@
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
     </row>
-    <row r="231" spans="1:28">
+    <row r="231" ht="16.5" spans="1:28">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -9338,7 +9335,7 @@
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
     </row>
-    <row r="232" spans="1:28">
+    <row r="232" ht="16.5" spans="1:28">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -9368,7 +9365,7 @@
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
     </row>
-    <row r="233" spans="1:28">
+    <row r="233" ht="16.5" spans="1:28">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -9398,7 +9395,7 @@
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
     </row>
-    <row r="234" spans="1:28">
+    <row r="234" ht="16.5" spans="1:28">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -9428,7 +9425,7 @@
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
     </row>
-    <row r="235" spans="1:28">
+    <row r="235" ht="16.5" spans="1:28">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -9458,7 +9455,7 @@
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
     </row>
-    <row r="236" spans="1:28">
+    <row r="236" ht="16.5" spans="1:28">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -9488,7 +9485,7 @@
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
     </row>
-    <row r="237" spans="1:28">
+    <row r="237" ht="16.5" spans="1:28">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -9518,7 +9515,7 @@
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
     </row>
-    <row r="238" spans="1:28">
+    <row r="238" ht="16.5" spans="1:28">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -9548,7 +9545,7 @@
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
     </row>
-    <row r="239" spans="1:28">
+    <row r="239" ht="16.5" spans="1:28">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -9578,7 +9575,7 @@
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
     </row>
-    <row r="240" spans="1:28">
+    <row r="240" ht="16.5" spans="1:28">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -9608,7 +9605,7 @@
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
     </row>
-    <row r="241" spans="1:28">
+    <row r="241" ht="16.5" spans="1:28">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -9638,7 +9635,7 @@
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
     </row>
-    <row r="242" spans="1:28">
+    <row r="242" ht="16.5" spans="1:28">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -9668,7 +9665,7 @@
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
     </row>
-    <row r="243" spans="1:28">
+    <row r="243" ht="16.5" spans="1:28">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -9698,7 +9695,7 @@
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
     </row>
-    <row r="244" spans="1:28">
+    <row r="244" ht="16.5" spans="1:28">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -9728,7 +9725,7 @@
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
     </row>
-    <row r="245" spans="1:28">
+    <row r="245" ht="16.5" spans="1:28">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -9758,7 +9755,7 @@
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
     </row>
-    <row r="246" spans="1:28">
+    <row r="246" ht="16.5" spans="1:28">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -9788,7 +9785,7 @@
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
     </row>
-    <row r="247" spans="1:28">
+    <row r="247" ht="16.5" spans="1:28">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -9828,7 +9825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AB200"/>
   <sheetViews>
@@ -9836,7 +9833,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -9853,7 +9850,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -9886,13 +9883,13 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" ht="16.5" spans="1:28">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -9904,7 +9901,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -9935,13 +9932,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -9976,17 +9973,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -10017,13 +10014,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -10058,13 +10055,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -10089,7 +10086,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" ht="16.5" spans="1:28">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -10099,19 +10096,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -10132,7 +10129,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" ht="16.5" spans="1:28">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -10142,19 +10139,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -10185,13 +10182,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -10216,7 +10213,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" ht="16.5" spans="1:28">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10226,13 +10223,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -10264,13 +10261,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -10302,19 +10299,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -10345,17 +10342,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -10386,19 +10383,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -10429,13 +10426,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -10468,19 +10465,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10501,7 +10498,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" ht="16.5" spans="1:28">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10510,13 +10507,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10539,7 +10536,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" ht="16.5" spans="1:28">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10548,13 +10545,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10586,19 +10583,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10628,17 +10625,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10668,13 +10665,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10706,19 +10703,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10748,13 +10745,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10786,13 +10783,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10824,13 +10821,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10862,13 +10859,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10900,13 +10897,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -10938,13 +10935,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10976,13 +10973,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -11016,10 +11013,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -11052,10 +11049,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -11088,17 +11085,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -11128,17 +11125,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -11159,7 +11156,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" ht="16.5" spans="1:28">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -11168,17 +11165,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -11199,7 +11196,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" ht="16.5" spans="1:28">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -11208,13 +11205,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -11237,7 +11234,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" ht="16.5" spans="1:28">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11246,13 +11243,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -11284,10 +11281,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -11320,17 +11317,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -11360,10 +11357,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -11396,10 +11393,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -11423,7 +11420,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" ht="16.5" spans="1:28">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -11432,17 +11429,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -11463,7 +11460,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" ht="16.5" spans="1:28">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11472,10 +11469,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11508,13 +11505,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11546,10 +11543,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11573,7 +11570,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" ht="16.5" spans="1:28">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -11603,7 +11600,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" ht="16.5" spans="1:28">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -11633,7 +11630,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" ht="16.5" spans="1:28">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -11642,13 +11639,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11680,13 +11677,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -11709,7 +11706,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" ht="16.5" spans="1:28">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -11739,7 +11736,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" ht="16.5" spans="1:28">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11769,7 +11766,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" ht="16.5" spans="1:28">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -11799,7 +11796,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" ht="16.5" spans="1:28">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -11829,7 +11826,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" ht="16.5" spans="1:28">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -11859,7 +11856,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" ht="16.5" spans="1:28">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -11889,7 +11886,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" ht="16.5" spans="1:28">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -11919,7 +11916,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" ht="16.5" spans="1:28">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -11949,7 +11946,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" ht="16.5" spans="1:28">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -11979,7 +11976,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -12009,7 +12006,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" ht="16.5" spans="1:28">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -12039,7 +12036,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" ht="16.5" spans="1:28">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -12069,7 +12066,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -12099,7 +12096,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" ht="16.5" spans="1:28">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -12129,7 +12126,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" ht="16.5" spans="1:28">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -12159,7 +12156,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -12189,7 +12186,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" ht="16.5" spans="1:28">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -12219,7 +12216,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" ht="16.5" spans="1:28">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -12249,7 +12246,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -12279,7 +12276,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" ht="16.5" spans="1:28">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -12309,7 +12306,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" ht="16.5" spans="1:28">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -12339,7 +12336,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" ht="16.5" spans="1:28">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -12369,7 +12366,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" ht="16.5" spans="1:28">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -12399,7 +12396,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" ht="16.5" spans="1:28">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -12429,7 +12426,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" ht="16.5" spans="1:28">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -12459,7 +12456,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" ht="16.5" spans="1:28">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -12489,7 +12486,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" ht="16.5" spans="1:28">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -12519,7 +12516,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" ht="16.5" spans="1:28">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -12549,7 +12546,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" ht="16.5" spans="1:28">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12579,7 +12576,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" ht="16.5" spans="1:28">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -12609,7 +12606,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" ht="16.5" spans="1:28">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -12639,7 +12636,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" ht="16.5" spans="1:28">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12669,7 +12666,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" ht="16.5" spans="1:28">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12699,7 +12696,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" ht="16.5" spans="1:28">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12729,7 +12726,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" ht="16.5" spans="1:28">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12759,7 +12756,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" ht="16.5" spans="1:28">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12789,7 +12786,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" ht="16.5" spans="1:28">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -12819,7 +12816,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" ht="16.5" spans="1:28">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -12849,7 +12846,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" ht="16.5" spans="1:28">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12879,7 +12876,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" ht="16.5" spans="1:28">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -12909,7 +12906,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" ht="16.5" spans="1:28">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -12939,7 +12936,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" ht="16.5" spans="1:28">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -12969,7 +12966,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" ht="16.5" spans="1:28">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -12999,7 +12996,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" ht="16.5" spans="1:28">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -13029,7 +13026,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" ht="16.5" spans="1:28">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -13059,7 +13056,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" ht="16.5" spans="1:28">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -13089,7 +13086,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" ht="16.5" spans="1:28">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -13119,7 +13116,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" ht="16.5" spans="1:28">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -13149,7 +13146,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" ht="16.5" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -13179,7 +13176,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" ht="16.5" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -13209,7 +13206,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" ht="16.5" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -13239,7 +13236,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" ht="16.5" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -13269,7 +13266,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" ht="16.5" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -13299,7 +13296,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" ht="16.5" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -13329,7 +13326,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" ht="16.5" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -13359,7 +13356,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" ht="16.5" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -13389,7 +13386,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" ht="16.5" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -13419,7 +13416,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" ht="16.5" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -13449,7 +13446,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" ht="16.5" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -13479,7 +13476,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" ht="16.5" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -13509,7 +13506,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" ht="16.5" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -13539,7 +13536,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" ht="16.5" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -13569,7 +13566,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" ht="16.5" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -13599,7 +13596,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" ht="16.5" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -13629,7 +13626,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" ht="16.5" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -13659,7 +13656,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" ht="16.5" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -13689,7 +13686,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" ht="16.5" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13719,7 +13716,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" ht="16.5" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -13749,7 +13746,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" ht="16.5" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -13779,7 +13776,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" ht="16.5" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -13809,7 +13806,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" ht="16.5" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -13839,7 +13836,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" ht="16.5" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -13869,7 +13866,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" ht="16.5" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -13899,7 +13896,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" ht="16.5" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -13929,7 +13926,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" ht="16.5" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -13959,7 +13956,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" ht="16.5" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -13989,7 +13986,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" ht="16.5" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -14019,7 +14016,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" ht="16.5" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -14049,7 +14046,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" ht="16.5" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -14079,7 +14076,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" ht="16.5" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -14109,7 +14106,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" ht="16.5" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -14139,7 +14136,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" ht="16.5" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -14169,7 +14166,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" ht="16.5" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -14199,7 +14196,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" ht="16.5" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -14229,7 +14226,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" ht="16.5" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -14259,7 +14256,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" ht="16.5" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -14289,7 +14286,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" ht="16.5" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -14319,7 +14316,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" ht="16.5" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -14349,7 +14346,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" ht="16.5" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -14379,7 +14376,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" ht="16.5" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -14409,7 +14406,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" ht="16.5" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -14439,7 +14436,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" ht="16.5" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -14469,7 +14466,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" ht="16.5" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -14499,7 +14496,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" ht="16.5" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -14529,7 +14526,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" ht="16.5" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -14559,7 +14556,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" ht="16.5" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -14589,7 +14586,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" ht="16.5" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -14619,7 +14616,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" ht="16.5" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -14649,7 +14646,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" ht="16.5" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -14679,7 +14676,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" ht="16.5" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -14709,7 +14706,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" ht="16.5" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -14739,7 +14736,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" ht="16.5" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -14769,7 +14766,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" ht="16.5" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -14799,7 +14796,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" ht="16.5" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -14829,7 +14826,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" ht="16.5" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -14859,7 +14856,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" ht="16.5" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -14889,7 +14886,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" ht="16.5" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -14919,7 +14916,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" ht="16.5" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -14949,7 +14946,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" ht="16.5" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -14979,7 +14976,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" ht="16.5" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -15009,7 +15006,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" ht="16.5" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -15039,7 +15036,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" ht="16.5" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -15069,7 +15066,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" ht="16.5" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -15099,7 +15096,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" ht="16.5" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -15129,7 +15126,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" ht="16.5" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -15159,7 +15156,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" ht="16.5" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -15189,7 +15186,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" ht="16.5" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -15219,7 +15216,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" ht="16.5" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -15249,7 +15246,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" ht="16.5" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -15279,7 +15276,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" ht="16.5" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -15309,7 +15306,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" ht="16.5" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -15339,7 +15336,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" ht="16.5" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -15369,7 +15366,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" ht="16.5" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -15399,7 +15396,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" ht="16.5" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -15429,7 +15426,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" ht="16.5" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -15459,7 +15456,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" ht="16.5" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -15489,7 +15486,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" ht="16.5" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -15519,7 +15516,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" ht="16.5" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -15549,7 +15546,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" ht="16.5" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -15579,7 +15576,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" ht="16.5" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -15609,7 +15606,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" ht="16.5" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -15639,7 +15636,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" ht="16.5" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -15669,7 +15666,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" ht="16.5" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -15699,7 +15696,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" ht="16.5" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -15729,7 +15726,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" ht="16.5" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -15759,7 +15756,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" ht="16.5" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -15789,7 +15786,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" ht="16.5" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -15819,7 +15816,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" ht="16.5" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -15849,7 +15846,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" ht="16.5" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -15879,7 +15876,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" ht="16.5" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -15909,7 +15906,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" ht="16.5" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -15939,7 +15936,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" ht="16.5" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -15969,7 +15966,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" ht="16.5" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -15999,7 +15996,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" ht="16.5" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -16029,7 +16026,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" ht="16.5" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -16059,7 +16056,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" ht="16.5" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -16089,7 +16086,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" ht="16.5" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -16119,7 +16116,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" ht="16.5" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -16149,7 +16146,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" ht="16.5" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -16179,7 +16176,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" ht="16.5" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -16209,7 +16206,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" ht="16.5" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -16239,7 +16236,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" ht="16.5" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="176">
   <si>
     <t>单元格里的
 [回车键]用
@@ -384,6 +384,9 @@
     <t>网站首页编码实现中(导航栏，主体首页的界面)</t>
   </si>
   <si>
+    <t>实现数字1到字符串00001等格式的转换，使用正则表达式。系统消息id使用当前系统时间戳。定义两个count型变量，使用了java的定时器</t>
+  </si>
+  <si>
     <t>其他例子</t>
   </si>
   <si>
@@ -770,11 +773,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -816,6 +819,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -832,29 +850,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -864,14 +859,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,27 +926,29 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -921,47 +963,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,7 +1015,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,7 +1039,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,13 +1099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,19 +1111,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,79 +1153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,13 +1165,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,6 +1178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,6 +1317,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1324,6 +1342,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1346,47 +1379,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1401,157 +1395,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1630,9 +1633,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1692,6 +1692,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1974,17 +1979,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AB247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
@@ -3576,12 +3580,25 @@
     </row>
     <row r="38" ht="77.1" customHeight="1" spans="1:28">
       <c r="A38" s="6"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="9"/>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="20">
+        <v>43648</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="14">
+        <v>43648</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -4190,7 +4207,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="27"/>
+      <c r="H59" s="26"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -4942,7 +4959,7 @@
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="28"/>
+      <c r="F85" s="27"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="5"/>
@@ -9825,7 +9842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AB200"/>
   <sheetViews>
@@ -9850,7 +9867,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -9889,7 +9906,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -9901,7 +9918,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -9932,13 +9949,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -9973,17 +9990,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -10014,13 +10031,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -10055,13 +10072,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -10096,19 +10113,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -10139,19 +10156,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -10182,13 +10199,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -10223,13 +10240,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -10261,13 +10278,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -10299,19 +10316,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -10342,17 +10359,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -10383,19 +10400,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -10426,13 +10443,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -10465,19 +10482,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10507,13 +10524,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10545,13 +10562,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10583,19 +10600,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10625,17 +10642,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10665,13 +10682,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10703,19 +10720,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10745,13 +10762,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10783,13 +10800,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10821,13 +10838,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -10859,13 +10876,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -10897,13 +10914,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -10935,13 +10952,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -10973,13 +10990,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -11013,10 +11030,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -11049,10 +11066,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -11085,17 +11102,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -11125,17 +11142,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -11165,17 +11182,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -11205,13 +11222,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -11243,13 +11260,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -11281,10 +11298,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -11317,17 +11334,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -11357,10 +11374,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -11393,10 +11410,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -11429,17 +11446,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -11469,10 +11486,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11505,13 +11522,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11543,10 +11560,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11639,13 +11656,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11677,13 +11694,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="176">
   <si>
     <t>单元格里的
 [回车键]用
@@ -773,10 +773,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="28">
@@ -819,34 +819,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -859,7 +857,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,96 +964,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,19 +1015,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,13 +1039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,7 +1063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,13 +1081,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,13 +1135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,19 +1153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,7 +1171,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,49 +1189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,6 +1307,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1331,17 +1346,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1361,30 +1394,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1395,162 +1404,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1987,11 +1987,11 @@
   <sheetPr/>
   <dimension ref="A1:AB247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="5.2" customWidth="1"/>
@@ -2039,7 +2039,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:28">
+    <row r="2" spans="1:28">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -3622,12 +3622,25 @@
     </row>
     <row r="39" ht="117" customHeight="1" spans="1:28">
       <c r="A39" s="6"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="20">
+        <v>43648</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="9"/>
+      <c r="G39" s="14">
+        <v>43648</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -4171,7 +4184,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" ht="16.5" spans="1:28">
+    <row r="58" spans="1:28">
       <c r="A58" s="6"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -4258,7 +4271,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" ht="16.5" spans="1:28">
+    <row r="61" spans="1:28">
       <c r="A61" s="6"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4345,7 +4358,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" ht="16.5" spans="1:28">
+    <row r="64" spans="1:28">
       <c r="A64" s="6"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -4432,7 +4445,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" ht="16.5" spans="1:28">
+    <row r="67" spans="1:28">
       <c r="A67" s="6"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -5302,7 +5315,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" ht="16.5" spans="1:28">
+    <row r="97" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -5332,7 +5345,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" ht="16.5" spans="1:28">
+    <row r="98" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -5362,7 +5375,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" ht="16.5" spans="1:28">
+    <row r="99" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -5392,7 +5405,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" ht="16.5" spans="1:28">
+    <row r="100" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -5422,7 +5435,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" ht="16.5" spans="1:28">
+    <row r="101" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -5452,7 +5465,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" ht="16.5" spans="1:28">
+    <row r="102" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -5482,7 +5495,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" ht="16.5" spans="1:28">
+    <row r="103" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -5512,7 +5525,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" ht="16.5" spans="1:28">
+    <row r="104" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -5542,7 +5555,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" ht="16.5" spans="1:28">
+    <row r="105" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5572,7 +5585,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" ht="16.5" spans="1:28">
+    <row r="106" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5602,7 +5615,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" ht="16.5" spans="1:28">
+    <row r="107" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5632,7 +5645,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" ht="16.5" spans="1:28">
+    <row r="108" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5662,7 +5675,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" ht="16.5" spans="1:28">
+    <row r="109" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5692,7 +5705,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" ht="16.5" spans="1:28">
+    <row r="110" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5722,7 +5735,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" ht="16.5" spans="1:28">
+    <row r="111" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5752,7 +5765,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" ht="16.5" spans="1:28">
+    <row r="112" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5782,7 +5795,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" ht="16.5" spans="1:28">
+    <row r="113" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5812,7 +5825,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" ht="16.5" spans="1:28">
+    <row r="114" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5842,7 +5855,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" ht="16.5" spans="1:28">
+    <row r="115" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5872,7 +5885,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" ht="16.5" spans="1:28">
+    <row r="116" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5902,7 +5915,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" ht="16.5" spans="1:28">
+    <row r="117" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -5932,7 +5945,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" ht="16.5" spans="1:28">
+    <row r="118" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5962,7 +5975,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" ht="16.5" spans="1:28">
+    <row r="119" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -5992,7 +6005,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" ht="16.5" spans="1:28">
+    <row r="120" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -6022,7 +6035,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" ht="16.5" spans="1:28">
+    <row r="121" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -6052,7 +6065,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" ht="16.5" spans="1:28">
+    <row r="122" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -6082,7 +6095,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" ht="16.5" spans="1:28">
+    <row r="123" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -6112,7 +6125,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" ht="16.5" spans="1:28">
+    <row r="124" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -6142,7 +6155,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" ht="16.5" spans="1:28">
+    <row r="125" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -6172,7 +6185,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" ht="16.5" spans="1:28">
+    <row r="126" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -6202,7 +6215,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" ht="16.5" spans="1:28">
+    <row r="127" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -6232,7 +6245,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" ht="16.5" spans="1:28">
+    <row r="128" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -6262,7 +6275,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" ht="16.5" spans="1:28">
+    <row r="129" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -6292,7 +6305,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" ht="16.5" spans="1:28">
+    <row r="130" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -6322,7 +6335,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" ht="16.5" spans="1:28">
+    <row r="131" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -6352,7 +6365,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" ht="16.5" spans="1:28">
+    <row r="132" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -6382,7 +6395,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" ht="16.5" spans="1:28">
+    <row r="133" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -6412,7 +6425,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" ht="16.5" spans="1:28">
+    <row r="134" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -6442,7 +6455,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" ht="16.5" spans="1:28">
+    <row r="135" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6472,7 +6485,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" ht="16.5" spans="1:28">
+    <row r="136" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6502,7 +6515,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" ht="16.5" spans="1:28">
+    <row r="137" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -6532,7 +6545,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" ht="16.5" spans="1:28">
+    <row r="138" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -6562,7 +6575,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" ht="16.5" spans="1:28">
+    <row r="139" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6592,7 +6605,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" ht="16.5" spans="1:28">
+    <row r="140" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6622,7 +6635,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" ht="16.5" spans="1:28">
+    <row r="141" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6652,7 +6665,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" ht="16.5" spans="1:28">
+    <row r="142" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6682,7 +6695,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" ht="16.5" spans="1:28">
+    <row r="143" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6712,7 +6725,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" ht="16.5" spans="1:28">
+    <row r="144" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6742,7 +6755,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" ht="16.5" spans="1:28">
+    <row r="145" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6772,7 +6785,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" ht="16.5" spans="1:28">
+    <row r="146" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6802,7 +6815,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" ht="16.5" spans="1:28">
+    <row r="147" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6832,7 +6845,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" ht="16.5" spans="1:28">
+    <row r="148" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6862,7 +6875,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" ht="16.5" spans="1:28">
+    <row r="149" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6892,7 +6905,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" ht="16.5" spans="1:28">
+    <row r="150" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6922,7 +6935,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" ht="16.5" spans="1:28">
+    <row r="151" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6952,7 +6965,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" ht="16.5" spans="1:28">
+    <row r="152" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6982,7 +6995,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" ht="16.5" spans="1:28">
+    <row r="153" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -7012,7 +7025,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" ht="16.5" spans="1:28">
+    <row r="154" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -7042,7 +7055,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" ht="16.5" spans="1:28">
+    <row r="155" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -7072,7 +7085,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" ht="16.5" spans="1:28">
+    <row r="156" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -7102,7 +7115,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" ht="16.5" spans="1:28">
+    <row r="157" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -7132,7 +7145,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" ht="16.5" spans="1:28">
+    <row r="158" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -7162,7 +7175,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" ht="16.5" spans="1:28">
+    <row r="159" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -7192,7 +7205,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" ht="16.5" spans="1:28">
+    <row r="160" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -7222,7 +7235,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" ht="16.5" spans="1:28">
+    <row r="161" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -7252,7 +7265,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" ht="16.5" spans="1:28">
+    <row r="162" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -7282,7 +7295,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" ht="16.5" spans="1:28">
+    <row r="163" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -7312,7 +7325,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" ht="16.5" spans="1:28">
+    <row r="164" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -7342,7 +7355,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" ht="16.5" spans="1:28">
+    <row r="165" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -7372,7 +7385,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" ht="16.5" spans="1:28">
+    <row r="166" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -7402,7 +7415,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" ht="16.5" spans="1:28">
+    <row r="167" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -7432,7 +7445,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" ht="16.5" spans="1:28">
+    <row r="168" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -7462,7 +7475,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" ht="16.5" spans="1:28">
+    <row r="169" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -7492,7 +7505,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" ht="16.5" spans="1:28">
+    <row r="170" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7522,7 +7535,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" ht="16.5" spans="1:28">
+    <row r="171" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7552,7 +7565,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" ht="16.5" spans="1:28">
+    <row r="172" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7582,7 +7595,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" ht="16.5" spans="1:28">
+    <row r="173" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7612,7 +7625,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" ht="16.5" spans="1:28">
+    <row r="174" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7642,7 +7655,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" ht="16.5" spans="1:28">
+    <row r="175" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7672,7 +7685,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" ht="16.5" spans="1:28">
+    <row r="176" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7702,7 +7715,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" ht="16.5" spans="1:28">
+    <row r="177" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7732,7 +7745,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" ht="16.5" spans="1:28">
+    <row r="178" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -7762,7 +7775,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" ht="16.5" spans="1:28">
+    <row r="179" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -7792,7 +7805,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" ht="16.5" spans="1:28">
+    <row r="180" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -7822,7 +7835,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" ht="16.5" spans="1:28">
+    <row r="181" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -7852,7 +7865,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" ht="16.5" spans="1:28">
+    <row r="182" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -7882,7 +7895,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" ht="16.5" spans="1:28">
+    <row r="183" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -7912,7 +7925,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" ht="16.5" spans="1:28">
+    <row r="184" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -7942,7 +7955,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" ht="16.5" spans="1:28">
+    <row r="185" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -7972,7 +7985,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" ht="16.5" spans="1:28">
+    <row r="186" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -8002,7 +8015,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" ht="16.5" spans="1:28">
+    <row r="187" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -8032,7 +8045,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" ht="16.5" spans="1:28">
+    <row r="188" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -8062,7 +8075,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" ht="16.5" spans="1:28">
+    <row r="189" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -8092,7 +8105,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" ht="16.5" spans="1:28">
+    <row r="190" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -8122,7 +8135,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" ht="16.5" spans="1:28">
+    <row r="191" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -8152,7 +8165,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" ht="16.5" spans="1:28">
+    <row r="192" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -8182,7 +8195,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" ht="16.5" spans="1:28">
+    <row r="193" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -8212,7 +8225,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" ht="16.5" spans="1:28">
+    <row r="194" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -8242,7 +8255,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" ht="16.5" spans="1:28">
+    <row r="195" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -8272,7 +8285,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" ht="16.5" spans="1:28">
+    <row r="196" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -8302,7 +8315,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" ht="16.5" spans="1:28">
+    <row r="197" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -8332,7 +8345,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" ht="16.5" spans="1:28">
+    <row r="198" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -8362,7 +8375,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" ht="16.5" spans="1:28">
+    <row r="199" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -8392,7 +8405,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" ht="16.5" spans="1:28">
+    <row r="200" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -8422,7 +8435,7 @@
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
     </row>
-    <row r="201" ht="16.5" spans="1:28">
+    <row r="201" spans="1:28">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -8452,7 +8465,7 @@
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
     </row>
-    <row r="202" ht="16.5" spans="1:28">
+    <row r="202" spans="1:28">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -8482,7 +8495,7 @@
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
     </row>
-    <row r="203" ht="16.5" spans="1:28">
+    <row r="203" spans="1:28">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -8512,7 +8525,7 @@
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
     </row>
-    <row r="204" ht="16.5" spans="1:28">
+    <row r="204" spans="1:28">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -8542,7 +8555,7 @@
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
     </row>
-    <row r="205" ht="16.5" spans="1:28">
+    <row r="205" spans="1:28">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -8572,7 +8585,7 @@
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
     </row>
-    <row r="206" ht="16.5" spans="1:28">
+    <row r="206" spans="1:28">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -8602,7 +8615,7 @@
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
     </row>
-    <row r="207" ht="16.5" spans="1:28">
+    <row r="207" spans="1:28">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -8632,7 +8645,7 @@
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
     </row>
-    <row r="208" ht="16.5" spans="1:28">
+    <row r="208" spans="1:28">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -8662,7 +8675,7 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
     </row>
-    <row r="209" ht="16.5" spans="1:28">
+    <row r="209" spans="1:28">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -8692,7 +8705,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
     </row>
-    <row r="210" ht="16.5" spans="1:28">
+    <row r="210" spans="1:28">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -8722,7 +8735,7 @@
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
     </row>
-    <row r="211" ht="16.5" spans="1:28">
+    <row r="211" spans="1:28">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -8752,7 +8765,7 @@
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
     </row>
-    <row r="212" ht="16.5" spans="1:28">
+    <row r="212" spans="1:28">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -8782,7 +8795,7 @@
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
     </row>
-    <row r="213" ht="16.5" spans="1:28">
+    <row r="213" spans="1:28">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -8812,7 +8825,7 @@
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
     </row>
-    <row r="214" ht="16.5" spans="1:28">
+    <row r="214" spans="1:28">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -8842,7 +8855,7 @@
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
     </row>
-    <row r="215" ht="16.5" spans="1:28">
+    <row r="215" spans="1:28">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -8872,7 +8885,7 @@
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
     </row>
-    <row r="216" ht="16.5" spans="1:28">
+    <row r="216" spans="1:28">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -8902,7 +8915,7 @@
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
     </row>
-    <row r="217" ht="16.5" spans="1:28">
+    <row r="217" spans="1:28">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -8932,7 +8945,7 @@
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
     </row>
-    <row r="218" ht="16.5" spans="1:28">
+    <row r="218" spans="1:28">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -8962,7 +8975,7 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
     </row>
-    <row r="219" ht="16.5" spans="1:28">
+    <row r="219" spans="1:28">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -8992,7 +9005,7 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
     </row>
-    <row r="220" ht="16.5" spans="1:28">
+    <row r="220" spans="1:28">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -9022,7 +9035,7 @@
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
     </row>
-    <row r="221" ht="16.5" spans="1:28">
+    <row r="221" spans="1:28">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -9052,7 +9065,7 @@
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
     </row>
-    <row r="222" ht="16.5" spans="1:28">
+    <row r="222" spans="1:28">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -9082,7 +9095,7 @@
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
     </row>
-    <row r="223" ht="16.5" spans="1:28">
+    <row r="223" spans="1:28">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -9112,7 +9125,7 @@
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
     </row>
-    <row r="224" ht="16.5" spans="1:28">
+    <row r="224" spans="1:28">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -9142,7 +9155,7 @@
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
     </row>
-    <row r="225" ht="16.5" spans="1:28">
+    <row r="225" spans="1:28">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -9172,7 +9185,7 @@
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
     </row>
-    <row r="226" ht="16.5" spans="1:28">
+    <row r="226" spans="1:28">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -9202,7 +9215,7 @@
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
     </row>
-    <row r="227" ht="16.5" spans="1:28">
+    <row r="227" spans="1:28">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -9232,7 +9245,7 @@
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
     </row>
-    <row r="228" ht="16.5" spans="1:28">
+    <row r="228" spans="1:28">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -9262,7 +9275,7 @@
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
     </row>
-    <row r="229" ht="16.5" spans="1:28">
+    <row r="229" spans="1:28">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -9292,7 +9305,7 @@
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
     </row>
-    <row r="230" ht="16.5" spans="1:28">
+    <row r="230" spans="1:28">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -9322,7 +9335,7 @@
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
     </row>
-    <row r="231" ht="16.5" spans="1:28">
+    <row r="231" spans="1:28">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -9352,7 +9365,7 @@
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
     </row>
-    <row r="232" ht="16.5" spans="1:28">
+    <row r="232" spans="1:28">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -9382,7 +9395,7 @@
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
     </row>
-    <row r="233" ht="16.5" spans="1:28">
+    <row r="233" spans="1:28">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -9412,7 +9425,7 @@
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
     </row>
-    <row r="234" ht="16.5" spans="1:28">
+    <row r="234" spans="1:28">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -9442,7 +9455,7 @@
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
     </row>
-    <row r="235" ht="16.5" spans="1:28">
+    <row r="235" spans="1:28">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -9472,7 +9485,7 @@
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
     </row>
-    <row r="236" ht="16.5" spans="1:28">
+    <row r="236" spans="1:28">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -9502,7 +9515,7 @@
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
     </row>
-    <row r="237" ht="16.5" spans="1:28">
+    <row r="237" spans="1:28">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -9532,7 +9545,7 @@
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
     </row>
-    <row r="238" ht="16.5" spans="1:28">
+    <row r="238" spans="1:28">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -9562,7 +9575,7 @@
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
     </row>
-    <row r="239" ht="16.5" spans="1:28">
+    <row r="239" spans="1:28">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -9592,7 +9605,7 @@
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
     </row>
-    <row r="240" ht="16.5" spans="1:28">
+    <row r="240" spans="1:28">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -9622,7 +9635,7 @@
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
     </row>
-    <row r="241" ht="16.5" spans="1:28">
+    <row r="241" spans="1:28">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -9652,7 +9665,7 @@
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
     </row>
-    <row r="242" ht="16.5" spans="1:28">
+    <row r="242" spans="1:28">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -9682,7 +9695,7 @@
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
     </row>
-    <row r="243" ht="16.5" spans="1:28">
+    <row r="243" spans="1:28">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -9712,7 +9725,7 @@
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
     </row>
-    <row r="244" ht="16.5" spans="1:28">
+    <row r="244" spans="1:28">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -9742,7 +9755,7 @@
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
     </row>
-    <row r="245" ht="16.5" spans="1:28">
+    <row r="245" spans="1:28">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -9772,7 +9785,7 @@
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
     </row>
-    <row r="246" ht="16.5" spans="1:28">
+    <row r="246" spans="1:28">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -9802,7 +9815,7 @@
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
     </row>
-    <row r="247" ht="16.5" spans="1:28">
+    <row r="247" spans="1:28">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -9850,7 +9863,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -9900,7 +9913,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:28">
+    <row r="2" spans="1:28">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -10103,7 +10116,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" ht="16.5" spans="1:28">
+    <row r="7" spans="1:28">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -10146,7 +10159,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" ht="16.5" spans="1:28">
+    <row r="8" spans="1:28">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -10230,7 +10243,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" ht="16.5" spans="1:28">
+    <row r="10" spans="1:28">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10515,7 +10528,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" ht="16.5" spans="1:28">
+    <row r="17" spans="1:28">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10553,7 +10566,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" ht="16.5" spans="1:28">
+    <row r="18" spans="1:28">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -11173,7 +11186,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" ht="16.5" spans="1:28">
+    <row r="34" spans="1:28">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -11213,7 +11226,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" ht="16.5" spans="1:28">
+    <row r="35" spans="1:28">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -11251,7 +11264,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" ht="16.5" spans="1:28">
+    <row r="36" spans="1:28">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11437,7 +11450,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" ht="16.5" spans="1:28">
+    <row r="41" spans="1:28">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -11477,7 +11490,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" ht="16.5" spans="1:28">
+    <row r="42" spans="1:28">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11587,7 +11600,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" ht="16.5" spans="1:28">
+    <row r="45" spans="1:28">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -11617,7 +11630,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" ht="16.5" spans="1:28">
+    <row r="46" spans="1:28">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -11647,7 +11660,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" ht="16.5" spans="1:28">
+    <row r="47" spans="1:28">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -11723,7 +11736,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" ht="16.5" spans="1:28">
+    <row r="49" spans="1:28">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -11753,7 +11766,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" ht="16.5" spans="1:28">
+    <row r="50" spans="1:28">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11783,7 +11796,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" ht="16.5" spans="1:28">
+    <row r="51" spans="1:28">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -11813,7 +11826,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" ht="16.5" spans="1:28">
+    <row r="52" spans="1:28">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -11843,7 +11856,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" ht="16.5" spans="1:28">
+    <row r="53" spans="1:28">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -11873,7 +11886,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" ht="16.5" spans="1:28">
+    <row r="54" spans="1:28">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -11903,7 +11916,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" ht="16.5" spans="1:28">
+    <row r="55" spans="1:28">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -11933,7 +11946,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" ht="16.5" spans="1:28">
+    <row r="56" spans="1:28">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -11963,7 +11976,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" ht="16.5" spans="1:28">
+    <row r="57" spans="1:28">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -11993,7 +12006,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" ht="16.5" spans="1:28">
+    <row r="58" spans="1:28">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -12023,7 +12036,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" ht="16.5" spans="1:28">
+    <row r="59" spans="1:28">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -12053,7 +12066,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" ht="16.5" spans="1:28">
+    <row r="60" spans="1:28">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -12083,7 +12096,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" ht="16.5" spans="1:28">
+    <row r="61" spans="1:28">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -12113,7 +12126,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" ht="16.5" spans="1:28">
+    <row r="62" spans="1:28">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -12143,7 +12156,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" ht="16.5" spans="1:28">
+    <row r="63" spans="1:28">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -12173,7 +12186,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" ht="16.5" spans="1:28">
+    <row r="64" spans="1:28">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -12203,7 +12216,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" ht="16.5" spans="1:28">
+    <row r="65" spans="1:28">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -12233,7 +12246,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" ht="16.5" spans="1:28">
+    <row r="66" spans="1:28">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -12263,7 +12276,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" ht="16.5" spans="1:28">
+    <row r="67" spans="1:28">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -12293,7 +12306,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" ht="16.5" spans="1:28">
+    <row r="68" spans="1:28">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -12323,7 +12336,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" ht="16.5" spans="1:28">
+    <row r="69" spans="1:28">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -12353,7 +12366,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" ht="16.5" spans="1:28">
+    <row r="70" spans="1:28">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -12383,7 +12396,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" ht="16.5" spans="1:28">
+    <row r="71" spans="1:28">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -12413,7 +12426,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" ht="16.5" spans="1:28">
+    <row r="72" spans="1:28">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -12443,7 +12456,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" ht="16.5" spans="1:28">
+    <row r="73" spans="1:28">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -12473,7 +12486,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" ht="16.5" spans="1:28">
+    <row r="74" spans="1:28">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -12503,7 +12516,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" ht="16.5" spans="1:28">
+    <row r="75" spans="1:28">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -12533,7 +12546,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" ht="16.5" spans="1:28">
+    <row r="76" spans="1:28">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -12563,7 +12576,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" ht="16.5" spans="1:28">
+    <row r="77" spans="1:28">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12593,7 +12606,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" ht="16.5" spans="1:28">
+    <row r="78" spans="1:28">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -12623,7 +12636,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" ht="16.5" spans="1:28">
+    <row r="79" spans="1:28">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -12653,7 +12666,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" ht="16.5" spans="1:28">
+    <row r="80" spans="1:28">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12683,7 +12696,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
     </row>
-    <row r="81" ht="16.5" spans="1:28">
+    <row r="81" spans="1:28">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12713,7 +12726,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
     </row>
-    <row r="82" ht="16.5" spans="1:28">
+    <row r="82" spans="1:28">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12743,7 +12756,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
     </row>
-    <row r="83" ht="16.5" spans="1:28">
+    <row r="83" spans="1:28">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12773,7 +12786,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
     </row>
-    <row r="84" ht="16.5" spans="1:28">
+    <row r="84" spans="1:28">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12803,7 +12816,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" ht="16.5" spans="1:28">
+    <row r="85" spans="1:28">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -12833,7 +12846,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" ht="16.5" spans="1:28">
+    <row r="86" spans="1:28">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -12863,7 +12876,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" ht="16.5" spans="1:28">
+    <row r="87" spans="1:28">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12893,7 +12906,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
-    <row r="88" ht="16.5" spans="1:28">
+    <row r="88" spans="1:28">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -12923,7 +12936,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
     </row>
-    <row r="89" ht="16.5" spans="1:28">
+    <row r="89" spans="1:28">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -12953,7 +12966,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
     </row>
-    <row r="90" ht="16.5" spans="1:28">
+    <row r="90" spans="1:28">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -12983,7 +12996,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
     </row>
-    <row r="91" ht="16.5" spans="1:28">
+    <row r="91" spans="1:28">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -13013,7 +13026,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
     </row>
-    <row r="92" ht="16.5" spans="1:28">
+    <row r="92" spans="1:28">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -13043,7 +13056,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
     </row>
-    <row r="93" ht="16.5" spans="1:28">
+    <row r="93" spans="1:28">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -13073,7 +13086,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
     </row>
-    <row r="94" ht="16.5" spans="1:28">
+    <row r="94" spans="1:28">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -13103,7 +13116,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
     </row>
-    <row r="95" ht="16.5" spans="1:28">
+    <row r="95" spans="1:28">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -13133,7 +13146,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" ht="16.5" spans="1:28">
+    <row r="96" spans="1:28">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -13163,7 +13176,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" ht="16.5" spans="1:28">
+    <row r="97" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -13193,7 +13206,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" ht="16.5" spans="1:28">
+    <row r="98" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -13223,7 +13236,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" ht="16.5" spans="1:28">
+    <row r="99" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -13253,7 +13266,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" ht="16.5" spans="1:28">
+    <row r="100" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -13283,7 +13296,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" ht="16.5" spans="1:28">
+    <row r="101" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -13313,7 +13326,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" ht="16.5" spans="1:28">
+    <row r="102" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -13343,7 +13356,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" ht="16.5" spans="1:28">
+    <row r="103" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -13373,7 +13386,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" ht="16.5" spans="1:28">
+    <row r="104" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -13403,7 +13416,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" ht="16.5" spans="1:28">
+    <row r="105" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -13433,7 +13446,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" ht="16.5" spans="1:28">
+    <row r="106" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -13463,7 +13476,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" ht="16.5" spans="1:28">
+    <row r="107" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -13493,7 +13506,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" ht="16.5" spans="1:28">
+    <row r="108" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -13523,7 +13536,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" ht="16.5" spans="1:28">
+    <row r="109" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -13553,7 +13566,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" ht="16.5" spans="1:28">
+    <row r="110" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -13583,7 +13596,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" ht="16.5" spans="1:28">
+    <row r="111" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -13613,7 +13626,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" ht="16.5" spans="1:28">
+    <row r="112" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -13643,7 +13656,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" ht="16.5" spans="1:28">
+    <row r="113" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -13673,7 +13686,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" ht="16.5" spans="1:28">
+    <row r="114" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -13703,7 +13716,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" ht="16.5" spans="1:28">
+    <row r="115" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13733,7 +13746,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" ht="16.5" spans="1:28">
+    <row r="116" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -13763,7 +13776,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" ht="16.5" spans="1:28">
+    <row r="117" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -13793,7 +13806,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" ht="16.5" spans="1:28">
+    <row r="118" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -13823,7 +13836,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" ht="16.5" spans="1:28">
+    <row r="119" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -13853,7 +13866,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" ht="16.5" spans="1:28">
+    <row r="120" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -13883,7 +13896,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" ht="16.5" spans="1:28">
+    <row r="121" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -13913,7 +13926,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" ht="16.5" spans="1:28">
+    <row r="122" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -13943,7 +13956,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" ht="16.5" spans="1:28">
+    <row r="123" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -13973,7 +13986,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" ht="16.5" spans="1:28">
+    <row r="124" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -14003,7 +14016,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" ht="16.5" spans="1:28">
+    <row r="125" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -14033,7 +14046,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" ht="16.5" spans="1:28">
+    <row r="126" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -14063,7 +14076,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" ht="16.5" spans="1:28">
+    <row r="127" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -14093,7 +14106,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" ht="16.5" spans="1:28">
+    <row r="128" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -14123,7 +14136,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" ht="16.5" spans="1:28">
+    <row r="129" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -14153,7 +14166,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" ht="16.5" spans="1:28">
+    <row r="130" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -14183,7 +14196,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" ht="16.5" spans="1:28">
+    <row r="131" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -14213,7 +14226,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" ht="16.5" spans="1:28">
+    <row r="132" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -14243,7 +14256,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" ht="16.5" spans="1:28">
+    <row r="133" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -14273,7 +14286,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" ht="16.5" spans="1:28">
+    <row r="134" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -14303,7 +14316,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" ht="16.5" spans="1:28">
+    <row r="135" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -14333,7 +14346,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" ht="16.5" spans="1:28">
+    <row r="136" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -14363,7 +14376,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" ht="16.5" spans="1:28">
+    <row r="137" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -14393,7 +14406,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" ht="16.5" spans="1:28">
+    <row r="138" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -14423,7 +14436,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" ht="16.5" spans="1:28">
+    <row r="139" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -14453,7 +14466,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" ht="16.5" spans="1:28">
+    <row r="140" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -14483,7 +14496,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" ht="16.5" spans="1:28">
+    <row r="141" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -14513,7 +14526,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" ht="16.5" spans="1:28">
+    <row r="142" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -14543,7 +14556,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" ht="16.5" spans="1:28">
+    <row r="143" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -14573,7 +14586,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" ht="16.5" spans="1:28">
+    <row r="144" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -14603,7 +14616,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" ht="16.5" spans="1:28">
+    <row r="145" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -14633,7 +14646,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" ht="16.5" spans="1:28">
+    <row r="146" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -14663,7 +14676,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" ht="16.5" spans="1:28">
+    <row r="147" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -14693,7 +14706,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" ht="16.5" spans="1:28">
+    <row r="148" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -14723,7 +14736,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" ht="16.5" spans="1:28">
+    <row r="149" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -14753,7 +14766,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" ht="16.5" spans="1:28">
+    <row r="150" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -14783,7 +14796,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" ht="16.5" spans="1:28">
+    <row r="151" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -14813,7 +14826,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" ht="16.5" spans="1:28">
+    <row r="152" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -14843,7 +14856,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" ht="16.5" spans="1:28">
+    <row r="153" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -14873,7 +14886,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" ht="16.5" spans="1:28">
+    <row r="154" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -14903,7 +14916,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" ht="16.5" spans="1:28">
+    <row r="155" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -14933,7 +14946,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" ht="16.5" spans="1:28">
+    <row r="156" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -14963,7 +14976,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" ht="16.5" spans="1:28">
+    <row r="157" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -14993,7 +15006,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" ht="16.5" spans="1:28">
+    <row r="158" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -15023,7 +15036,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" ht="16.5" spans="1:28">
+    <row r="159" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -15053,7 +15066,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" ht="16.5" spans="1:28">
+    <row r="160" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -15083,7 +15096,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" ht="16.5" spans="1:28">
+    <row r="161" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -15113,7 +15126,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" ht="16.5" spans="1:28">
+    <row r="162" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -15143,7 +15156,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" ht="16.5" spans="1:28">
+    <row r="163" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -15173,7 +15186,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" ht="16.5" spans="1:28">
+    <row r="164" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -15203,7 +15216,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" ht="16.5" spans="1:28">
+    <row r="165" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -15233,7 +15246,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" ht="16.5" spans="1:28">
+    <row r="166" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -15263,7 +15276,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" ht="16.5" spans="1:28">
+    <row r="167" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -15293,7 +15306,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" ht="16.5" spans="1:28">
+    <row r="168" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -15323,7 +15336,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" ht="16.5" spans="1:28">
+    <row r="169" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -15353,7 +15366,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" ht="16.5" spans="1:28">
+    <row r="170" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -15383,7 +15396,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" ht="16.5" spans="1:28">
+    <row r="171" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -15413,7 +15426,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" ht="16.5" spans="1:28">
+    <row r="172" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -15443,7 +15456,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" ht="16.5" spans="1:28">
+    <row r="173" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -15473,7 +15486,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" ht="16.5" spans="1:28">
+    <row r="174" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -15503,7 +15516,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" ht="16.5" spans="1:28">
+    <row r="175" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -15533,7 +15546,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" ht="16.5" spans="1:28">
+    <row r="176" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -15563,7 +15576,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" ht="16.5" spans="1:28">
+    <row r="177" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -15593,7 +15606,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" ht="16.5" spans="1:28">
+    <row r="178" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -15623,7 +15636,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" ht="16.5" spans="1:28">
+    <row r="179" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -15653,7 +15666,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" ht="16.5" spans="1:28">
+    <row r="180" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -15683,7 +15696,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" ht="16.5" spans="1:28">
+    <row r="181" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -15713,7 +15726,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" ht="16.5" spans="1:28">
+    <row r="182" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -15743,7 +15756,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" ht="16.5" spans="1:28">
+    <row r="183" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -15773,7 +15786,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" ht="16.5" spans="1:28">
+    <row r="184" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -15803,7 +15816,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" ht="16.5" spans="1:28">
+    <row r="185" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -15833,7 +15846,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" ht="16.5" spans="1:28">
+    <row r="186" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -15863,7 +15876,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" ht="16.5" spans="1:28">
+    <row r="187" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -15893,7 +15906,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" ht="16.5" spans="1:28">
+    <row r="188" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -15923,7 +15936,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" ht="16.5" spans="1:28">
+    <row r="189" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -15953,7 +15966,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" ht="16.5" spans="1:28">
+    <row r="190" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -15983,7 +15996,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" ht="16.5" spans="1:28">
+    <row r="191" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -16013,7 +16026,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" ht="16.5" spans="1:28">
+    <row r="192" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -16043,7 +16056,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" ht="16.5" spans="1:28">
+    <row r="193" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -16073,7 +16086,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" ht="16.5" spans="1:28">
+    <row r="194" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -16103,7 +16116,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" ht="16.5" spans="1:28">
+    <row r="195" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -16133,7 +16146,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" ht="16.5" spans="1:28">
+    <row r="196" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -16163,7 +16176,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" ht="16.5" spans="1:28">
+    <row r="197" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -16193,7 +16206,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" ht="16.5" spans="1:28">
+    <row r="198" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -16223,7 +16236,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" ht="16.5" spans="1:28">
+    <row r="199" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -16253,7 +16266,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" ht="16.5" spans="1:28">
+    <row r="200" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="183">
   <si>
     <t>单元格里的
 [回车键]用
@@ -405,6 +405,9 @@
     <t>“我的主页”继续编码与修正</t>
   </si>
   <si>
+    <t>对后台的类分层管理，对每一层有了清晰的认识</t>
+  </si>
+  <si>
     <t>其他例子</t>
   </si>
   <si>
@@ -791,11 +794,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -837,8 +840,83 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,60 +930,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,23 +947,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,23 +962,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -975,14 +978,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,7 +1003,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1039,67 +1042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,25 +1060,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,7 +1090,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,25 +1144,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,37 +1186,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,7 +1210,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,15 +1334,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1375,10 +1351,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1395,6 +1369,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1417,30 +1426,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1451,152 +1436,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1678,13 +1663,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2041,11 +2023,11 @@
   <sheetPr/>
   <dimension ref="A1:AB247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="5.2" customWidth="1"/>
@@ -2093,7 +2075,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" ht="16.5" spans="1:28">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -3685,10 +3667,10 @@
       <c r="D39" s="20">
         <v>43648</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="28"/>
+      <c r="F39" s="27"/>
       <c r="G39" s="14">
         <v>43648</v>
       </c>
@@ -3727,10 +3709,10 @@
       <c r="D40" s="20">
         <v>43649</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="28"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="14">
         <v>43649</v>
       </c>
@@ -3769,10 +3751,10 @@
       <c r="D41" s="20">
         <v>43649</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="28"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="20">
         <v>43649</v>
       </c>
@@ -3811,10 +3793,10 @@
       <c r="D42" s="20">
         <v>43649</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="28"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="20">
         <v>43649</v>
       </c>
@@ -3853,10 +3835,10 @@
       <c r="D43" s="20">
         <v>43649</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F43" s="28"/>
+      <c r="F43" s="27"/>
       <c r="G43" s="20">
         <v>43649</v>
       </c>
@@ -3895,10 +3877,10 @@
       <c r="D44" s="20">
         <v>43649</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="28"/>
+      <c r="F44" s="27"/>
       <c r="G44" s="20">
         <v>43649</v>
       </c>
@@ -3937,10 +3919,10 @@
       <c r="D45" s="20">
         <v>43649</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="28"/>
+      <c r="F45" s="27"/>
       <c r="G45" s="20">
         <v>43649</v>
       </c>
@@ -3970,12 +3952,25 @@
     </row>
     <row r="46" ht="53.1" customHeight="1" spans="1:28">
       <c r="A46" s="6"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="20">
+        <v>43649</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="28"/>
+      <c r="G46" s="20">
+        <v>43649</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -4001,8 +3996,8 @@
       <c r="A47" s="6"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="5"/>
@@ -4030,8 +4025,8 @@
       <c r="A48" s="6"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="28"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="27"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="5"/>
@@ -4059,8 +4054,8 @@
       <c r="A49" s="6"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="28"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="27"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="5"/>
@@ -4316,7 +4311,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="6"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -4352,7 +4347,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="30"/>
+      <c r="H59" s="29"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -4403,7 +4398,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="6"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4490,7 +4485,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="6"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -4577,7 +4572,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="6"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -5104,7 +5099,7 @@
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="31"/>
+      <c r="F85" s="30"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="5"/>
@@ -5447,7 +5442,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" ht="16.5" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -5477,7 +5472,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" ht="16.5" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -5507,7 +5502,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" ht="16.5" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -5537,7 +5532,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" ht="16.5" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -5567,7 +5562,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" ht="16.5" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -5597,7 +5592,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" ht="16.5" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -5627,7 +5622,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" ht="16.5" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -5657,7 +5652,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" ht="16.5" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -5687,7 +5682,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" ht="16.5" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5717,7 +5712,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" ht="16.5" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5747,7 +5742,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" ht="16.5" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5777,7 +5772,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" ht="16.5" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5807,7 +5802,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" ht="16.5" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5837,7 +5832,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" ht="16.5" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5867,7 +5862,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" ht="16.5" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5897,7 +5892,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" ht="16.5" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5927,7 +5922,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" ht="16.5" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5957,7 +5952,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" ht="16.5" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5987,7 +5982,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" ht="16.5" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -6017,7 +6012,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" ht="16.5" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -6047,7 +6042,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" ht="16.5" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -6077,7 +6072,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" ht="16.5" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -6107,7 +6102,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" ht="16.5" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -6137,7 +6132,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" ht="16.5" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -6167,7 +6162,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" ht="16.5" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -6197,7 +6192,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" ht="16.5" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -6227,7 +6222,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" ht="16.5" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -6257,7 +6252,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" ht="16.5" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -6287,7 +6282,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" ht="16.5" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -6317,7 +6312,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" ht="16.5" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -6347,7 +6342,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" ht="16.5" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -6377,7 +6372,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" ht="16.5" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -6407,7 +6402,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" ht="16.5" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -6437,7 +6432,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" ht="16.5" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -6467,7 +6462,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" ht="16.5" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -6497,7 +6492,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" ht="16.5" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -6527,7 +6522,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" ht="16.5" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -6557,7 +6552,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" ht="16.5" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -6587,7 +6582,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" ht="16.5" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6617,7 +6612,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" ht="16.5" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6647,7 +6642,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" ht="16.5" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -6677,7 +6672,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" ht="16.5" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -6707,7 +6702,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" ht="16.5" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6737,7 +6732,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" ht="16.5" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6767,7 +6762,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" ht="16.5" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6797,7 +6792,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" ht="16.5" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6827,7 +6822,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" ht="16.5" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6857,7 +6852,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" ht="16.5" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6887,7 +6882,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" ht="16.5" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6917,7 +6912,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" ht="16.5" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6947,7 +6942,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" ht="16.5" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6977,7 +6972,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" ht="16.5" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -7007,7 +7002,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" ht="16.5" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -7037,7 +7032,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" ht="16.5" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -7067,7 +7062,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" ht="16.5" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -7097,7 +7092,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" ht="16.5" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -7127,7 +7122,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" ht="16.5" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -7157,7 +7152,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" ht="16.5" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -7187,7 +7182,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" ht="16.5" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -7217,7 +7212,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" ht="16.5" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -7247,7 +7242,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" ht="16.5" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -7277,7 +7272,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" ht="16.5" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -7307,7 +7302,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" ht="16.5" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -7337,7 +7332,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" ht="16.5" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -7367,7 +7362,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" ht="16.5" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -7397,7 +7392,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" ht="16.5" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -7427,7 +7422,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" ht="16.5" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -7457,7 +7452,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" ht="16.5" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -7487,7 +7482,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" ht="16.5" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -7517,7 +7512,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" ht="16.5" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -7547,7 +7542,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" ht="16.5" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -7577,7 +7572,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" ht="16.5" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -7607,7 +7602,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" ht="16.5" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -7637,7 +7632,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" ht="16.5" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7667,7 +7662,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" ht="16.5" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7697,7 +7692,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" ht="16.5" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7727,7 +7722,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" ht="16.5" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7757,7 +7752,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" ht="16.5" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7787,7 +7782,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" ht="16.5" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7817,7 +7812,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" ht="16.5" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7847,7 +7842,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" ht="16.5" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7877,7 +7872,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" ht="16.5" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -7907,7 +7902,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" ht="16.5" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -7937,7 +7932,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" ht="16.5" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -7967,7 +7962,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" ht="16.5" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -7997,7 +7992,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" ht="16.5" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -8027,7 +8022,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" ht="16.5" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -8057,7 +8052,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" ht="16.5" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -8087,7 +8082,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" ht="16.5" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -8117,7 +8112,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" ht="16.5" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -8147,7 +8142,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" ht="16.5" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -8177,7 +8172,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" ht="16.5" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -8207,7 +8202,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" ht="16.5" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -8237,7 +8232,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" ht="16.5" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -8267,7 +8262,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" ht="16.5" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -8297,7 +8292,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" ht="16.5" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -8327,7 +8322,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" ht="16.5" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -8357,7 +8352,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" ht="16.5" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -8387,7 +8382,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" ht="16.5" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -8417,7 +8412,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" ht="16.5" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -8447,7 +8442,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" ht="16.5" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -8477,7 +8472,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" ht="16.5" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -8507,7 +8502,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" ht="16.5" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -8537,7 +8532,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" ht="16.5" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -8567,7 +8562,7 @@
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
     </row>
-    <row r="201" spans="1:28">
+    <row r="201" ht="16.5" spans="1:28">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -8597,7 +8592,7 @@
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
     </row>
-    <row r="202" spans="1:28">
+    <row r="202" ht="16.5" spans="1:28">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -8627,7 +8622,7 @@
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
     </row>
-    <row r="203" spans="1:28">
+    <row r="203" ht="16.5" spans="1:28">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -8657,7 +8652,7 @@
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
     </row>
-    <row r="204" spans="1:28">
+    <row r="204" ht="16.5" spans="1:28">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -8687,7 +8682,7 @@
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
     </row>
-    <row r="205" spans="1:28">
+    <row r="205" ht="16.5" spans="1:28">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -8717,7 +8712,7 @@
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
     </row>
-    <row r="206" spans="1:28">
+    <row r="206" ht="16.5" spans="1:28">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -8747,7 +8742,7 @@
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
     </row>
-    <row r="207" spans="1:28">
+    <row r="207" ht="16.5" spans="1:28">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -8777,7 +8772,7 @@
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
     </row>
-    <row r="208" spans="1:28">
+    <row r="208" ht="16.5" spans="1:28">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -8807,7 +8802,7 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
     </row>
-    <row r="209" spans="1:28">
+    <row r="209" ht="16.5" spans="1:28">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -8837,7 +8832,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
     </row>
-    <row r="210" spans="1:28">
+    <row r="210" ht="16.5" spans="1:28">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -8867,7 +8862,7 @@
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
     </row>
-    <row r="211" spans="1:28">
+    <row r="211" ht="16.5" spans="1:28">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -8897,7 +8892,7 @@
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
     </row>
-    <row r="212" spans="1:28">
+    <row r="212" ht="16.5" spans="1:28">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -8927,7 +8922,7 @@
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
     </row>
-    <row r="213" spans="1:28">
+    <row r="213" ht="16.5" spans="1:28">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -8957,7 +8952,7 @@
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
     </row>
-    <row r="214" spans="1:28">
+    <row r="214" ht="16.5" spans="1:28">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -8987,7 +8982,7 @@
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
     </row>
-    <row r="215" spans="1:28">
+    <row r="215" ht="16.5" spans="1:28">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -9017,7 +9012,7 @@
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
     </row>
-    <row r="216" spans="1:28">
+    <row r="216" ht="16.5" spans="1:28">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -9047,7 +9042,7 @@
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
     </row>
-    <row r="217" spans="1:28">
+    <row r="217" ht="16.5" spans="1:28">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -9077,7 +9072,7 @@
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
     </row>
-    <row r="218" spans="1:28">
+    <row r="218" ht="16.5" spans="1:28">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -9107,7 +9102,7 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
     </row>
-    <row r="219" spans="1:28">
+    <row r="219" ht="16.5" spans="1:28">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -9137,7 +9132,7 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
     </row>
-    <row r="220" spans="1:28">
+    <row r="220" ht="16.5" spans="1:28">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -9167,7 +9162,7 @@
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
     </row>
-    <row r="221" spans="1:28">
+    <row r="221" ht="16.5" spans="1:28">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -9197,7 +9192,7 @@
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
     </row>
-    <row r="222" spans="1:28">
+    <row r="222" ht="16.5" spans="1:28">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -9227,7 +9222,7 @@
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
     </row>
-    <row r="223" spans="1:28">
+    <row r="223" ht="16.5" spans="1:28">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -9257,7 +9252,7 @@
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
     </row>
-    <row r="224" spans="1:28">
+    <row r="224" ht="16.5" spans="1:28">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -9287,7 +9282,7 @@
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
     </row>
-    <row r="225" spans="1:28">
+    <row r="225" ht="16.5" spans="1:28">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -9317,7 +9312,7 @@
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
     </row>
-    <row r="226" spans="1:28">
+    <row r="226" ht="16.5" spans="1:28">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -9347,7 +9342,7 @@
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
     </row>
-    <row r="227" spans="1:28">
+    <row r="227" ht="16.5" spans="1:28">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -9377,7 +9372,7 @@
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
     </row>
-    <row r="228" spans="1:28">
+    <row r="228" ht="16.5" spans="1:28">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -9407,7 +9402,7 @@
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
     </row>
-    <row r="229" spans="1:28">
+    <row r="229" ht="16.5" spans="1:28">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -9437,7 +9432,7 @@
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
     </row>
-    <row r="230" spans="1:28">
+    <row r="230" ht="16.5" spans="1:28">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -9467,7 +9462,7 @@
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
     </row>
-    <row r="231" spans="1:28">
+    <row r="231" ht="16.5" spans="1:28">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -9497,7 +9492,7 @@
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
     </row>
-    <row r="232" spans="1:28">
+    <row r="232" ht="16.5" spans="1:28">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -9527,7 +9522,7 @@
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
     </row>
-    <row r="233" spans="1:28">
+    <row r="233" ht="16.5" spans="1:28">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -9557,7 +9552,7 @@
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
     </row>
-    <row r="234" spans="1:28">
+    <row r="234" ht="16.5" spans="1:28">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -9587,7 +9582,7 @@
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
     </row>
-    <row r="235" spans="1:28">
+    <row r="235" ht="16.5" spans="1:28">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -9617,7 +9612,7 @@
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
     </row>
-    <row r="236" spans="1:28">
+    <row r="236" ht="16.5" spans="1:28">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -9647,7 +9642,7 @@
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
     </row>
-    <row r="237" spans="1:28">
+    <row r="237" ht="16.5" spans="1:28">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -9677,7 +9672,7 @@
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
     </row>
-    <row r="238" spans="1:28">
+    <row r="238" ht="16.5" spans="1:28">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -9707,7 +9702,7 @@
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
     </row>
-    <row r="239" spans="1:28">
+    <row r="239" ht="16.5" spans="1:28">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -9737,7 +9732,7 @@
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
     </row>
-    <row r="240" spans="1:28">
+    <row r="240" ht="16.5" spans="1:28">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -9767,7 +9762,7 @@
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
     </row>
-    <row r="241" spans="1:28">
+    <row r="241" ht="16.5" spans="1:28">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -9797,7 +9792,7 @@
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
     </row>
-    <row r="242" spans="1:28">
+    <row r="242" ht="16.5" spans="1:28">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -9827,7 +9822,7 @@
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
     </row>
-    <row r="243" spans="1:28">
+    <row r="243" ht="16.5" spans="1:28">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -9857,7 +9852,7 @@
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
     </row>
-    <row r="244" spans="1:28">
+    <row r="244" ht="16.5" spans="1:28">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -9887,7 +9882,7 @@
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
     </row>
-    <row r="245" spans="1:28">
+    <row r="245" ht="16.5" spans="1:28">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -9917,7 +9912,7 @@
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
     </row>
-    <row r="246" spans="1:28">
+    <row r="246" ht="16.5" spans="1:28">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -9947,7 +9942,7 @@
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
     </row>
-    <row r="247" spans="1:28">
+    <row r="247" ht="16.5" spans="1:28">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -9996,7 +9991,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -10013,7 +10008,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -10046,13 +10041,13 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" ht="16.5" spans="1:28">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -10064,7 +10059,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -10095,13 +10090,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -10136,17 +10131,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -10177,13 +10172,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -10218,13 +10213,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -10249,7 +10244,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" ht="16.5" spans="1:28">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -10259,19 +10254,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -10292,7 +10287,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" ht="16.5" spans="1:28">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -10302,19 +10297,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -10345,13 +10340,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -10376,7 +10371,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" ht="16.5" spans="1:28">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10386,13 +10381,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -10424,13 +10419,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -10462,19 +10457,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -10505,17 +10500,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -10546,19 +10541,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -10589,13 +10584,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -10628,19 +10623,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10661,7 +10656,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" ht="16.5" spans="1:28">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10670,13 +10665,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10699,7 +10694,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" ht="16.5" spans="1:28">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10708,13 +10703,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10746,19 +10741,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10788,17 +10783,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10828,13 +10823,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10866,19 +10861,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10908,13 +10903,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10946,13 +10941,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10984,13 +10979,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -11022,13 +11017,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -11060,13 +11055,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -11098,13 +11093,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -11136,13 +11131,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -11176,10 +11171,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -11212,10 +11207,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -11248,17 +11243,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -11288,17 +11283,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -11319,7 +11314,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" ht="16.5" spans="1:28">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -11328,17 +11323,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -11359,7 +11354,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" ht="16.5" spans="1:28">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -11368,13 +11363,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -11397,7 +11392,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" ht="16.5" spans="1:28">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11406,13 +11401,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -11444,10 +11439,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -11480,17 +11475,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -11520,10 +11515,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -11556,10 +11551,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -11583,7 +11578,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" ht="16.5" spans="1:28">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -11592,17 +11587,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -11623,7 +11618,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" ht="16.5" spans="1:28">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11632,10 +11627,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11668,13 +11663,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11706,10 +11701,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11733,7 +11728,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" ht="16.5" spans="1:28">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -11763,7 +11758,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" ht="16.5" spans="1:28">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -11793,7 +11788,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" ht="16.5" spans="1:28">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -11802,13 +11797,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11840,13 +11835,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -11869,7 +11864,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" ht="16.5" spans="1:28">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -11899,7 +11894,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" ht="16.5" spans="1:28">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11929,7 +11924,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" ht="16.5" spans="1:28">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -11959,7 +11954,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" ht="16.5" spans="1:28">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -11989,7 +11984,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" ht="16.5" spans="1:28">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -12019,7 +12014,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" ht="16.5" spans="1:28">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -12049,7 +12044,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" ht="16.5" spans="1:28">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -12079,7 +12074,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" ht="16.5" spans="1:28">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -12109,7 +12104,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" ht="16.5" spans="1:28">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -12139,7 +12134,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -12169,7 +12164,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" ht="16.5" spans="1:28">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -12199,7 +12194,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" ht="16.5" spans="1:28">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -12229,7 +12224,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -12259,7 +12254,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" ht="16.5" spans="1:28">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -12289,7 +12284,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" ht="16.5" spans="1:28">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -12319,7 +12314,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -12349,7 +12344,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" ht="16.5" spans="1:28">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -12379,7 +12374,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" ht="16.5" spans="1:28">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -12409,7 +12404,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -12439,7 +12434,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" ht="16.5" spans="1:28">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -12469,7 +12464,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" ht="16.5" spans="1:28">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -12499,7 +12494,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" ht="16.5" spans="1:28">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -12529,7 +12524,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" ht="16.5" spans="1:28">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -12559,7 +12554,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" ht="16.5" spans="1:28">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -12589,7 +12584,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" ht="16.5" spans="1:28">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -12619,7 +12614,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" ht="16.5" spans="1:28">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -12649,7 +12644,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" ht="16.5" spans="1:28">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -12679,7 +12674,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" ht="16.5" spans="1:28">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -12709,7 +12704,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" ht="16.5" spans="1:28">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12739,7 +12734,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" ht="16.5" spans="1:28">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -12769,7 +12764,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" ht="16.5" spans="1:28">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -12799,7 +12794,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" ht="16.5" spans="1:28">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12829,7 +12824,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" ht="16.5" spans="1:28">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12859,7 +12854,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" ht="16.5" spans="1:28">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12889,7 +12884,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" ht="16.5" spans="1:28">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12919,7 +12914,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" ht="16.5" spans="1:28">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12949,7 +12944,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" ht="16.5" spans="1:28">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -12979,7 +12974,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" ht="16.5" spans="1:28">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -13009,7 +13004,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" ht="16.5" spans="1:28">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -13039,7 +13034,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" ht="16.5" spans="1:28">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -13069,7 +13064,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" ht="16.5" spans="1:28">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -13099,7 +13094,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" ht="16.5" spans="1:28">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -13129,7 +13124,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" ht="16.5" spans="1:28">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -13159,7 +13154,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" ht="16.5" spans="1:28">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -13189,7 +13184,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" ht="16.5" spans="1:28">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -13219,7 +13214,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" ht="16.5" spans="1:28">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -13249,7 +13244,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" ht="16.5" spans="1:28">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -13279,7 +13274,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" ht="16.5" spans="1:28">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -13309,7 +13304,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" ht="16.5" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -13339,7 +13334,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" ht="16.5" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -13369,7 +13364,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" ht="16.5" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -13399,7 +13394,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" ht="16.5" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -13429,7 +13424,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" ht="16.5" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -13459,7 +13454,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" ht="16.5" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -13489,7 +13484,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" ht="16.5" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -13519,7 +13514,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" ht="16.5" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -13549,7 +13544,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" ht="16.5" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -13579,7 +13574,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" ht="16.5" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -13609,7 +13604,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" ht="16.5" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -13639,7 +13634,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" ht="16.5" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -13669,7 +13664,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" ht="16.5" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -13699,7 +13694,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" ht="16.5" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -13729,7 +13724,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" ht="16.5" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -13759,7 +13754,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" ht="16.5" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -13789,7 +13784,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" ht="16.5" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -13819,7 +13814,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" ht="16.5" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -13849,7 +13844,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" ht="16.5" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13879,7 +13874,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" ht="16.5" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -13909,7 +13904,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" ht="16.5" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -13939,7 +13934,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" ht="16.5" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -13969,7 +13964,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" ht="16.5" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -13999,7 +13994,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" ht="16.5" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -14029,7 +14024,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" ht="16.5" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -14059,7 +14054,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" ht="16.5" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -14089,7 +14084,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" ht="16.5" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -14119,7 +14114,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" ht="16.5" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -14149,7 +14144,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" ht="16.5" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -14179,7 +14174,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" ht="16.5" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -14209,7 +14204,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" ht="16.5" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -14239,7 +14234,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" ht="16.5" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -14269,7 +14264,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" ht="16.5" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -14299,7 +14294,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" ht="16.5" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -14329,7 +14324,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" ht="16.5" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -14359,7 +14354,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" ht="16.5" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -14389,7 +14384,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" ht="16.5" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -14419,7 +14414,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" ht="16.5" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -14449,7 +14444,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" ht="16.5" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -14479,7 +14474,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" ht="16.5" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -14509,7 +14504,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" ht="16.5" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -14539,7 +14534,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" ht="16.5" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -14569,7 +14564,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" ht="16.5" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -14599,7 +14594,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" ht="16.5" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -14629,7 +14624,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" ht="16.5" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -14659,7 +14654,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" ht="16.5" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -14689,7 +14684,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" ht="16.5" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -14719,7 +14714,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" ht="16.5" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -14749,7 +14744,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" ht="16.5" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -14779,7 +14774,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" ht="16.5" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -14809,7 +14804,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" ht="16.5" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -14839,7 +14834,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" ht="16.5" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -14869,7 +14864,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" ht="16.5" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -14899,7 +14894,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" ht="16.5" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -14929,7 +14924,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" ht="16.5" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -14959,7 +14954,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" ht="16.5" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -14989,7 +14984,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" ht="16.5" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -15019,7 +15014,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" ht="16.5" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -15049,7 +15044,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" ht="16.5" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -15079,7 +15074,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" ht="16.5" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -15109,7 +15104,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" ht="16.5" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -15139,7 +15134,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" ht="16.5" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -15169,7 +15164,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" ht="16.5" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -15199,7 +15194,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" ht="16.5" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -15229,7 +15224,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" ht="16.5" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -15259,7 +15254,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" ht="16.5" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -15289,7 +15284,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" ht="16.5" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -15319,7 +15314,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" ht="16.5" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -15349,7 +15344,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" ht="16.5" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -15379,7 +15374,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" ht="16.5" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -15409,7 +15404,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" ht="16.5" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -15439,7 +15434,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" ht="16.5" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -15469,7 +15464,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" ht="16.5" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -15499,7 +15494,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" ht="16.5" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -15529,7 +15524,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" ht="16.5" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -15559,7 +15554,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" ht="16.5" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -15589,7 +15584,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" ht="16.5" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -15619,7 +15614,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" ht="16.5" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -15649,7 +15644,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" ht="16.5" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -15679,7 +15674,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" ht="16.5" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -15709,7 +15704,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" ht="16.5" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -15739,7 +15734,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" ht="16.5" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -15769,7 +15764,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" ht="16.5" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -15799,7 +15794,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" ht="16.5" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -15829,7 +15824,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" ht="16.5" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -15859,7 +15854,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" ht="16.5" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -15889,7 +15884,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" ht="16.5" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -15919,7 +15914,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" ht="16.5" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -15949,7 +15944,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" ht="16.5" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -15979,7 +15974,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" ht="16.5" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -16009,7 +16004,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" ht="16.5" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -16039,7 +16034,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" ht="16.5" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -16069,7 +16064,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" ht="16.5" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -16099,7 +16094,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" ht="16.5" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -16129,7 +16124,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" ht="16.5" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -16159,7 +16154,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" ht="16.5" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -16189,7 +16184,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" ht="16.5" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -16219,7 +16214,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" ht="16.5" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -16249,7 +16244,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" ht="16.5" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -16279,7 +16274,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" ht="16.5" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -16309,7 +16304,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" ht="16.5" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -16339,7 +16334,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" ht="16.5" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -16369,7 +16364,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" ht="16.5" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -16399,7 +16394,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" ht="16.5" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="187">
   <si>
     <t>单元格里的
 [回车键]用
@@ -417,6 +417,9 @@
     <t>用户个人中心页面与后台完成交互；首页的完善——尝试实现图片滚动功能；</t>
   </si>
   <si>
+    <t>管理员后台功能界面可以连接后台，正在完善界面</t>
+  </si>
+  <si>
     <t>其他例子</t>
   </si>
   <si>
@@ -803,10 +806,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="28">
@@ -849,6 +852,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -857,7 +921,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,88 +989,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -968,33 +996,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,7 +1015,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1045,43 +1048,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,49 +1096,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,13 +1138,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,31 +1156,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,25 +1210,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,30 +1343,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1391,11 +1364,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1426,16 +1405,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1445,148 +1442,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1731,6 +1728,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2013,20 +2015,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AB247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D45" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="5.2" customWidth="1"/>
@@ -2074,7 +2075,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:28">
+    <row r="2" spans="1:28">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -4077,7 +4078,12 @@
     </row>
     <row r="49" ht="65" customHeight="1" spans="1:28">
       <c r="A49" s="6"/>
-      <c r="C49" s="8"/>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="D49" s="20">
         <v>43650</v>
       </c>
@@ -4114,12 +4120,25 @@
     </row>
     <row r="50" ht="51" customHeight="1" spans="1:28">
       <c r="A50" s="6"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="20">
+        <v>43650</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="F50" s="9"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
+      <c r="G50" s="20">
+        <v>43650</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -4344,7 +4363,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" ht="16.5" spans="1:28">
+    <row r="58" spans="1:28">
       <c r="A58" s="6"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -4431,7 +4450,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" ht="16.5" spans="1:28">
+    <row r="61" spans="1:28">
       <c r="A61" s="6"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4518,7 +4537,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" ht="16.5" spans="1:28">
+    <row r="64" spans="1:28">
       <c r="A64" s="6"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -4605,7 +4624,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" ht="16.5" spans="1:28">
+    <row r="67" spans="1:28">
       <c r="A67" s="6"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -5475,7 +5494,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" ht="16.5" spans="1:28">
+    <row r="97" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -5505,7 +5524,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" ht="16.5" spans="1:28">
+    <row r="98" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -5535,7 +5554,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" ht="16.5" spans="1:28">
+    <row r="99" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -5565,7 +5584,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" ht="16.5" spans="1:28">
+    <row r="100" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -5595,7 +5614,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" ht="16.5" spans="1:28">
+    <row r="101" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -5625,7 +5644,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" ht="16.5" spans="1:28">
+    <row r="102" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -5655,7 +5674,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" ht="16.5" spans="1:28">
+    <row r="103" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -5685,7 +5704,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" ht="16.5" spans="1:28">
+    <row r="104" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -5715,7 +5734,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" ht="16.5" spans="1:28">
+    <row r="105" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5745,7 +5764,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" ht="16.5" spans="1:28">
+    <row r="106" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5775,7 +5794,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" ht="16.5" spans="1:28">
+    <row r="107" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5805,7 +5824,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" ht="16.5" spans="1:28">
+    <row r="108" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5835,7 +5854,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" ht="16.5" spans="1:28">
+    <row r="109" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5865,7 +5884,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" ht="16.5" spans="1:28">
+    <row r="110" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5895,7 +5914,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" ht="16.5" spans="1:28">
+    <row r="111" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5925,7 +5944,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" ht="16.5" spans="1:28">
+    <row r="112" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5955,7 +5974,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" ht="16.5" spans="1:28">
+    <row r="113" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5985,7 +6004,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" ht="16.5" spans="1:28">
+    <row r="114" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -6015,7 +6034,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" ht="16.5" spans="1:28">
+    <row r="115" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -6045,7 +6064,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" ht="16.5" spans="1:28">
+    <row r="116" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -6075,7 +6094,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" ht="16.5" spans="1:28">
+    <row r="117" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -6105,7 +6124,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" ht="16.5" spans="1:28">
+    <row r="118" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -6135,7 +6154,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" ht="16.5" spans="1:28">
+    <row r="119" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -6165,7 +6184,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" ht="16.5" spans="1:28">
+    <row r="120" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -6195,7 +6214,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" ht="16.5" spans="1:28">
+    <row r="121" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -6225,7 +6244,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" ht="16.5" spans="1:28">
+    <row r="122" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -6255,7 +6274,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" ht="16.5" spans="1:28">
+    <row r="123" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -6285,7 +6304,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" ht="16.5" spans="1:28">
+    <row r="124" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -6315,7 +6334,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" ht="16.5" spans="1:28">
+    <row r="125" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -6345,7 +6364,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" ht="16.5" spans="1:28">
+    <row r="126" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -6375,7 +6394,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" ht="16.5" spans="1:28">
+    <row r="127" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -6405,7 +6424,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" ht="16.5" spans="1:28">
+    <row r="128" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -6435,7 +6454,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" ht="16.5" spans="1:28">
+    <row r="129" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -6465,7 +6484,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" ht="16.5" spans="1:28">
+    <row r="130" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -6495,7 +6514,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" ht="16.5" spans="1:28">
+    <row r="131" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -6525,7 +6544,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" ht="16.5" spans="1:28">
+    <row r="132" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -6555,7 +6574,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" ht="16.5" spans="1:28">
+    <row r="133" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -6585,7 +6604,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" ht="16.5" spans="1:28">
+    <row r="134" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -6615,7 +6634,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" ht="16.5" spans="1:28">
+    <row r="135" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6645,7 +6664,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" ht="16.5" spans="1:28">
+    <row r="136" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6675,7 +6694,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" ht="16.5" spans="1:28">
+    <row r="137" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -6705,7 +6724,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" ht="16.5" spans="1:28">
+    <row r="138" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -6735,7 +6754,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" ht="16.5" spans="1:28">
+    <row r="139" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6765,7 +6784,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" ht="16.5" spans="1:28">
+    <row r="140" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6795,7 +6814,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" ht="16.5" spans="1:28">
+    <row r="141" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6825,7 +6844,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" ht="16.5" spans="1:28">
+    <row r="142" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6855,7 +6874,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" ht="16.5" spans="1:28">
+    <row r="143" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6885,7 +6904,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" ht="16.5" spans="1:28">
+    <row r="144" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6915,7 +6934,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" ht="16.5" spans="1:28">
+    <row r="145" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6945,7 +6964,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" ht="16.5" spans="1:28">
+    <row r="146" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6975,7 +6994,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" ht="16.5" spans="1:28">
+    <row r="147" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -7005,7 +7024,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" ht="16.5" spans="1:28">
+    <row r="148" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -7035,7 +7054,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" ht="16.5" spans="1:28">
+    <row r="149" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -7065,7 +7084,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" ht="16.5" spans="1:28">
+    <row r="150" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -7095,7 +7114,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" ht="16.5" spans="1:28">
+    <row r="151" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -7125,7 +7144,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" ht="16.5" spans="1:28">
+    <row r="152" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -7155,7 +7174,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" ht="16.5" spans="1:28">
+    <row r="153" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -7185,7 +7204,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" ht="16.5" spans="1:28">
+    <row r="154" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -7215,7 +7234,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" ht="16.5" spans="1:28">
+    <row r="155" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -7245,7 +7264,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" ht="16.5" spans="1:28">
+    <row r="156" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -7275,7 +7294,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" ht="16.5" spans="1:28">
+    <row r="157" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -7305,7 +7324,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" ht="16.5" spans="1:28">
+    <row r="158" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -7335,7 +7354,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" ht="16.5" spans="1:28">
+    <row r="159" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -7365,7 +7384,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" ht="16.5" spans="1:28">
+    <row r="160" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -7395,7 +7414,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" ht="16.5" spans="1:28">
+    <row r="161" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -7425,7 +7444,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" ht="16.5" spans="1:28">
+    <row r="162" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -7455,7 +7474,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" ht="16.5" spans="1:28">
+    <row r="163" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -7485,7 +7504,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" ht="16.5" spans="1:28">
+    <row r="164" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -7515,7 +7534,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" ht="16.5" spans="1:28">
+    <row r="165" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -7545,7 +7564,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" ht="16.5" spans="1:28">
+    <row r="166" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -7575,7 +7594,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" ht="16.5" spans="1:28">
+    <row r="167" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -7605,7 +7624,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" ht="16.5" spans="1:28">
+    <row r="168" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -7635,7 +7654,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" ht="16.5" spans="1:28">
+    <row r="169" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -7665,7 +7684,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" ht="16.5" spans="1:28">
+    <row r="170" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7695,7 +7714,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" ht="16.5" spans="1:28">
+    <row r="171" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7725,7 +7744,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" ht="16.5" spans="1:28">
+    <row r="172" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7755,7 +7774,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" ht="16.5" spans="1:28">
+    <row r="173" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7785,7 +7804,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" ht="16.5" spans="1:28">
+    <row r="174" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7815,7 +7834,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" ht="16.5" spans="1:28">
+    <row r="175" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7845,7 +7864,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" ht="16.5" spans="1:28">
+    <row r="176" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7875,7 +7894,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" ht="16.5" spans="1:28">
+    <row r="177" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7905,7 +7924,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" ht="16.5" spans="1:28">
+    <row r="178" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -7935,7 +7954,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" ht="16.5" spans="1:28">
+    <row r="179" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -7965,7 +7984,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" ht="16.5" spans="1:28">
+    <row r="180" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -7995,7 +8014,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" ht="16.5" spans="1:28">
+    <row r="181" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -8025,7 +8044,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" ht="16.5" spans="1:28">
+    <row r="182" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -8055,7 +8074,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" ht="16.5" spans="1:28">
+    <row r="183" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -8085,7 +8104,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" ht="16.5" spans="1:28">
+    <row r="184" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -8115,7 +8134,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" ht="16.5" spans="1:28">
+    <row r="185" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -8145,7 +8164,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" ht="16.5" spans="1:28">
+    <row r="186" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -8175,7 +8194,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" ht="16.5" spans="1:28">
+    <row r="187" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -8205,7 +8224,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" ht="16.5" spans="1:28">
+    <row r="188" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -8235,7 +8254,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" ht="16.5" spans="1:28">
+    <row r="189" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -8265,7 +8284,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" ht="16.5" spans="1:28">
+    <row r="190" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -8295,7 +8314,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" ht="16.5" spans="1:28">
+    <row r="191" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -8325,7 +8344,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" ht="16.5" spans="1:28">
+    <row r="192" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -8355,7 +8374,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" ht="16.5" spans="1:28">
+    <row r="193" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -8385,7 +8404,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" ht="16.5" spans="1:28">
+    <row r="194" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -8415,7 +8434,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" ht="16.5" spans="1:28">
+    <row r="195" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -8445,7 +8464,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" ht="16.5" spans="1:28">
+    <row r="196" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -8475,7 +8494,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" ht="16.5" spans="1:28">
+    <row r="197" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -8505,7 +8524,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" ht="16.5" spans="1:28">
+    <row r="198" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -8535,7 +8554,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" ht="16.5" spans="1:28">
+    <row r="199" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -8565,7 +8584,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" ht="16.5" spans="1:28">
+    <row r="200" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -8595,7 +8614,7 @@
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
     </row>
-    <row r="201" ht="16.5" spans="1:28">
+    <row r="201" spans="1:28">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -8625,7 +8644,7 @@
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
     </row>
-    <row r="202" ht="16.5" spans="1:28">
+    <row r="202" spans="1:28">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -8655,7 +8674,7 @@
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
     </row>
-    <row r="203" ht="16.5" spans="1:28">
+    <row r="203" spans="1:28">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -8685,7 +8704,7 @@
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
     </row>
-    <row r="204" ht="16.5" spans="1:28">
+    <row r="204" spans="1:28">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -8715,7 +8734,7 @@
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
     </row>
-    <row r="205" ht="16.5" spans="1:28">
+    <row r="205" spans="1:28">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -8745,7 +8764,7 @@
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
     </row>
-    <row r="206" ht="16.5" spans="1:28">
+    <row r="206" spans="1:28">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -8775,7 +8794,7 @@
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
     </row>
-    <row r="207" ht="16.5" spans="1:28">
+    <row r="207" spans="1:28">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -8805,7 +8824,7 @@
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
     </row>
-    <row r="208" ht="16.5" spans="1:28">
+    <row r="208" spans="1:28">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -8835,7 +8854,7 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
     </row>
-    <row r="209" ht="16.5" spans="1:28">
+    <row r="209" spans="1:28">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -8865,7 +8884,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
     </row>
-    <row r="210" ht="16.5" spans="1:28">
+    <row r="210" spans="1:28">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -8895,7 +8914,7 @@
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
     </row>
-    <row r="211" ht="16.5" spans="1:28">
+    <row r="211" spans="1:28">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -8925,7 +8944,7 @@
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
     </row>
-    <row r="212" ht="16.5" spans="1:28">
+    <row r="212" spans="1:28">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -8955,7 +8974,7 @@
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
     </row>
-    <row r="213" ht="16.5" spans="1:28">
+    <row r="213" spans="1:28">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -8985,7 +9004,7 @@
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
     </row>
-    <row r="214" ht="16.5" spans="1:28">
+    <row r="214" spans="1:28">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -9015,7 +9034,7 @@
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
     </row>
-    <row r="215" ht="16.5" spans="1:28">
+    <row r="215" spans="1:28">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -9045,7 +9064,7 @@
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
     </row>
-    <row r="216" ht="16.5" spans="1:28">
+    <row r="216" spans="1:28">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -9075,7 +9094,7 @@
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
     </row>
-    <row r="217" ht="16.5" spans="1:28">
+    <row r="217" spans="1:28">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -9105,7 +9124,7 @@
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
     </row>
-    <row r="218" ht="16.5" spans="1:28">
+    <row r="218" spans="1:28">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -9135,7 +9154,7 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
     </row>
-    <row r="219" ht="16.5" spans="1:28">
+    <row r="219" spans="1:28">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -9165,7 +9184,7 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
     </row>
-    <row r="220" ht="16.5" spans="1:28">
+    <row r="220" spans="1:28">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -9195,7 +9214,7 @@
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
     </row>
-    <row r="221" ht="16.5" spans="1:28">
+    <row r="221" spans="1:28">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -9225,7 +9244,7 @@
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
     </row>
-    <row r="222" ht="16.5" spans="1:28">
+    <row r="222" spans="1:28">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -9255,7 +9274,7 @@
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
     </row>
-    <row r="223" ht="16.5" spans="1:28">
+    <row r="223" spans="1:28">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -9285,7 +9304,7 @@
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
     </row>
-    <row r="224" ht="16.5" spans="1:28">
+    <row r="224" spans="1:28">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -9315,7 +9334,7 @@
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
     </row>
-    <row r="225" ht="16.5" spans="1:28">
+    <row r="225" spans="1:28">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -9345,7 +9364,7 @@
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
     </row>
-    <row r="226" ht="16.5" spans="1:28">
+    <row r="226" spans="1:28">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -9375,7 +9394,7 @@
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
     </row>
-    <row r="227" ht="16.5" spans="1:28">
+    <row r="227" spans="1:28">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -9405,7 +9424,7 @@
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
     </row>
-    <row r="228" ht="16.5" spans="1:28">
+    <row r="228" spans="1:28">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -9435,7 +9454,7 @@
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
     </row>
-    <row r="229" ht="16.5" spans="1:28">
+    <row r="229" spans="1:28">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -9465,7 +9484,7 @@
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
     </row>
-    <row r="230" ht="16.5" spans="1:28">
+    <row r="230" spans="1:28">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -9495,7 +9514,7 @@
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
     </row>
-    <row r="231" ht="16.5" spans="1:28">
+    <row r="231" spans="1:28">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -9525,7 +9544,7 @@
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
     </row>
-    <row r="232" ht="16.5" spans="1:28">
+    <row r="232" spans="1:28">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -9555,7 +9574,7 @@
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
     </row>
-    <row r="233" ht="16.5" spans="1:28">
+    <row r="233" spans="1:28">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -9585,7 +9604,7 @@
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
     </row>
-    <row r="234" ht="16.5" spans="1:28">
+    <row r="234" spans="1:28">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -9615,7 +9634,7 @@
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
     </row>
-    <row r="235" ht="16.5" spans="1:28">
+    <row r="235" spans="1:28">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -9645,7 +9664,7 @@
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
     </row>
-    <row r="236" ht="16.5" spans="1:28">
+    <row r="236" spans="1:28">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -9675,7 +9694,7 @@
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
     </row>
-    <row r="237" ht="16.5" spans="1:28">
+    <row r="237" spans="1:28">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -9705,7 +9724,7 @@
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
     </row>
-    <row r="238" ht="16.5" spans="1:28">
+    <row r="238" spans="1:28">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -9735,7 +9754,7 @@
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
     </row>
-    <row r="239" ht="16.5" spans="1:28">
+    <row r="239" spans="1:28">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -9765,7 +9784,7 @@
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
     </row>
-    <row r="240" ht="16.5" spans="1:28">
+    <row r="240" spans="1:28">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -9795,7 +9814,7 @@
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
     </row>
-    <row r="241" ht="16.5" spans="1:28">
+    <row r="241" spans="1:28">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -9825,7 +9844,7 @@
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
     </row>
-    <row r="242" ht="16.5" spans="1:28">
+    <row r="242" spans="1:28">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -9855,7 +9874,7 @@
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
     </row>
-    <row r="243" ht="16.5" spans="1:28">
+    <row r="243" spans="1:28">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -9885,7 +9904,7 @@
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
     </row>
-    <row r="244" ht="16.5" spans="1:28">
+    <row r="244" spans="1:28">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -9915,7 +9934,7 @@
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
     </row>
-    <row r="245" ht="16.5" spans="1:28">
+    <row r="245" spans="1:28">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -9945,7 +9964,7 @@
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
     </row>
-    <row r="246" ht="16.5" spans="1:28">
+    <row r="246" spans="1:28">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -9975,7 +9994,7 @@
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
     </row>
-    <row r="247" ht="16.5" spans="1:28">
+    <row r="247" spans="1:28">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -10016,7 +10035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AB200"/>
   <sheetViews>
@@ -10024,7 +10043,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -10041,7 +10060,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -10074,13 +10093,13 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:28">
+    <row r="2" spans="1:28">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -10092,7 +10111,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -10123,13 +10142,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -10164,17 +10183,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -10205,13 +10224,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -10246,13 +10265,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -10277,7 +10296,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" ht="16.5" spans="1:28">
+    <row r="7" spans="1:28">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -10287,19 +10306,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -10320,7 +10339,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" ht="16.5" spans="1:28">
+    <row r="8" spans="1:28">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -10330,19 +10349,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -10373,13 +10392,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -10404,7 +10423,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" ht="16.5" spans="1:28">
+    <row r="10" spans="1:28">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10414,13 +10433,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -10452,13 +10471,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -10490,19 +10509,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -10533,17 +10552,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -10574,19 +10593,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -10617,13 +10636,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -10656,19 +10675,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10689,7 +10708,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" ht="16.5" spans="1:28">
+    <row r="17" spans="1:28">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10698,13 +10717,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10727,7 +10746,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" ht="16.5" spans="1:28">
+    <row r="18" spans="1:28">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10736,13 +10755,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10774,19 +10793,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10816,17 +10835,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10856,13 +10875,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10894,19 +10913,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10936,13 +10955,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10974,13 +10993,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -11012,13 +11031,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -11050,13 +11069,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -11088,13 +11107,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -11126,13 +11145,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -11164,13 +11183,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -11204,10 +11223,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -11240,10 +11259,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -11276,17 +11295,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -11316,17 +11335,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -11347,7 +11366,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" ht="16.5" spans="1:28">
+    <row r="34" spans="1:28">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -11356,17 +11375,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -11387,7 +11406,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" ht="16.5" spans="1:28">
+    <row r="35" spans="1:28">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -11396,13 +11415,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -11425,7 +11444,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" ht="16.5" spans="1:28">
+    <row r="36" spans="1:28">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11434,13 +11453,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -11472,10 +11491,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -11508,17 +11527,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -11548,10 +11567,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -11584,10 +11603,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -11611,7 +11630,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" ht="16.5" spans="1:28">
+    <row r="41" spans="1:28">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -11620,17 +11639,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -11651,7 +11670,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" ht="16.5" spans="1:28">
+    <row r="42" spans="1:28">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11660,10 +11679,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11696,13 +11715,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11734,10 +11753,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11761,7 +11780,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" ht="16.5" spans="1:28">
+    <row r="45" spans="1:28">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -11791,7 +11810,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" ht="16.5" spans="1:28">
+    <row r="46" spans="1:28">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -11821,7 +11840,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" ht="16.5" spans="1:28">
+    <row r="47" spans="1:28">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -11830,13 +11849,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11868,13 +11887,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -11897,7 +11916,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" ht="16.5" spans="1:28">
+    <row r="49" spans="1:28">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -11927,7 +11946,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" ht="16.5" spans="1:28">
+    <row r="50" spans="1:28">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11957,7 +11976,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" ht="16.5" spans="1:28">
+    <row r="51" spans="1:28">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -11987,7 +12006,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" ht="16.5" spans="1:28">
+    <row r="52" spans="1:28">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -12017,7 +12036,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" ht="16.5" spans="1:28">
+    <row r="53" spans="1:28">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -12047,7 +12066,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" ht="16.5" spans="1:28">
+    <row r="54" spans="1:28">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -12077,7 +12096,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" ht="16.5" spans="1:28">
+    <row r="55" spans="1:28">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -12107,7 +12126,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" ht="16.5" spans="1:28">
+    <row r="56" spans="1:28">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -12137,7 +12156,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" ht="16.5" spans="1:28">
+    <row r="57" spans="1:28">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -12167,7 +12186,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" ht="16.5" spans="1:28">
+    <row r="58" spans="1:28">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -12197,7 +12216,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" ht="16.5" spans="1:28">
+    <row r="59" spans="1:28">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -12227,7 +12246,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" ht="16.5" spans="1:28">
+    <row r="60" spans="1:28">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -12257,7 +12276,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" ht="16.5" spans="1:28">
+    <row r="61" spans="1:28">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -12287,7 +12306,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" ht="16.5" spans="1:28">
+    <row r="62" spans="1:28">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -12317,7 +12336,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" ht="16.5" spans="1:28">
+    <row r="63" spans="1:28">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -12347,7 +12366,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" ht="16.5" spans="1:28">
+    <row r="64" spans="1:28">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -12377,7 +12396,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" ht="16.5" spans="1:28">
+    <row r="65" spans="1:28">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -12407,7 +12426,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" ht="16.5" spans="1:28">
+    <row r="66" spans="1:28">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -12437,7 +12456,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" ht="16.5" spans="1:28">
+    <row r="67" spans="1:28">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -12467,7 +12486,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" ht="16.5" spans="1:28">
+    <row r="68" spans="1:28">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -12497,7 +12516,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" ht="16.5" spans="1:28">
+    <row r="69" spans="1:28">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -12527,7 +12546,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" ht="16.5" spans="1:28">
+    <row r="70" spans="1:28">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -12557,7 +12576,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" ht="16.5" spans="1:28">
+    <row r="71" spans="1:28">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -12587,7 +12606,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" ht="16.5" spans="1:28">
+    <row r="72" spans="1:28">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -12617,7 +12636,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" ht="16.5" spans="1:28">
+    <row r="73" spans="1:28">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -12647,7 +12666,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" ht="16.5" spans="1:28">
+    <row r="74" spans="1:28">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -12677,7 +12696,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" ht="16.5" spans="1:28">
+    <row r="75" spans="1:28">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -12707,7 +12726,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" ht="16.5" spans="1:28">
+    <row r="76" spans="1:28">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -12737,7 +12756,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" ht="16.5" spans="1:28">
+    <row r="77" spans="1:28">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12767,7 +12786,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" ht="16.5" spans="1:28">
+    <row r="78" spans="1:28">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -12797,7 +12816,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" ht="16.5" spans="1:28">
+    <row r="79" spans="1:28">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -12827,7 +12846,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" ht="16.5" spans="1:28">
+    <row r="80" spans="1:28">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12857,7 +12876,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
     </row>
-    <row r="81" ht="16.5" spans="1:28">
+    <row r="81" spans="1:28">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12887,7 +12906,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
     </row>
-    <row r="82" ht="16.5" spans="1:28">
+    <row r="82" spans="1:28">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12917,7 +12936,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
     </row>
-    <row r="83" ht="16.5" spans="1:28">
+    <row r="83" spans="1:28">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12947,7 +12966,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
     </row>
-    <row r="84" ht="16.5" spans="1:28">
+    <row r="84" spans="1:28">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12977,7 +12996,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" ht="16.5" spans="1:28">
+    <row r="85" spans="1:28">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -13007,7 +13026,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" ht="16.5" spans="1:28">
+    <row r="86" spans="1:28">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -13037,7 +13056,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" ht="16.5" spans="1:28">
+    <row r="87" spans="1:28">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -13067,7 +13086,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
-    <row r="88" ht="16.5" spans="1:28">
+    <row r="88" spans="1:28">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -13097,7 +13116,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
     </row>
-    <row r="89" ht="16.5" spans="1:28">
+    <row r="89" spans="1:28">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -13127,7 +13146,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
     </row>
-    <row r="90" ht="16.5" spans="1:28">
+    <row r="90" spans="1:28">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -13157,7 +13176,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
     </row>
-    <row r="91" ht="16.5" spans="1:28">
+    <row r="91" spans="1:28">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -13187,7 +13206,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
     </row>
-    <row r="92" ht="16.5" spans="1:28">
+    <row r="92" spans="1:28">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -13217,7 +13236,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
     </row>
-    <row r="93" ht="16.5" spans="1:28">
+    <row r="93" spans="1:28">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -13247,7 +13266,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
     </row>
-    <row r="94" ht="16.5" spans="1:28">
+    <row r="94" spans="1:28">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -13277,7 +13296,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
     </row>
-    <row r="95" ht="16.5" spans="1:28">
+    <row r="95" spans="1:28">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -13307,7 +13326,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" ht="16.5" spans="1:28">
+    <row r="96" spans="1:28">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -13337,7 +13356,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" ht="16.5" spans="1:28">
+    <row r="97" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -13367,7 +13386,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" ht="16.5" spans="1:28">
+    <row r="98" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -13397,7 +13416,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" ht="16.5" spans="1:28">
+    <row r="99" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -13427,7 +13446,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" ht="16.5" spans="1:28">
+    <row r="100" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -13457,7 +13476,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" ht="16.5" spans="1:28">
+    <row r="101" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -13487,7 +13506,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" ht="16.5" spans="1:28">
+    <row r="102" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -13517,7 +13536,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" ht="16.5" spans="1:28">
+    <row r="103" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -13547,7 +13566,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" ht="16.5" spans="1:28">
+    <row r="104" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -13577,7 +13596,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" ht="16.5" spans="1:28">
+    <row r="105" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -13607,7 +13626,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" ht="16.5" spans="1:28">
+    <row r="106" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -13637,7 +13656,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" ht="16.5" spans="1:28">
+    <row r="107" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -13667,7 +13686,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" ht="16.5" spans="1:28">
+    <row r="108" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -13697,7 +13716,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" ht="16.5" spans="1:28">
+    <row r="109" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -13727,7 +13746,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" ht="16.5" spans="1:28">
+    <row r="110" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -13757,7 +13776,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" ht="16.5" spans="1:28">
+    <row r="111" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -13787,7 +13806,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" ht="16.5" spans="1:28">
+    <row r="112" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -13817,7 +13836,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" ht="16.5" spans="1:28">
+    <row r="113" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -13847,7 +13866,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" ht="16.5" spans="1:28">
+    <row r="114" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -13877,7 +13896,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" ht="16.5" spans="1:28">
+    <row r="115" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13907,7 +13926,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" ht="16.5" spans="1:28">
+    <row r="116" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -13937,7 +13956,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" ht="16.5" spans="1:28">
+    <row r="117" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -13967,7 +13986,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" ht="16.5" spans="1:28">
+    <row r="118" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -13997,7 +14016,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" ht="16.5" spans="1:28">
+    <row r="119" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -14027,7 +14046,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" ht="16.5" spans="1:28">
+    <row r="120" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -14057,7 +14076,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" ht="16.5" spans="1:28">
+    <row r="121" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -14087,7 +14106,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" ht="16.5" spans="1:28">
+    <row r="122" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -14117,7 +14136,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" ht="16.5" spans="1:28">
+    <row r="123" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -14147,7 +14166,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" ht="16.5" spans="1:28">
+    <row r="124" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -14177,7 +14196,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" ht="16.5" spans="1:28">
+    <row r="125" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -14207,7 +14226,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" ht="16.5" spans="1:28">
+    <row r="126" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -14237,7 +14256,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" ht="16.5" spans="1:28">
+    <row r="127" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -14267,7 +14286,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" ht="16.5" spans="1:28">
+    <row r="128" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -14297,7 +14316,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" ht="16.5" spans="1:28">
+    <row r="129" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -14327,7 +14346,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" ht="16.5" spans="1:28">
+    <row r="130" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -14357,7 +14376,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" ht="16.5" spans="1:28">
+    <row r="131" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -14387,7 +14406,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" ht="16.5" spans="1:28">
+    <row r="132" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -14417,7 +14436,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" ht="16.5" spans="1:28">
+    <row r="133" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -14447,7 +14466,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" ht="16.5" spans="1:28">
+    <row r="134" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -14477,7 +14496,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" ht="16.5" spans="1:28">
+    <row r="135" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -14507,7 +14526,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" ht="16.5" spans="1:28">
+    <row r="136" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -14537,7 +14556,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" ht="16.5" spans="1:28">
+    <row r="137" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -14567,7 +14586,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" ht="16.5" spans="1:28">
+    <row r="138" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -14597,7 +14616,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" ht="16.5" spans="1:28">
+    <row r="139" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -14627,7 +14646,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" ht="16.5" spans="1:28">
+    <row r="140" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -14657,7 +14676,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" ht="16.5" spans="1:28">
+    <row r="141" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -14687,7 +14706,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" ht="16.5" spans="1:28">
+    <row r="142" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -14717,7 +14736,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" ht="16.5" spans="1:28">
+    <row r="143" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -14747,7 +14766,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" ht="16.5" spans="1:28">
+    <row r="144" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -14777,7 +14796,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" ht="16.5" spans="1:28">
+    <row r="145" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -14807,7 +14826,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" ht="16.5" spans="1:28">
+    <row r="146" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -14837,7 +14856,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" ht="16.5" spans="1:28">
+    <row r="147" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -14867,7 +14886,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" ht="16.5" spans="1:28">
+    <row r="148" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -14897,7 +14916,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" ht="16.5" spans="1:28">
+    <row r="149" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -14927,7 +14946,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" ht="16.5" spans="1:28">
+    <row r="150" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -14957,7 +14976,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" ht="16.5" spans="1:28">
+    <row r="151" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -14987,7 +15006,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" ht="16.5" spans="1:28">
+    <row r="152" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -15017,7 +15036,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" ht="16.5" spans="1:28">
+    <row r="153" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -15047,7 +15066,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" ht="16.5" spans="1:28">
+    <row r="154" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -15077,7 +15096,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" ht="16.5" spans="1:28">
+    <row r="155" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -15107,7 +15126,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" ht="16.5" spans="1:28">
+    <row r="156" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -15137,7 +15156,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" ht="16.5" spans="1:28">
+    <row r="157" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -15167,7 +15186,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" ht="16.5" spans="1:28">
+    <row r="158" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -15197,7 +15216,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" ht="16.5" spans="1:28">
+    <row r="159" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -15227,7 +15246,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" ht="16.5" spans="1:28">
+    <row r="160" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -15257,7 +15276,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" ht="16.5" spans="1:28">
+    <row r="161" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -15287,7 +15306,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" ht="16.5" spans="1:28">
+    <row r="162" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -15317,7 +15336,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" ht="16.5" spans="1:28">
+    <row r="163" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -15347,7 +15366,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" ht="16.5" spans="1:28">
+    <row r="164" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -15377,7 +15396,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" ht="16.5" spans="1:28">
+    <row r="165" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -15407,7 +15426,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" ht="16.5" spans="1:28">
+    <row r="166" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -15437,7 +15456,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" ht="16.5" spans="1:28">
+    <row r="167" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -15467,7 +15486,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" ht="16.5" spans="1:28">
+    <row r="168" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -15497,7 +15516,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" ht="16.5" spans="1:28">
+    <row r="169" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -15527,7 +15546,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" ht="16.5" spans="1:28">
+    <row r="170" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -15557,7 +15576,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" ht="16.5" spans="1:28">
+    <row r="171" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -15587,7 +15606,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" ht="16.5" spans="1:28">
+    <row r="172" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -15617,7 +15636,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" ht="16.5" spans="1:28">
+    <row r="173" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -15647,7 +15666,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" ht="16.5" spans="1:28">
+    <row r="174" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -15677,7 +15696,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" ht="16.5" spans="1:28">
+    <row r="175" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -15707,7 +15726,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" ht="16.5" spans="1:28">
+    <row r="176" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -15737,7 +15756,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" ht="16.5" spans="1:28">
+    <row r="177" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -15767,7 +15786,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" ht="16.5" spans="1:28">
+    <row r="178" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -15797,7 +15816,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" ht="16.5" spans="1:28">
+    <row r="179" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -15827,7 +15846,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" ht="16.5" spans="1:28">
+    <row r="180" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -15857,7 +15876,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" ht="16.5" spans="1:28">
+    <row r="181" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -15887,7 +15906,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" ht="16.5" spans="1:28">
+    <row r="182" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -15917,7 +15936,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" ht="16.5" spans="1:28">
+    <row r="183" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -15947,7 +15966,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" ht="16.5" spans="1:28">
+    <row r="184" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -15977,7 +15996,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" ht="16.5" spans="1:28">
+    <row r="185" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -16007,7 +16026,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" ht="16.5" spans="1:28">
+    <row r="186" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -16037,7 +16056,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" ht="16.5" spans="1:28">
+    <row r="187" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -16067,7 +16086,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" ht="16.5" spans="1:28">
+    <row r="188" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -16097,7 +16116,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" ht="16.5" spans="1:28">
+    <row r="189" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -16127,7 +16146,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" ht="16.5" spans="1:28">
+    <row r="190" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -16157,7 +16176,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" ht="16.5" spans="1:28">
+    <row r="191" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -16187,7 +16206,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" ht="16.5" spans="1:28">
+    <row r="192" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -16217,7 +16236,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" ht="16.5" spans="1:28">
+    <row r="193" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -16247,7 +16266,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" ht="16.5" spans="1:28">
+    <row r="194" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -16277,7 +16296,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" ht="16.5" spans="1:28">
+    <row r="195" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -16307,7 +16326,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" ht="16.5" spans="1:28">
+    <row r="196" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -16337,7 +16356,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" ht="16.5" spans="1:28">
+    <row r="197" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -16367,7 +16386,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" ht="16.5" spans="1:28">
+    <row r="198" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -16397,7 +16416,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" ht="16.5" spans="1:28">
+    <row r="199" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -16427,7 +16446,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" ht="16.5" spans="1:28">
+    <row r="200" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>

--- a/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
+++ b/公共/Q&A票(问题回答一览) -2组-王加成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="问题一览" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="189">
   <si>
     <t>单元格里的
 [回车键]用
@@ -420,6 +420,12 @@
     <t>管理员后台功能界面可以连接后台，正在完善界面</t>
   </si>
   <si>
+    <t>和王贤宗刘永志进一步讨论完善了数据库的细节设计，讨论了评论系统的前后台的设计。</t>
+  </si>
+  <si>
+    <t>探索了音视频编码的同步问题，目前还未解决</t>
+  </si>
+  <si>
     <t>其他例子</t>
   </si>
   <si>
@@ -806,8 +812,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
@@ -853,7 +859,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -867,32 +873,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -906,8 +888,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,23 +933,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,16 +949,46 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -982,22 +1003,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1048,13 +1054,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,7 +1078,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,13 +1108,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,19 +1192,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,103 +1228,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,40 +1346,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1409,6 +1391,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1423,16 +1429,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1445,10 +1451,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1457,7 +1463,7 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1466,124 +1472,124 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2024,10 +2030,10 @@
   <dimension ref="A1:AB247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="5.2" customWidth="1"/>
@@ -2075,7 +2081,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" ht="16.5" spans="1:28">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -4129,10 +4135,10 @@
       <c r="D50" s="20">
         <v>43650</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="19"/>
       <c r="G50" s="20">
         <v>43650</v>
       </c>
@@ -4162,12 +4168,25 @@
     </row>
     <row r="51" ht="59.25" customHeight="1" spans="1:28">
       <c r="A51" s="6"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="20">
+        <v>43650</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20">
+        <v>43650</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -4191,12 +4210,25 @@
     </row>
     <row r="52" ht="59.25" customHeight="1" spans="1:28">
       <c r="A52" s="6"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="20">
+        <v>43650</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="20">
+        <v>43650</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -4363,7 +4395,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="6"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -4450,7 +4482,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="6"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4537,7 +4569,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="6"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -4624,7 +4656,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="6"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -5494,7 +5526,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" ht="16.5" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -5524,7 +5556,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" ht="16.5" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -5554,7 +5586,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" ht="16.5" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -5584,7 +5616,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" ht="16.5" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -5614,7 +5646,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" ht="16.5" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -5644,7 +5676,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" ht="16.5" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -5674,7 +5706,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" ht="16.5" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -5704,7 +5736,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" ht="16.5" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -5734,7 +5766,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" ht="16.5" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5764,7 +5796,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" ht="16.5" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5794,7 +5826,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" ht="16.5" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5824,7 +5856,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" ht="16.5" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5854,7 +5886,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" ht="16.5" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5884,7 +5916,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" ht="16.5" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5914,7 +5946,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" ht="16.5" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5944,7 +5976,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" ht="16.5" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5974,7 +6006,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" ht="16.5" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -6004,7 +6036,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" ht="16.5" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -6034,7 +6066,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" ht="16.5" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -6064,7 +6096,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" ht="16.5" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -6094,7 +6126,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" ht="16.5" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -6124,7 +6156,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" ht="16.5" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -6154,7 +6186,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" ht="16.5" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -6184,7 +6216,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" ht="16.5" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -6214,7 +6246,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" ht="16.5" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -6244,7 +6276,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" ht="16.5" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -6274,7 +6306,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" ht="16.5" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -6304,7 +6336,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" ht="16.5" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -6334,7 +6366,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" ht="16.5" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -6364,7 +6396,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" ht="16.5" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -6394,7 +6426,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" ht="16.5" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -6424,7 +6456,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" ht="16.5" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -6454,7 +6486,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" ht="16.5" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -6484,7 +6516,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" ht="16.5" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -6514,7 +6546,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" ht="16.5" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -6544,7 +6576,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" ht="16.5" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -6574,7 +6606,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" ht="16.5" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -6604,7 +6636,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" ht="16.5" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -6634,7 +6666,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" ht="16.5" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6664,7 +6696,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" ht="16.5" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6694,7 +6726,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" ht="16.5" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -6724,7 +6756,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" ht="16.5" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -6754,7 +6786,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" ht="16.5" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6784,7 +6816,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" ht="16.5" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6814,7 +6846,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" ht="16.5" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6844,7 +6876,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" ht="16.5" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6874,7 +6906,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" ht="16.5" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6904,7 +6936,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" ht="16.5" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6934,7 +6966,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" ht="16.5" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6964,7 +6996,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" ht="16.5" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6994,7 +7026,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" ht="16.5" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -7024,7 +7056,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" ht="16.5" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -7054,7 +7086,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" ht="16.5" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -7084,7 +7116,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" ht="16.5" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -7114,7 +7146,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" ht="16.5" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -7144,7 +7176,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" ht="16.5" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -7174,7 +7206,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" ht="16.5" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -7204,7 +7236,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" ht="16.5" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -7234,7 +7266,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" ht="16.5" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -7264,7 +7296,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" ht="16.5" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -7294,7 +7326,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" ht="16.5" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -7324,7 +7356,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" ht="16.5" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -7354,7 +7386,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" ht="16.5" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -7384,7 +7416,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" ht="16.5" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -7414,7 +7446,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" ht="16.5" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -7444,7 +7476,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" ht="16.5" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -7474,7 +7506,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" ht="16.5" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -7504,7 +7536,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" ht="16.5" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -7534,7 +7566,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" ht="16.5" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -7564,7 +7596,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" ht="16.5" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -7594,7 +7626,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" ht="16.5" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -7624,7 +7656,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" ht="16.5" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -7654,7 +7686,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" ht="16.5" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -7684,7 +7716,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" ht="16.5" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7714,7 +7746,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" ht="16.5" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7744,7 +7776,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" ht="16.5" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7774,7 +7806,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" ht="16.5" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7804,7 +7836,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" ht="16.5" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7834,7 +7866,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" ht="16.5" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7864,7 +7896,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" ht="16.5" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7894,7 +7926,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" ht="16.5" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7924,7 +7956,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" ht="16.5" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -7954,7 +7986,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" ht="16.5" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -7984,7 +8016,7 @@
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" ht="16.5" spans="1:28">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -8014,7 +8046,7 @@
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" ht="16.5" spans="1:28">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -8044,7 +8076,7 @@
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" ht="16.5" spans="1:28">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -8074,7 +8106,7 @@
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" ht="16.5" spans="1:28">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -8104,7 +8136,7 @@
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" ht="16.5" spans="1:28">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -8134,7 +8166,7 @@
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" ht="16.5" spans="1:28">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -8164,7 +8196,7 @@
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" ht="16.5" spans="1:28">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -8194,7 +8226,7 @@
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" ht="16.5" spans="1:28">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -8224,7 +8256,7 @@
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" ht="16.5" spans="1:28">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -8254,7 +8286,7 @@
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" ht="16.5" spans="1:28">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -8284,7 +8316,7 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" ht="16.5" spans="1:28">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -8314,7 +8346,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" ht="16.5" spans="1:28">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -8344,7 +8376,7 @@
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" ht="16.5" spans="1:28">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -8374,7 +8406,7 @@
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" ht="16.5" spans="1:28">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -8404,7 +8436,7 @@
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" ht="16.5" spans="1:28">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -8434,7 +8466,7 @@
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" ht="16.5" spans="1:28">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -8464,7 +8496,7 @@
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" ht="16.5" spans="1:28">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -8494,7 +8526,7 @@
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" ht="16.5" spans="1:28">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -8524,7 +8556,7 @@
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" ht="16.5" spans="1:28">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -8554,7 +8586,7 @@
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" ht="16.5" spans="1:28">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -8584,7 +8616,7 @@
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" ht="16.5" spans="1:28">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -8614,7 +8646,7 @@
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
     </row>
-    <row r="201" spans="1:28">
+    <row r="201" ht="16.5" spans="1:28">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -8644,7 +8676,7 @@
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
     </row>
-    <row r="202" spans="1:28">
+    <row r="202" ht="16.5" spans="1:28">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -8674,7 +8706,7 @@
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
     </row>
-    <row r="203" spans="1:28">
+    <row r="203" ht="16.5" spans="1:28">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -8704,7 +8736,7 @@
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
     </row>
-    <row r="204" spans="1:28">
+    <row r="204" ht="16.5" spans="1:28">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -8734,7 +8766,7 @@
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
     </row>
-    <row r="205" spans="1:28">
+    <row r="205" ht="16.5" spans="1:28">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -8764,7 +8796,7 @@
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
     </row>
-    <row r="206" spans="1:28">
+    <row r="206" ht="16.5" spans="1:28">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -8794,7 +8826,7 @@
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
     </row>
-    <row r="207" spans="1:28">
+    <row r="207" ht="16.5" spans="1:28">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -8824,7 +8856,7 @@
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
     </row>
-    <row r="208" spans="1:28">
+    <row r="208" ht="16.5" spans="1:28">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -8854,7 +8886,7 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
     </row>
-    <row r="209" spans="1:28">
+    <row r="209" ht="16.5" spans="1:28">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -8884,7 +8916,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
     </row>
-    <row r="210" spans="1:28">
+    <row r="210" ht="16.5" spans="1:28">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -8914,7 +8946,7 @@
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
     </row>
-    <row r="211" spans="1:28">
+    <row r="211" ht="16.5" spans="1:28">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -8944,7 +8976,7 @@
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
     </row>
-    <row r="212" spans="1:28">
+    <row r="212" ht="16.5" spans="1:28">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -8974,7 +9006,7 @@
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
     </row>
-    <row r="213" spans="1:28">
+    <row r="213" ht="16.5" spans="1:28">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -9004,7 +9036,7 @@
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
     </row>
-    <row r="214" spans="1:28">
+    <row r="214" ht="16.5" spans="1:28">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -9034,7 +9066,7 @@
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
     </row>
-    <row r="215" spans="1:28">
+    <row r="215" ht="16.5" spans="1:28">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -9064,7 +9096,7 @@
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
     </row>
-    <row r="216" spans="1:28">
+    <row r="216" ht="16.5" spans="1:28">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -9094,7 +9126,7 @@
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
     </row>
-    <row r="217" spans="1:28">
+    <row r="217" ht="16.5" spans="1:28">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -9124,7 +9156,7 @@
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
     </row>
-    <row r="218" spans="1:28">
+    <row r="218" ht="16.5" spans="1:28">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -9154,7 +9186,7 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
     </row>
-    <row r="219" spans="1:28">
+    <row r="219" ht="16.5" spans="1:28">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -9184,7 +9216,7 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
     </row>
-    <row r="220" spans="1:28">
+    <row r="220" ht="16.5" spans="1:28">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -9214,7 +9246,7 @@
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
     </row>
-    <row r="221" spans="1:28">
+    <row r="221" ht="16.5" spans="1:28">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -9244,7 +9276,7 @@
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
     </row>
-    <row r="222" spans="1:28">
+    <row r="222" ht="16.5" spans="1:28">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -9274,7 +9306,7 @@
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
     </row>
-    <row r="223" spans="1:28">
+    <row r="223" ht="16.5" spans="1:28">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -9304,7 +9336,7 @@
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
     </row>
-    <row r="224" spans="1:28">
+    <row r="224" ht="16.5" spans="1:28">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -9334,7 +9366,7 @@
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
     </row>
-    <row r="225" spans="1:28">
+    <row r="225" ht="16.5" spans="1:28">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -9364,7 +9396,7 @@
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
     </row>
-    <row r="226" spans="1:28">
+    <row r="226" ht="16.5" spans="1:28">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -9394,7 +9426,7 @@
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
     </row>
-    <row r="227" spans="1:28">
+    <row r="227" ht="16.5" spans="1:28">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -9424,7 +9456,7 @@
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
     </row>
-    <row r="228" spans="1:28">
+    <row r="228" ht="16.5" spans="1:28">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -9454,7 +9486,7 @@
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
     </row>
-    <row r="229" spans="1:28">
+    <row r="229" ht="16.5" spans="1:28">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -9484,7 +9516,7 @@
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
     </row>
-    <row r="230" spans="1:28">
+    <row r="230" ht="16.5" spans="1:28">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -9514,7 +9546,7 @@
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
     </row>
-    <row r="231" spans="1:28">
+    <row r="231" ht="16.5" spans="1:28">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -9544,7 +9576,7 @@
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
     </row>
-    <row r="232" spans="1:28">
+    <row r="232" ht="16.5" spans="1:28">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -9574,7 +9606,7 @@
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
     </row>
-    <row r="233" spans="1:28">
+    <row r="233" ht="16.5" spans="1:28">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -9604,7 +9636,7 @@
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
     </row>
-    <row r="234" spans="1:28">
+    <row r="234" ht="16.5" spans="1:28">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -9634,7 +9666,7 @@
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
     </row>
-    <row r="235" spans="1:28">
+    <row r="235" ht="16.5" spans="1:28">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -9664,7 +9696,7 @@
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
     </row>
-    <row r="236" spans="1:28">
+    <row r="236" ht="16.5" spans="1:28">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -9694,7 +9726,7 @@
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
     </row>
-    <row r="237" spans="1:28">
+    <row r="237" ht="16.5" spans="1:28">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -9724,7 +9756,7 @@
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
     </row>
-    <row r="238" spans="1:28">
+    <row r="238" ht="16.5" spans="1:28">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -9754,7 +9786,7 @@
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
     </row>
-    <row r="239" spans="1:28">
+    <row r="239" ht="16.5" spans="1:28">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -9784,7 +9816,7 @@
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
     </row>
-    <row r="240" spans="1:28">
+    <row r="240" ht="16.5" spans="1:28">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -9814,7 +9846,7 @@
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
     </row>
-    <row r="241" spans="1:28">
+    <row r="241" ht="16.5" spans="1:28">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -9844,7 +9876,7 @@
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
     </row>
-    <row r="242" spans="1:28">
+    <row r="242" ht="16.5" spans="1:28">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -9874,7 +9906,7 @@
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
     </row>
-    <row r="243" spans="1:28">
+    <row r="243" ht="16.5" spans="1:28">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -9904,7 +9936,7 @@
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
     </row>
-    <row r="244" spans="1:28">
+    <row r="244" ht="16.5" spans="1:28">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -9934,7 +9966,7 @@
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
     </row>
-    <row r="245" spans="1:28">
+    <row r="245" ht="16.5" spans="1:28">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -9964,7 +9996,7 @@
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
     </row>
-    <row r="246" spans="1:28">
+    <row r="246" ht="16.5" spans="1:28">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -9994,7 +10026,7 @@
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
     </row>
-    <row r="247" spans="1:28">
+    <row r="247" ht="16.5" spans="1:28">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -10043,7 +10075,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -10060,7 +10092,7 @@
     <row r="1" ht="52.5" customHeight="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
@@ -10093,13 +10125,13 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" ht="16.5" spans="1:28">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -10111,7 +10143,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -10142,13 +10174,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I3" s="14">
         <v>40714</v>
@@ -10183,17 +10215,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -10224,13 +10256,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I5" s="14">
         <v>40718</v>
@@ -10265,13 +10297,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="I6" s="14">
         <v>40718</v>
@@ -10296,7 +10328,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" ht="16.5" spans="1:28">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -10306,19 +10338,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I7" s="14">
         <v>40718</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -10339,7 +10371,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" ht="16.5" spans="1:28">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -10349,19 +10381,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I8" s="14">
         <v>40719</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -10392,13 +10424,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I9" s="14">
         <v>40721</v>
@@ -10423,7 +10455,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" ht="16.5" spans="1:28">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10433,13 +10465,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -10471,13 +10503,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -10509,19 +10541,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I12" s="14">
         <v>40721</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -10552,17 +10584,17 @@
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -10593,19 +10625,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I14" s="14">
         <v>40723</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -10636,13 +10668,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -10675,19 +10707,19 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I16" s="14">
         <v>40723</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -10708,7 +10740,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" ht="16.5" spans="1:28">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10717,13 +10749,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10746,7 +10778,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" ht="16.5" spans="1:28">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10755,13 +10787,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10793,19 +10825,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I19" s="15">
         <v>40724</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -10835,17 +10867,17 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -10875,13 +10907,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10913,19 +10945,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I22" s="15">
         <v>40728</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -10955,13 +10987,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10993,13 +11025,13 @@
         <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -11031,13 +11063,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -11069,13 +11101,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -11107,13 +11139,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="16"/>
@@ -11145,13 +11177,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -11183,13 +11215,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I29" s="15">
         <v>40731</v>
@@ -11223,10 +11255,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -11259,10 +11291,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -11295,17 +11327,17 @@
         <v>30</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -11335,17 +11367,17 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -11366,7 +11398,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" ht="16.5" spans="1:28">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -11375,17 +11407,17 @@
         <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -11406,7 +11438,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" ht="16.5" spans="1:28">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -11415,13 +11447,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -11444,7 +11476,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" ht="16.5" spans="1:28">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11453,13 +11485,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -11491,10 +11523,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -11527,17 +11559,17 @@
         <v>36</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -11567,10 +11599,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -11603,10 +11635,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -11630,7 +11662,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" ht="16.5" spans="1:28">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -11639,17 +11671,17 @@
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -11670,7 +11702,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" ht="16.5" spans="1:28">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11679,10 +11711,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -11715,13 +11747,13 @@
         <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -11753,10 +11785,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -11780,7 +11812,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" ht="16.5" spans="1:28">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -11810,7 +11842,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" ht="16.5" spans="1:28">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -11840,7 +11872,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" ht="16.5" spans="1:28">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -11849,13 +11881,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -11887,13 +11919,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -11916,7 +11948,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" ht="16.5" spans="1:28">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -11946,7 +11978,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" ht="16.5" spans="1:28">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11976,7 +12008,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" ht="16.5" spans="1:28">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -12006,7 +12038,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" ht="16.5" spans="1:28">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -12036,7 +12068,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" ht="16.5" spans="1:28">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -12066,7 +12098,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" ht="16.5" spans="1:28">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -12096,7 +12128,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" ht="16.5" spans="1:28">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -12126,7 +12158,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" ht="16.5" spans="1:28">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -12156,7 +12188,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" ht="16.5" spans="1:28">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -12186,7 +12218,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -12216,7 +12248,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" ht="16.5" spans="1:28">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -12246,7 +12278,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" ht="16.5" spans="1:28">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -12276,7 +12308,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -12306,7 +12338,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" ht="16.5" spans="1:28">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -12336,7 +12368,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" ht="16.5" spans="1:28">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -12366,7 +12398,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -12396,7 +12428,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" ht="16.5" spans="1:28">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -12426,7 +12458,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" ht="16.5" spans="1:28">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -12456,7 +12488,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -12486,7 +12518,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" ht="16.5" spans="1:28">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -12516,7 +12548,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" ht="16.5" spans="1:28">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -12546,7 +12578,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" ht="16.5" spans="1:28">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -12576,7 +12608,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" ht="16.5" spans="1:28">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -12606,7 +12638,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" ht="16.5" spans="1:28">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -12636,7 +12668,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" ht="16.5" spans="1:28">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -12666,7 +12698,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" ht="16.5" spans="1:28">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -12696,7 +12728,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" ht="16.5" spans="1:28">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -12726,7 +12758,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" ht="16.5" spans="1:28">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -12756,7 +12788,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" ht="16.5" spans="1:28">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12786,7 +12818,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" ht="16.5" spans="1:28">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -12816,7 +12848,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" ht="16.5" spans="1:28">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -12846,7 +12878,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" ht="16.5" spans="1:28">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12876,7 +12908,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" ht="16.5" spans="1:28">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12906,7 +12938,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" ht="16.5" spans="1:28">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12936,7 +12968,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" ht="16.5" spans="1:28">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12966,7 +12998,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" ht="16.5" spans="1:28">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12996,7 +13028,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" ht="16.5" spans="1:28">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -13026,7 +13058,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" ht="16.5" spans="1:28">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -13056,7 +13088,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" ht="16.5" spans="1:28">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -13086,7 +13118,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" ht="16.5" spans="1:28">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -13116,7 +13148,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" ht="16.5" spans="1:28">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -13146,7 +13178,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" ht="16.5" spans="1:28">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -13176,7 +13208,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" ht="16.5" spans="1:28">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -13206,7 +13238,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" ht="16.5" spans="1:28">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -13236,7 +13268,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" ht="16.5" spans="1:28">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -13266,7 +13298,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" ht="16.5" spans="1:28">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -13296,7 +13328,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" ht="16.5" spans="1:28">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -13326,7 +13358,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" ht="16.5" spans="1:28">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -13356,7 +13388,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" ht="16.5" spans="1:28">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -13386,7 +13418,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" ht="16.5" spans="1:28">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -13416,7 +13448,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" ht="16.5" spans="1:28">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -13446,7 +13478,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" ht="16.5" spans="1:28">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -13476,7 +13508,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" ht="16.5" spans="1:28">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -13506,7 +13538,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" ht="16.5" spans="1:28">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -13536,7 +13568,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" ht="16.5" spans="1:28">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -13566,7 +13598,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" ht="16.5" spans="1:28">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -13596,7 +13628,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" ht="16.5" spans="1:28">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -13626,7 +13658,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" ht="16.5" spans="1:28">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -13656,7 +13688,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" ht="16.5" spans="1:28">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -13686,7 +13718,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" ht="16.5" spans="1:28">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -13716,7 +13748,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" ht="16.5" spans="1:28">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -13746,7 +13778,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" ht="16.5" spans="1:28">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -13776,7 +13808,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" ht="16.5" spans="1:28">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -13806,7 +13838,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" ht="16.5" spans="1:28">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -13836,7 +13868,7 @@
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" ht="16.5" spans="1:28">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -13866,7 +13898,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" ht="16.5" spans="1:28">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -13896,7 +13928,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" ht="16.5" spans="1:28">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13926,7 +13958,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" ht="16.5" spans="1:28">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -13956,7 +13988,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" ht="16.5" spans="1:28">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -13986,7 +14018,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" ht="16.5" spans="1:28">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -14016,7 +14048,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" ht="16.5" spans="1:28">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -14046,7 +14078,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" ht="16.5" spans="1:28">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -14076,7 +14108,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" ht="16.5" spans="1:28">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -14106,7 +14138,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" ht="16.5" spans="1:28">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -14136,7 +14168,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" ht="16.5" spans="1:28">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -14166,7 +14198,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" ht="16.5" spans="1:28">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -14196,7 +14228,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" ht="16.5" spans="1:28">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -14226,7 +14258,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" ht="16.5" spans="1:28">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -14256,7 +14288,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" ht="16.5" spans="1:28">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -14286,7 +14318,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" ht="16.5" spans="1:28">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -14316,7 +14348,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" ht="16.5" spans="1:28">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -14346,7 +14378,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" ht="16.5" spans="1:28">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -14376,7 +14408,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" ht="16.5" spans="1:28">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -14406,7 +14438,7 @@
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" ht="16.5" spans="1:28">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -14436,7 +14468,7 @@
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" ht="16.5" spans="1:28">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -14466,7 +14498,7 @@
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" ht="16.5" spans="1:28">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -14496,7 +14528,7 @@
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" ht="16.5" spans="1:28">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -14526,7 +14558,7 @@
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" ht="16.5" spans="1:28">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -14556,7 +14588,7 @@
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" ht="16.5" spans="1:28">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -14586,7 +14618,7 @@
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" ht="16.5" spans="1:28">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -14616,7 +14648,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" ht="16.5" spans="1:28">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -14646,7 +14678,7 @@
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" ht="16.5" spans="1:28">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -14676,7 +14708,7 @@
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" ht="16.5" spans="1:28">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -14706,7 +14738,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" ht="16.5" spans="1:28">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -14736,7 +14768,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" ht="16.5" spans="1:28">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -14766,7 +14798,7 @@
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" ht="16.5" spans="1:28">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -14796,7 +14828,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" ht="16.5" spans="1:28">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -14826,7 +14858,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" ht="16.5" spans="1:28">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -14856,7 +14888,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" ht="16.5" spans="1:28">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -14886,7 +14918,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" ht="16.5" spans="1:28">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -14916,7 +14948,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" ht="16.5" spans="1:28">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -14946,7 +14978,7 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" ht="16.5" spans="1:28">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -14976,7 +15008,7 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" ht="16.5" spans="1:28">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -15006,7 +15038,7 @@
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" ht="16.5" spans="1:28">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -15036,7 +15068,7 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" ht="16.5" spans="1:28">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -15066,7 +15098,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" ht="16.5" spans="1:28">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -15096,7 +15128,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" ht="16.5" spans="1:28">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -15126,7 +15158,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" ht="16.5" spans="1:28">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -15156,7 +15188,7 @@
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" ht="16.5" spans="1:28">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -15186,7 +15218,7 @@
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" ht="16.5" spans="1:28">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -15216,7 +15248,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" ht="16.5" spans="1:28">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -15246,7 +15278,7 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" ht="16.5" spans="1:28">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -15276,7 +15308,7 @@
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" ht="16.5" spans="1:28">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -15306,7 +15338,7 @@
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" ht="16.5" spans="1:28">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -15336,7 +15368,7 @@
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" ht="16.5" spans="1:28">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -15366,7 +15398,7 @@
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" ht="16.5" spans="1:28">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -15396,7 +15428,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" ht="16.5" spans="1:28">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -15426,7 +15458,7 @@
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" ht="16.5" spans="1:28">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -15456,7 +15488,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" ht="16.5" spans="1:28">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -15486,7 +15518,7 @@
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" ht="16.5" spans="1:28">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -15516,7 +15548,7 @@
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" ht="16.5" spans="1:28">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -15546,7 +15578,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" ht="16.5" spans="1:28">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -15576,7 +15608,7 @@
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" ht="16.5" spans="1:28">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -15606,7 +15638,7 @@
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" ht="16.5" spans="1:28">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -15636,7 +15668,7 @@
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" ht="16.5" spans="1:28">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -15666,7 +15698,7 @@
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" ht="16.5" spans="1:28">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -15696,7 +15728,7 @@
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" ht="16.5" spans="1:28">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -15726,7 +15758,7 @@
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" ht="16.5" spans="1:28">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -15756,7 +15788,7 @@
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" ht="16.5" spans="1:28">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -15786,7 +15818,7 @@
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" ht="16.5" spans="1:28">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -15816,7 +15848,7 @@
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" ht="16.5" spans="1:28">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c